--- a/adjusted_features.xlsx
+++ b/adjusted_features.xlsx
@@ -2120,7 +2120,7 @@
         <v>0.6541377878833727</v>
       </c>
       <c r="S2">
-        <v>0.9767498200794947</v>
+        <v>0.2694766728523562</v>
       </c>
       <c r="T2">
         <v>11.60545396888729</v>
@@ -2209,7 +2209,7 @@
         <v>0.0871502288168029</v>
       </c>
       <c r="N3">
-        <v>2.6957718529913</v>
+        <v>0.1698107218633352</v>
       </c>
       <c r="O3">
         <v>0.1742756998314577</v>
@@ -2224,7 +2224,7 @@
         <v>0.5055913123460755</v>
       </c>
       <c r="S3">
-        <v>0.8429650206374198</v>
+        <v>0.2287003363876927</v>
       </c>
       <c r="T3">
         <v>10.56181763678927</v>
@@ -2313,7 +2313,7 @@
         <v>0.05185609699335889</v>
       </c>
       <c r="N4">
-        <v>0.5391995310362691</v>
+        <v>0.06239568908559354</v>
       </c>
       <c r="O4">
         <v>0.3316760079543353</v>
@@ -2328,7 +2328,7 @@
         <v>0.4751266555556584</v>
       </c>
       <c r="S4">
-        <v>0.872864968202964</v>
+        <v>0.2120451340952973</v>
       </c>
       <c r="T4">
         <v>12.67994013745308</v>
@@ -2417,7 +2417,7 @@
         <v>0.1703978543886397</v>
       </c>
       <c r="N5">
-        <v>0.4957776587438701</v>
+        <v>0.08344764881870778</v>
       </c>
       <c r="O5">
         <v>0.07710364346116308</v>
@@ -2432,7 +2432,7 @@
         <v>0.6507538341259643</v>
       </c>
       <c r="S5">
-        <v>0.8543144996400848</v>
+        <v>0.2954935229164395</v>
       </c>
       <c r="T5">
         <v>13.6013644792258</v>
@@ -2521,7 +2521,7 @@
         <v>0.1169220111449262</v>
       </c>
       <c r="N6">
-        <v>0.7696365355330516</v>
+        <v>0.112042691837978</v>
       </c>
       <c r="O6">
         <v>0.2242824647353789</v>
@@ -2536,7 +2536,7 @@
         <v>0.6217539099018989</v>
       </c>
       <c r="S6">
-        <v>0.9348327773298871</v>
+        <v>0.3128218038026137</v>
       </c>
       <c r="T6">
         <v>12.05520665521671</v>
@@ -2625,7 +2625,7 @@
         <v>0.1065544109999325</v>
       </c>
       <c r="N7">
-        <v>1.247874504205059</v>
+        <v>0.2249103947995612</v>
       </c>
       <c r="O7">
         <v>0.4160618375131476</v>
@@ -2640,7 +2640,7 @@
         <v>0.6347166149776835</v>
       </c>
       <c r="S7">
-        <v>0.9729770320755209</v>
+        <v>0.2156649516883385</v>
       </c>
       <c r="T7">
         <v>9.43915409001613</v>
@@ -2729,7 +2729,7 @@
         <v>0.1236849777694166</v>
       </c>
       <c r="N8">
-        <v>2.268511359716215</v>
+        <v>0.1914320156379418</v>
       </c>
       <c r="O8">
         <v>0.0874745506903627</v>
@@ -2744,7 +2744,7 @@
         <v>0.5837366973918282</v>
       </c>
       <c r="S8">
-        <v>0.826048268950522</v>
+        <v>0.2233787655551704</v>
       </c>
       <c r="T8">
         <v>12.25767533917857</v>
@@ -2833,7 +2833,7 @@
         <v>0.1611757947704556</v>
       </c>
       <c r="N9">
-        <v>1.135839407721201</v>
+        <v>0.4124470364446453</v>
       </c>
       <c r="O9">
         <v>0.1827568624191615</v>
@@ -2848,7 +2848,7 @@
         <v>0.6222445493733102</v>
       </c>
       <c r="S9">
-        <v>0.842105844604893</v>
+        <v>0.2399382785271017</v>
       </c>
       <c r="T9">
         <v>12.97028023110873</v>
@@ -2937,7 +2937,7 @@
         <v>0.1852659395540921</v>
       </c>
       <c r="N10">
-        <v>1.244502059432776</v>
+        <v>0.5887005330920183</v>
       </c>
       <c r="O10">
         <v>0.06500639573481756</v>
@@ -2952,7 +2952,7 @@
         <v>0.7319454328539596</v>
       </c>
       <c r="S10">
-        <v>0.9768885587748309</v>
+        <v>0.3210988622018822</v>
       </c>
       <c r="T10">
         <v>10.61036723429391</v>
@@ -3041,7 +3041,7 @@
         <v>0.3681606636609885</v>
       </c>
       <c r="N11">
-        <v>0.7893996414489964</v>
+        <v>0.4022173101526058</v>
       </c>
       <c r="O11">
         <v>0.06981410218400071</v>
@@ -3056,7 +3056,7 @@
         <v>0.7138779146530612</v>
       </c>
       <c r="S11">
-        <v>1.040746199684687</v>
+        <v>0.3076294444414304</v>
       </c>
       <c r="T11">
         <v>10.10631393318841</v>
@@ -3145,7 +3145,7 @@
         <v>0.08766339238016548</v>
       </c>
       <c r="N12">
-        <v>1.611424308882289</v>
+        <v>0.2566175969122667</v>
       </c>
       <c r="O12">
         <v>0.2502843980806025</v>
@@ -3160,7 +3160,7 @@
         <v>0.55017392688341</v>
       </c>
       <c r="S12">
-        <v>0.8734340304408692</v>
+        <v>0.2377869365672225</v>
       </c>
       <c r="T12">
         <v>10.79309300454574</v>
@@ -3249,7 +3249,7 @@
         <v>0.3084810432399587</v>
       </c>
       <c r="N13">
-        <v>0.8518234475227021</v>
+        <v>0.2057833594725254</v>
       </c>
       <c r="O13">
         <v>0.1554417251803228</v>
@@ -3264,7 +3264,7 @@
         <v>0.6244088617299461</v>
       </c>
       <c r="S13">
-        <v>0.8811422978887075</v>
+        <v>0.2778259830223843</v>
       </c>
       <c r="T13">
         <v>13.29398637673909</v>
@@ -3353,7 +3353,7 @@
         <v>0.09430803438151118</v>
       </c>
       <c r="N14">
-        <v>0.5241540304043276</v>
+        <v>0.08701748771164773</v>
       </c>
       <c r="O14">
         <v>0.1645216390729009</v>
@@ -3368,7 +3368,7 @@
         <v>0.6585205581691855</v>
       </c>
       <c r="S14">
-        <v>0.9107301060323667</v>
+        <v>0.2164460307357253</v>
       </c>
       <c r="T14">
         <v>12.90830024542258</v>
@@ -3457,7 +3457,7 @@
         <v>0.05758116128079368</v>
       </c>
       <c r="N15">
-        <v>0.6928008965188038</v>
+        <v>0.02564870977588192</v>
       </c>
       <c r="O15">
         <v>0.1597348398124865</v>
@@ -3472,7 +3472,7 @@
         <v>0.6160143306316586</v>
       </c>
       <c r="S15">
-        <v>0.879668337167642</v>
+        <v>0.2219006445153515</v>
       </c>
       <c r="T15">
         <v>13.32301904989003</v>
@@ -3561,7 +3561,7 @@
         <v>0.1768857140223688</v>
       </c>
       <c r="N16">
-        <v>1.852778545562354</v>
+        <v>0.3853058930784897</v>
       </c>
       <c r="O16">
         <v>0.02344223618331477</v>
@@ -3576,7 +3576,7 @@
         <v>0.6627498694486158</v>
       </c>
       <c r="S16">
-        <v>0.8246902783925864</v>
+        <v>0.3107132468527153</v>
       </c>
       <c r="T16">
         <v>14.13072773740325</v>
@@ -3665,7 +3665,7 @@
         <v>0.2721257728138665</v>
       </c>
       <c r="N17">
-        <v>1.024368138543143</v>
+        <v>0.3849179019203091</v>
       </c>
       <c r="O17">
         <v>0.02408316436848754</v>
@@ -3680,7 +3680,7 @@
         <v>0.6397096665991152</v>
       </c>
       <c r="S17">
-        <v>0.876383071546891</v>
+        <v>0.305357336318378</v>
       </c>
       <c r="T17">
         <v>12.1894325992997</v>
@@ -3751,7 +3751,7 @@
         <v>0.04695803120247436</v>
       </c>
       <c r="N18">
-        <v>2.093613427636992</v>
+        <v>0.2279670939443913</v>
       </c>
       <c r="O18">
         <v>0.06344522228188378</v>
@@ -3766,7 +3766,7 @@
         <v>0.6543936524602755</v>
       </c>
       <c r="S18">
-        <v>0.962213725047143</v>
+        <v>0.2877495763382425</v>
       </c>
       <c r="T18">
         <v>12.7256627662552</v>
@@ -3855,7 +3855,7 @@
         <v>0.1400070458423994</v>
       </c>
       <c r="N19">
-        <v>1.579449980033252</v>
+        <v>0.6130008246778718</v>
       </c>
       <c r="O19">
         <v>0.5984644473522641</v>
@@ -3870,7 +3870,7 @@
         <v>0.6470446599542727</v>
       </c>
       <c r="S19">
-        <v>0.9457525146457423</v>
+        <v>0.267501473338468</v>
       </c>
       <c r="T19">
         <v>9.62176151194479</v>
@@ -3959,7 +3959,7 @@
         <v>0.137584623989522</v>
       </c>
       <c r="N20">
-        <v>1.338777496207484</v>
+        <v>0.4571978847500974</v>
       </c>
       <c r="O20">
         <v>0.07769887604127761</v>
@@ -3974,7 +3974,7 @@
         <v>0.4876016069914151</v>
       </c>
       <c r="S20">
-        <v>0.8928011394348335</v>
+        <v>0.2755974389365314</v>
       </c>
       <c r="T20">
         <v>10.50392898825795</v>
@@ -4063,7 +4063,7 @@
         <v>0.1230665233234461</v>
       </c>
       <c r="N21">
-        <v>1.941544168030891</v>
+        <v>0.3819981419396679</v>
       </c>
       <c r="O21">
         <v>0.1746393536396599</v>
@@ -4078,7 +4078,7 @@
         <v>0.6132408067032359</v>
       </c>
       <c r="S21">
-        <v>0.8886829206974493</v>
+        <v>0.2416184018103491</v>
       </c>
       <c r="T21">
         <v>10.5763524438726</v>
@@ -4167,7 +4167,7 @@
         <v>0.03989423887832397</v>
       </c>
       <c r="N22">
-        <v>1.668985619370152</v>
+        <v>0.03921671642332424</v>
       </c>
       <c r="O22">
         <v>0.1117522816045512</v>
@@ -4182,7 +4182,7 @@
         <v>0.6485620290391721</v>
       </c>
       <c r="S22">
-        <v>0.8681685470701787</v>
+        <v>0.2684309008711618</v>
       </c>
       <c r="T22">
         <v>11.55923892169673</v>
@@ -4271,7 +4271,7 @@
         <v>0.06449073442836468</v>
       </c>
       <c r="N23">
-        <v>3.19216356522529</v>
+        <v>0.2510943221175961</v>
       </c>
       <c r="O23">
         <v>0.3324747677355429</v>
@@ -4286,7 +4286,7 @@
         <v>0.605072206572288</v>
       </c>
       <c r="S23">
-        <v>0.8489688411386255</v>
+        <v>0.2482960415697199</v>
       </c>
       <c r="T23">
         <v>8.381826362423883</v>
@@ -4375,7 +4375,7 @@
         <v>0.1690873450057287</v>
       </c>
       <c r="N24">
-        <v>1.497208619696555</v>
+        <v>0.4680830452459321</v>
       </c>
       <c r="O24">
         <v>0.1882966230749209</v>
@@ -4390,7 +4390,7 @@
         <v>0.5641073961170602</v>
       </c>
       <c r="S24">
-        <v>0.8273632263824638</v>
+        <v>0.2672975815227391</v>
       </c>
       <c r="T24">
         <v>4.982070891922468</v>
@@ -4479,7 +4479,7 @@
         <v>0.08410987119540481</v>
       </c>
       <c r="N25">
-        <v>1.066389171027015</v>
+        <v>0.09471739366812544</v>
       </c>
       <c r="O25">
         <v>0.1208773031823684</v>
@@ -4494,7 +4494,7 @@
         <v>0.7137913644762025</v>
       </c>
       <c r="S25">
-        <v>1.069572790316426</v>
+        <v>0.2431330758309149</v>
       </c>
       <c r="T25">
         <v>12.54813116474393</v>
@@ -4580,7 +4580,7 @@
         <v>0.3136431356782794</v>
       </c>
       <c r="N26">
-        <v>1.091663142146438</v>
+        <v>0.462804510308719</v>
       </c>
       <c r="O26">
         <v>0.02768179376576029</v>
@@ -4595,7 +4595,7 @@
         <v>0.7050623697879137</v>
       </c>
       <c r="S26">
-        <v>0.9739559289820992</v>
+        <v>0.3072030896059438</v>
       </c>
       <c r="T26">
         <v>9.207789636953224</v>
@@ -4681,7 +4681,7 @@
         <v>0.2147703286325887</v>
       </c>
       <c r="N27">
-        <v>1.103164364151423</v>
+        <v>0.4472920656336578</v>
       </c>
       <c r="O27">
         <v>-0.01069385668029211</v>
@@ -4696,7 +4696,7 @@
         <v>0.5459110746498348</v>
       </c>
       <c r="S27">
-        <v>0.8690584271072601</v>
+        <v>0.247219429899818</v>
       </c>
       <c r="T27">
         <v>10.47814495790824</v>
@@ -4785,7 +4785,7 @@
         <v>0.1151636510548756</v>
       </c>
       <c r="N28">
-        <v>0.4604976951917382</v>
+        <v>0.01502082855517887</v>
       </c>
       <c r="O28">
         <v>-0.004267693695109639</v>
@@ -4800,7 +4800,7 @@
         <v>0.6109508094004557</v>
       </c>
       <c r="S28">
-        <v>0.8358853878818286</v>
+        <v>0.2732894253097981</v>
       </c>
       <c r="T28">
         <v>9.453081011804914</v>
@@ -4889,7 +4889,7 @@
         <v>0.1301194044585657</v>
       </c>
       <c r="N29">
-        <v>1.479688472866331</v>
+        <v>0.2612836494377039</v>
       </c>
       <c r="O29">
         <v>0.01724400401889865</v>
@@ -4904,7 +4904,7 @@
         <v>0.6923472556150495</v>
       </c>
       <c r="S29">
-        <v>0.9086575978599538</v>
+        <v>0.3161102032264058</v>
       </c>
       <c r="T29">
         <v>13.43736416352819</v>
@@ -4993,7 +4993,7 @@
         <v>0.181800283360883</v>
       </c>
       <c r="N30">
-        <v>1.485347303140235</v>
+        <v>0.4300475325044625</v>
       </c>
       <c r="O30">
         <v>0.3827375615516065</v>
@@ -5008,7 +5008,7 @@
         <v>0.5858577560622763</v>
       </c>
       <c r="S30">
-        <v>0.9566785398032733</v>
+        <v>0.2590823770884875</v>
       </c>
       <c r="T30">
         <v>8.995167368673222</v>
@@ -5097,7 +5097,7 @@
         <v>0.1710839169918145</v>
       </c>
       <c r="N31">
-        <v>1.325273434739155</v>
+        <v>0.1710718774919473</v>
       </c>
       <c r="O31">
         <v>0.1208994273312574</v>
@@ -5112,7 +5112,7 @@
         <v>0.6124374779686307</v>
       </c>
       <c r="S31">
-        <v>0.8969327614113622</v>
+        <v>0.2731504203344005</v>
       </c>
       <c r="T31">
         <v>11.3786768074156</v>
@@ -5201,7 +5201,7 @@
         <v>0.05273549237534631</v>
       </c>
       <c r="N32">
-        <v>1.846276776613921</v>
+        <v>0.09120042306315786</v>
       </c>
       <c r="O32">
         <v>-0.02030383292132695</v>
@@ -5216,7 +5216,7 @@
         <v>0.6523228404635689</v>
       </c>
       <c r="S32">
-        <v>0.9618032697245956</v>
+        <v>0.2933634863494191</v>
       </c>
       <c r="T32">
         <v>11.61484121180332</v>
@@ -5305,7 +5305,7 @@
         <v>0.04533426521453129</v>
       </c>
       <c r="N33">
-        <v>1.697489801169791</v>
+        <v>0.07238775257726456</v>
       </c>
       <c r="O33">
         <v>0.03127610283071928</v>
@@ -5320,7 +5320,7 @@
         <v>0.6546028811365187</v>
       </c>
       <c r="S33">
-        <v>0.8907846724036887</v>
+        <v>0.325541448341351</v>
       </c>
       <c r="T33">
         <v>11.52165336833619</v>
@@ -5409,7 +5409,7 @@
         <v>0.02111571324663982</v>
       </c>
       <c r="N34">
-        <v>0.2294712451184265</v>
+        <v>0.03805760535220633</v>
       </c>
       <c r="O34">
         <v>0.05738026723075762</v>
@@ -5424,7 +5424,7 @@
         <v>0.62164700403933</v>
       </c>
       <c r="S34">
-        <v>0.9176400896037451</v>
+        <v>0.2367377118414181</v>
       </c>
       <c r="T34">
         <v>9.863550281595558</v>
@@ -5510,7 +5510,7 @@
         <v>0.1250561333815882</v>
       </c>
       <c r="N35">
-        <v>0.4558157174843409</v>
+        <v>0.1468266870714889</v>
       </c>
       <c r="O35">
         <v>0.05684042367284733</v>
@@ -5525,7 +5525,7 @@
         <v>0.5768800519421134</v>
       </c>
       <c r="S35">
-        <v>0.863702103913305</v>
+        <v>0.2237151935186118</v>
       </c>
       <c r="T35">
         <v>11.96215643065406</v>
@@ -5614,7 +5614,7 @@
         <v>0.09933671610902507</v>
       </c>
       <c r="N36">
-        <v>1.808449309066335</v>
+        <v>0.3178903952660087</v>
       </c>
       <c r="O36">
         <v>0.03939936264575915</v>
@@ -5629,7 +5629,7 @@
         <v>0.5276382127140806</v>
       </c>
       <c r="S36">
-        <v>0.7225037012824734</v>
+        <v>0.2278912191991884</v>
       </c>
       <c r="T36">
         <v>4.127868282574504</v>
@@ -5718,7 +5718,7 @@
         <v>0.094902892946851</v>
       </c>
       <c r="N37">
-        <v>2.085483768013974</v>
+        <v>0.2397341897874238</v>
       </c>
       <c r="O37">
         <v>0.08437889916672155</v>
@@ -5733,7 +5733,7 @@
         <v>0.4777384354717868</v>
       </c>
       <c r="S37">
-        <v>0.8252300879323083</v>
+        <v>0.1719347939446543</v>
       </c>
       <c r="T37">
         <v>12.52366329126131</v>
@@ -5822,7 +5822,7 @@
         <v>0.03042922199641444</v>
       </c>
       <c r="N38">
-        <v>0.1954849225527684</v>
+        <v>0.06313300721018471</v>
       </c>
       <c r="O38">
         <v>0.1566471300385612</v>
@@ -5837,7 +5837,7 @@
         <v>0.6124318148441771</v>
       </c>
       <c r="S38">
-        <v>0.9279236294509075</v>
+        <v>0.2013015805908195</v>
       </c>
       <c r="T38">
         <v>8.254937759439571</v>
@@ -5926,7 +5926,7 @@
         <v>0.1003141820355848</v>
       </c>
       <c r="N39">
-        <v>1.059009823994655</v>
+        <v>0.4606212806017772</v>
       </c>
       <c r="O39">
         <v>0.02197193910677818</v>
@@ -5941,7 +5941,7 @@
         <v>0.634241286283139</v>
       </c>
       <c r="S39">
-        <v>0.9036015678143491</v>
+        <v>0.3189970380151068</v>
       </c>
       <c r="T39">
         <v>9.514925626790889</v>
@@ -6027,7 +6027,7 @@
         <v>0.1114606727171073</v>
       </c>
       <c r="N40">
-        <v>2.655141027591331</v>
+        <v>0.2034345593016401</v>
       </c>
       <c r="O40">
         <v>0.09418200375399285</v>
@@ -6042,7 +6042,7 @@
         <v>0.7115886752646376</v>
       </c>
       <c r="S40">
-        <v>1.097382079148748</v>
+        <v>0.2387302498101087</v>
       </c>
       <c r="T40">
         <v>10.77050690396369</v>
@@ -6131,7 +6131,7 @@
         <v>0.07280144051265934</v>
       </c>
       <c r="N41">
-        <v>2.37817127424695</v>
+        <v>0.2750484109348822</v>
       </c>
       <c r="O41">
         <v>0.06159210097492618</v>
@@ -6146,7 +6146,7 @@
         <v>0.6628243693834264</v>
       </c>
       <c r="S41">
-        <v>0.8781322822441334</v>
+        <v>0.2362997689590751</v>
       </c>
       <c r="T41">
         <v>11.05229342470512</v>
@@ -6235,7 +6235,7 @@
         <v>0.07060543737077278</v>
       </c>
       <c r="N42">
-        <v>0.6827536710783864</v>
+        <v>0.2065802455446634</v>
       </c>
       <c r="O42">
         <v>0.1444467028763078</v>
@@ -6250,7 +6250,7 @@
         <v>0.5875355380137045</v>
       </c>
       <c r="S42">
-        <v>0.8540416578915676</v>
+        <v>0.2160957286738838</v>
       </c>
       <c r="T42">
         <v>11.38858166976114</v>
@@ -6339,7 +6339,7 @@
         <v>0.04387239277795857</v>
       </c>
       <c r="N43">
-        <v>2.239821568529237</v>
+        <v>0.2460433733041561</v>
       </c>
       <c r="O43">
         <v>0.2734521808056873</v>
@@ -6354,7 +6354,7 @@
         <v>0.4569884377919264</v>
       </c>
       <c r="S43">
-        <v>0.8424569717272473</v>
+        <v>0.2375758030153004</v>
       </c>
       <c r="T43">
         <v>11.14959356737749</v>
@@ -6443,7 +6443,7 @@
         <v>0.07450536429893215</v>
       </c>
       <c r="N44">
-        <v>1.994569557666732</v>
+        <v>0.3578901384956076</v>
       </c>
       <c r="O44">
         <v>0.04079744891483681</v>
@@ -6458,7 +6458,7 @@
         <v>0.6144975816518268</v>
       </c>
       <c r="S44">
-        <v>0.7080244634096744</v>
+        <v>0.2854530015684323</v>
       </c>
       <c r="T44">
         <v>7.004521718599356</v>
@@ -6547,7 +6547,7 @@
         <v>0.03400889042207207</v>
       </c>
       <c r="N45">
-        <v>0.5580087515348559</v>
+        <v>0.09121350859234537</v>
       </c>
       <c r="O45">
         <v>0.05577161672705892</v>
@@ -6562,7 +6562,7 @@
         <v>0.4770353873855124</v>
       </c>
       <c r="S45">
-        <v>0.7671029892878417</v>
+        <v>0.2108462963503938</v>
       </c>
       <c r="T45">
         <v>9.164664856952864</v>
@@ -6651,7 +6651,7 @@
         <v>0.1428255415251421</v>
       </c>
       <c r="N46">
-        <v>1.754835598593912</v>
+        <v>0.4214380697892095</v>
       </c>
       <c r="O46">
         <v>0.07233441203291921</v>
@@ -6666,7 +6666,7 @@
         <v>0.6269811490134042</v>
       </c>
       <c r="S46">
-        <v>0.91329002416341</v>
+        <v>0.3678930311261686</v>
       </c>
       <c r="T46">
         <v>8.995017290009683</v>
@@ -6755,7 +6755,7 @@
         <v>0.07682451661908529</v>
       </c>
       <c r="N47">
-        <v>2.19263825955509</v>
+        <v>0.2947958100874516</v>
       </c>
       <c r="O47">
         <v>0.1493220523636335</v>
@@ -6770,7 +6770,7 @@
         <v>0.6204943532363526</v>
       </c>
       <c r="S47">
-        <v>0.9186494234181556</v>
+        <v>0.2458291433407756</v>
       </c>
       <c r="T47">
         <v>11.3099066590735</v>
@@ -6859,7 +6859,7 @@
         <v>0.08586765255507255</v>
       </c>
       <c r="N48">
-        <v>1.104862051808068</v>
+        <v>0.2204527275303913</v>
       </c>
       <c r="O48">
         <v>0.05781627199343414</v>
@@ -6874,7 +6874,7 @@
         <v>0.5853610167035532</v>
       </c>
       <c r="S48">
-        <v>0.8641679891995957</v>
+        <v>0.2454773211263943</v>
       </c>
       <c r="T48">
         <v>10.04885516001601</v>
@@ -6963,7 +6963,7 @@
         <v>0.0774453486702136</v>
       </c>
       <c r="N49">
-        <v>0.9849524927319055</v>
+        <v>0.07967004959414731</v>
       </c>
       <c r="O49">
         <v>0.03132793501811356</v>
@@ -6978,7 +6978,7 @@
         <v>0.5743795371758572</v>
       </c>
       <c r="S49">
-        <v>0.9490699464339296</v>
+        <v>0.1608720917602193</v>
       </c>
       <c r="T49">
         <v>9.871561109830317</v>
@@ -7067,7 +7067,7 @@
         <v>0.3404788938565663</v>
       </c>
       <c r="N50">
-        <v>0.9889664203190239</v>
+        <v>0.3519661434813961</v>
       </c>
       <c r="O50">
         <v>0.1710574381169357</v>
@@ -7082,7 +7082,7 @@
         <v>0.6526304902250372</v>
       </c>
       <c r="S50">
-        <v>1.074313626838255</v>
+        <v>0.2602396978675824</v>
       </c>
       <c r="T50">
         <v>9.167702535250593</v>
@@ -7171,7 +7171,7 @@
         <v>0.1584104320575899</v>
       </c>
       <c r="N51">
-        <v>0.8019843437239261</v>
+        <v>0.2795320947970877</v>
       </c>
       <c r="O51">
         <v>0.1348211094501694</v>
@@ -7186,7 +7186,7 @@
         <v>0.4340059667082832</v>
       </c>
       <c r="S51">
-        <v>0.8831254116750278</v>
+        <v>0.2247596640188724</v>
       </c>
       <c r="T51">
         <v>8.234488528226908</v>
@@ -7272,7 +7272,7 @@
         <v>0.1112247433854502</v>
       </c>
       <c r="N52">
-        <v>1.57569344654508</v>
+        <v>0.3175936496377622</v>
       </c>
       <c r="O52">
         <v>0.1363535164053961</v>
@@ -7287,7 +7287,7 @@
         <v>0.667223013896783</v>
       </c>
       <c r="S52">
-        <v>0.8945656170449729</v>
+        <v>0.3185663456051165</v>
       </c>
       <c r="T52">
         <v>12.27199442482002</v>
@@ -7376,7 +7376,7 @@
         <v>0.03055781581887276</v>
       </c>
       <c r="N53">
-        <v>2.421567794708739</v>
+        <v>0.08357237124576593</v>
       </c>
       <c r="O53">
         <v>0.005088244520315811</v>
@@ -7391,7 +7391,7 @@
         <v>0.5349877458642067</v>
       </c>
       <c r="S53">
-        <v>0.7744219221027259</v>
+        <v>0.2243488551762202</v>
       </c>
       <c r="T53">
         <v>10.55497969488317</v>
@@ -7480,7 +7480,7 @@
         <v>0.05677085836941218</v>
       </c>
       <c r="N54">
-        <v>0.3283837618819636</v>
+        <v>0.1520353733576595</v>
       </c>
       <c r="O54">
         <v>0.08930879694696785</v>
@@ -7495,7 +7495,7 @@
         <v>0.5533986575904801</v>
       </c>
       <c r="S54">
-        <v>0.8959664715109813</v>
+        <v>0.197822629381369</v>
       </c>
       <c r="T54">
         <v>12.79995363335483</v>
@@ -7584,7 +7584,7 @@
         <v>0.1061398036991414</v>
       </c>
       <c r="N55">
-        <v>1.054384475453146</v>
+        <v>0.1425621703876724</v>
       </c>
       <c r="O55">
         <v>0.09588541764628365</v>
@@ -7599,7 +7599,7 @@
         <v>0.5794771165987557</v>
       </c>
       <c r="S55">
-        <v>0.8682600567028043</v>
+        <v>0.2082194564648697</v>
       </c>
       <c r="T55">
         <v>10.26480559835876</v>
@@ -7688,7 +7688,7 @@
         <v>0.1525641062854062</v>
       </c>
       <c r="N56">
-        <v>2.219565120163564</v>
+        <v>0.3134729748796825</v>
       </c>
       <c r="O56">
         <v>0.07298736027725716</v>
@@ -7703,7 +7703,7 @@
         <v>0.6945334854633517</v>
       </c>
       <c r="S56">
-        <v>1.00058359981399</v>
+        <v>0.2588467092603463</v>
       </c>
       <c r="T56">
         <v>12.28535995088725</v>
@@ -7792,7 +7792,7 @@
         <v>0.1059295565712398</v>
       </c>
       <c r="N57">
-        <v>1.794420724046094</v>
+        <v>0.2536770605537706</v>
       </c>
       <c r="O57">
         <v>0.06071979164644491</v>
@@ -7807,7 +7807,7 @@
         <v>0.4931143984423998</v>
       </c>
       <c r="S57">
-        <v>0.8300763580724323</v>
+        <v>0.2439807387857906</v>
       </c>
       <c r="T57">
         <v>11.82613187073169</v>
@@ -7896,7 +7896,7 @@
         <v>0.09430362478770857</v>
       </c>
       <c r="N58">
-        <v>2.06351802937844</v>
+        <v>0.4717168569682465</v>
       </c>
       <c r="O58">
         <v>-0.0420851858248085</v>
@@ -7911,7 +7911,7 @@
         <v>0.7206981577342547</v>
       </c>
       <c r="S58">
-        <v>1.02268682393354</v>
+        <v>0.3364546052711775</v>
       </c>
       <c r="T58">
         <v>12.74708129143906</v>
@@ -8000,7 +8000,7 @@
         <v>0.06440184082842641</v>
       </c>
       <c r="N59">
-        <v>1.118305013735951</v>
+        <v>0.1070302420861552</v>
       </c>
       <c r="O59">
         <v>0.1021510515065817</v>
@@ -8015,7 +8015,7 @@
         <v>0.4978061663669276</v>
       </c>
       <c r="S59">
-        <v>0.9424741219897186</v>
+        <v>0.2742668126480745</v>
       </c>
       <c r="T59">
         <v>10.96861151127619</v>
@@ -8104,7 +8104,7 @@
         <v>0.4250987292112322</v>
       </c>
       <c r="N60">
-        <v>0.7188778490948067</v>
+        <v>0.2288312964394635</v>
       </c>
       <c r="O60">
         <v>0.03002947335259123</v>
@@ -8119,7 +8119,7 @@
         <v>0.5617726761074646</v>
       </c>
       <c r="S60">
-        <v>0.8285088818078277</v>
+        <v>0.2168380730436051</v>
       </c>
       <c r="T60">
         <v>10.92973147886335</v>
@@ -8208,7 +8208,7 @@
         <v>0.05142849100670302</v>
       </c>
       <c r="N61">
-        <v>0.5941791259186273</v>
+        <v>0.06930960001128632</v>
       </c>
       <c r="O61">
         <v>0.05479436099851785</v>
@@ -8223,7 +8223,7 @@
         <v>0.5870245899858487</v>
       </c>
       <c r="S61">
-        <v>0.8180004399972556</v>
+        <v>0.3033387451005299</v>
       </c>
       <c r="T61">
         <v>8.628475995361333</v>
@@ -8312,7 +8312,7 @@
         <v>0.1059579022569204</v>
       </c>
       <c r="N62">
-        <v>2.262873688755239</v>
+        <v>0.3605732838000486</v>
       </c>
       <c r="O62">
         <v>0.0423946091468985</v>
@@ -8327,7 +8327,7 @@
         <v>0.716830532796072</v>
       </c>
       <c r="S62">
-        <v>0.8421851008288601</v>
+        <v>0.2796327766903618</v>
       </c>
       <c r="T62">
         <v>7.886888612232807</v>
@@ -8416,7 +8416,7 @@
         <v>0.05697819102771376</v>
       </c>
       <c r="N63">
-        <v>1.026488924781519</v>
+        <v>0.1844156537146044</v>
       </c>
       <c r="O63">
         <v>0.07439060707456625</v>
@@ -8431,7 +8431,7 @@
         <v>0.5856569484745204</v>
       </c>
       <c r="S63">
-        <v>0.8837369713888066</v>
+        <v>0.2217913187249856</v>
       </c>
       <c r="T63">
         <v>11.93855072787017</v>
@@ -8520,7 +8520,7 @@
         <v>0.07269716543070444</v>
       </c>
       <c r="N64">
-        <v>1.737925812854097</v>
+        <v>0.2504403521428664</v>
       </c>
       <c r="O64">
         <v>0.0818166248974843</v>
@@ -8535,7 +8535,7 @@
         <v>0.6131638318757353</v>
       </c>
       <c r="S64">
-        <v>0.7882619483338655</v>
+        <v>0.2669474087124829</v>
       </c>
       <c r="T64">
         <v>12.67070804431828</v>
@@ -8624,7 +8624,7 @@
         <v>0.1310935813792705</v>
       </c>
       <c r="N65">
-        <v>1.725678075373565</v>
+        <v>0.2256274015306375</v>
       </c>
       <c r="O65">
         <v>0.08262859270996564</v>
@@ -8639,7 +8639,7 @@
         <v>0.5957460023737761</v>
       </c>
       <c r="S65">
-        <v>0.7608107072016242</v>
+        <v>0.2740700655662678</v>
       </c>
       <c r="T65">
         <v>6.002321497065586</v>
@@ -8725,7 +8725,7 @@
         <v>0.0876166845751617</v>
       </c>
       <c r="N66">
-        <v>0.2883098389038301</v>
+        <v>0.03739416501599267</v>
       </c>
       <c r="O66">
         <v>0.04828779324511211</v>
@@ -8740,7 +8740,7 @@
         <v>0.6466190812129922</v>
       </c>
       <c r="S66">
-        <v>0.8535122037960982</v>
+        <v>0.2605636062961144</v>
       </c>
       <c r="T66">
         <v>8.124555136998669</v>
@@ -8826,7 +8826,7 @@
         <v>0.2562357185974837</v>
       </c>
       <c r="N67">
-        <v>1.205537964925266</v>
+        <v>0.4305637028285764</v>
       </c>
       <c r="O67">
         <v>0.1371149775978187</v>
@@ -8841,7 +8841,7 @@
         <v>0.617515970750431</v>
       </c>
       <c r="S67">
-        <v>0.8660522274609694</v>
+        <v>0.2668897063972686</v>
       </c>
       <c r="T67">
         <v>11.14221346626013</v>
@@ -8927,7 +8927,7 @@
         <v>0.07299574925251937</v>
       </c>
       <c r="N68">
-        <v>0.4375694620043205</v>
+        <v>0.02204594490973553</v>
       </c>
       <c r="O68">
         <v>0.002155151915850135</v>
@@ -8942,7 +8942,7 @@
         <v>0.5843519083352562</v>
       </c>
       <c r="S68">
-        <v>0.7443000482131643</v>
+        <v>0.2655969168698716</v>
       </c>
       <c r="T68">
         <v>8.824440354897266</v>
@@ -9028,7 +9028,7 @@
         <v>0.04802527147766168</v>
       </c>
       <c r="N69">
-        <v>0.5120952902353817</v>
+        <v>0.02313435312001886</v>
       </c>
       <c r="O69">
         <v>0.1022923329276175</v>
@@ -9043,7 +9043,7 @@
         <v>0.6042022530189567</v>
       </c>
       <c r="S69">
-        <v>0.7747796570422472</v>
+        <v>0.2203731853068961</v>
       </c>
       <c r="T69">
         <v>8.497392931623502</v>
@@ -9126,7 +9126,7 @@
         <v>0.08037730426540861</v>
       </c>
       <c r="N70">
-        <v>1.220305388392693</v>
+        <v>0.1947540948254476</v>
       </c>
       <c r="O70">
         <v>0.008295724596563414</v>
@@ -9141,7 +9141,7 @@
         <v>0.5959330344449207</v>
       </c>
       <c r="S70">
-        <v>0.8581463430014716</v>
+        <v>0.2121374936712894</v>
       </c>
       <c r="T70">
         <v>7.320175417422621</v>
@@ -9227,7 +9227,7 @@
         <v>0.6191993774800451</v>
       </c>
       <c r="N71">
-        <v>0.7788370333594465</v>
+        <v>0.078749961366735</v>
       </c>
       <c r="O71">
         <v>0.1349736407681214</v>
@@ -9242,7 +9242,7 @@
         <v>0.5894932411755806</v>
       </c>
       <c r="S71">
-        <v>0.8406203328366549</v>
+        <v>0.2407987074051539</v>
       </c>
       <c r="T71">
         <v>6.95816414309567</v>
@@ -9325,7 +9325,7 @@
         <v>0.09847179114886903</v>
       </c>
       <c r="N72">
-        <v>0.4454436436439523</v>
+        <v>0.03230129279247906</v>
       </c>
       <c r="O72">
         <v>0.1239960248405711</v>
@@ -9340,7 +9340,7 @@
         <v>0.6350689334597365</v>
       </c>
       <c r="S72">
-        <v>0.877694146700246</v>
+        <v>0.2494615506046943</v>
       </c>
       <c r="T72">
         <v>4.803027746103437</v>
@@ -9426,7 +9426,7 @@
         <v>0.02001526752772646</v>
       </c>
       <c r="N73">
-        <v>0.5094206879463818</v>
+        <v>0.007307901249959497</v>
       </c>
       <c r="O73">
         <v>0.1164384384299467</v>
@@ -9441,7 +9441,7 @@
         <v>0.5710888452325371</v>
       </c>
       <c r="S73">
-        <v>0.8704466797916889</v>
+        <v>0.2204198530799312</v>
       </c>
       <c r="T73">
         <v>6.23368932218612</v>
@@ -9524,7 +9524,7 @@
         <v>0.09763985269285233</v>
       </c>
       <c r="N74">
-        <v>2.233959436650484</v>
+        <v>0.3390556696699626</v>
       </c>
       <c r="O74">
         <v>0.09525496993270226</v>
@@ -9539,7 +9539,7 @@
         <v>0.6086815087551554</v>
       </c>
       <c r="S74">
-        <v>0.8691687205101979</v>
+        <v>0.2272284993096894</v>
       </c>
       <c r="T74">
         <v>6.570849988789544</v>
@@ -9625,7 +9625,7 @@
         <v>0.04955012959527001</v>
       </c>
       <c r="N75">
-        <v>1.998209378242274</v>
+        <v>0.1080580191707512</v>
       </c>
       <c r="O75">
         <v>0.3983121286407102</v>
@@ -9640,7 +9640,7 @@
         <v>0.5346363923170674</v>
       </c>
       <c r="S75">
-        <v>0.7804925820517844</v>
+        <v>0.1858733828697484</v>
       </c>
       <c r="T75">
         <v>10.27780114079773</v>
@@ -9723,7 +9723,7 @@
         <v>0.06451205211395108</v>
       </c>
       <c r="N76">
-        <v>1.749224305659943</v>
+        <v>0.1002235431950204</v>
       </c>
       <c r="O76">
         <v>0.05592372445395386</v>
@@ -9738,7 +9738,7 @@
         <v>0.5621870665647498</v>
       </c>
       <c r="S76">
-        <v>0.7689146633766005</v>
+        <v>0.2133745261762319</v>
       </c>
       <c r="T76">
         <v>6.359670032266691</v>
@@ -9827,7 +9827,7 @@
         <v>0.06807267706570068</v>
       </c>
       <c r="N77">
-        <v>0.7118870169044198</v>
+        <v>0.0614567790651016</v>
       </c>
       <c r="O77">
         <v>0.03729650094060579</v>
@@ -9842,7 +9842,7 @@
         <v>0.638718874630298</v>
       </c>
       <c r="S77">
-        <v>0.8438803593643385</v>
+        <v>0.2280456968323973</v>
       </c>
       <c r="T77">
         <v>4.705904537013764</v>
@@ -9928,7 +9928,7 @@
         <v>0.120415633552707</v>
       </c>
       <c r="N78">
-        <v>0.6108248937950493</v>
+        <v>0.3003172542014116</v>
       </c>
       <c r="O78">
         <v>0.62345422828215</v>
@@ -9943,7 +9943,7 @@
         <v>0.5622805033116219</v>
       </c>
       <c r="S78">
-        <v>0.9289545757871153</v>
+        <v>0.23058650630929</v>
       </c>
       <c r="T78">
         <v>8.045065643532261</v>
@@ -10029,7 +10029,7 @@
         <v>0.05748288068961859</v>
       </c>
       <c r="N79">
-        <v>0.5412570660549488</v>
+        <v>0.01842369399122928</v>
       </c>
       <c r="O79">
         <v>0.2922410623415888</v>
@@ -10044,7 +10044,7 @@
         <v>0.6056703586617026</v>
       </c>
       <c r="S79">
-        <v>0.7952876174579713</v>
+        <v>0.2445882314330388</v>
       </c>
       <c r="T79">
         <v>9.210988784799653</v>
@@ -10127,7 +10127,7 @@
         <v>0.06014194045305565</v>
       </c>
       <c r="N80">
-        <v>0.860692118827455</v>
+        <v>0.05088788828326384</v>
       </c>
       <c r="O80">
         <v>0.3264055636980902</v>
@@ -10142,7 +10142,7 @@
         <v>0.6065676995696272</v>
       </c>
       <c r="S80">
-        <v>0.8585556553565591</v>
+        <v>0.2218200541575361</v>
       </c>
       <c r="T80">
         <v>7.685776716406545</v>
@@ -10228,7 +10228,7 @@
         <v>0.1018381392265225</v>
       </c>
       <c r="N81">
-        <v>2.131453429091823</v>
+        <v>0.1471576423342292</v>
       </c>
       <c r="O81">
         <v>0.1027934844446614</v>
@@ -10243,7 +10243,7 @@
         <v>0.5573798621042696</v>
       </c>
       <c r="S81">
-        <v>0.8250417802640242</v>
+        <v>0.2302540579131499</v>
       </c>
       <c r="T81">
         <v>8.461548733483012</v>
@@ -10320,7 +10320,7 @@
         <v>0.126101669863808</v>
       </c>
       <c r="N82">
-        <v>0.8703300743122392</v>
+        <v>0.1702264931374857</v>
       </c>
       <c r="O82">
         <v>-0.004874294902178521</v>
@@ -10335,7 +10335,7 @@
         <v>0.6206768250781856</v>
       </c>
       <c r="S82">
-        <v>0.7529657716666234</v>
+        <v>0.2744049983422671</v>
       </c>
       <c r="T82">
         <v>9.183263486320428</v>
@@ -10421,7 +10421,7 @@
         <v>0.1250831745905495</v>
       </c>
       <c r="N83">
-        <v>2.023636720000704</v>
+        <v>0.2785948855491229</v>
       </c>
       <c r="O83">
         <v>0.1775405681083726</v>
@@ -10436,7 +10436,7 @@
         <v>0.6008242441492706</v>
       </c>
       <c r="S83">
-        <v>0.7814588694755703</v>
+        <v>0.2340061889718071</v>
       </c>
       <c r="T83">
         <v>8.6140613209775</v>
@@ -10522,7 +10522,7 @@
         <v>0.07604014938249623</v>
       </c>
       <c r="N84">
-        <v>1.572911884208729</v>
+        <v>0.228549468243256</v>
       </c>
       <c r="O84">
         <v>-0.01459868013476368</v>
@@ -10537,7 +10537,7 @@
         <v>0.5887699009549683</v>
       </c>
       <c r="S84">
-        <v>0.7473392659098927</v>
+        <v>0.257673661178924</v>
       </c>
       <c r="T84">
         <v>8.701554781653609</v>
@@ -10623,7 +10623,7 @@
         <v>0.04801876015417116</v>
       </c>
       <c r="N85">
-        <v>0.4529903099323913</v>
+        <v>0.05799447424941694</v>
       </c>
       <c r="O85">
         <v>-0.01564911724041325</v>
@@ -10638,7 +10638,7 @@
         <v>0.6810420532052605</v>
       </c>
       <c r="S85">
-        <v>0.9243274442208622</v>
+        <v>0.2396018012648183</v>
       </c>
       <c r="T85">
         <v>6.78655125056338</v>
@@ -10721,7 +10721,7 @@
         <v>0.1462202558606839</v>
       </c>
       <c r="N86">
-        <v>1.816810984836576</v>
+        <v>0.3293985590760477</v>
       </c>
       <c r="O86">
         <v>0.05984830265532499</v>
@@ -10736,7 +10736,7 @@
         <v>0.6414303585126259</v>
       </c>
       <c r="S86">
-        <v>0.9266305008000397</v>
+        <v>0.2373800788871444</v>
       </c>
       <c r="T86">
         <v>8.507107655344885</v>
@@ -10819,7 +10819,7 @@
         <v>0.09427642805023222</v>
       </c>
       <c r="N87">
-        <v>1.255966848648284</v>
+        <v>0.2288779845927357</v>
       </c>
       <c r="O87">
         <v>0.01783160368728452</v>
@@ -10834,7 +10834,7 @@
         <v>0.5635732571394173</v>
       </c>
       <c r="S87">
-        <v>0.7995440767681687</v>
+        <v>0.2682121921380968</v>
       </c>
       <c r="T87">
         <v>8.340167956611378</v>
@@ -10917,7 +10917,7 @@
         <v>0.2259653063777573</v>
       </c>
       <c r="N88">
-        <v>1.210652436017591</v>
+        <v>0.499356043866383</v>
       </c>
       <c r="O88">
         <v>0.01598219217597227</v>
@@ -10932,7 +10932,7 @@
         <v>0.5521748909183674</v>
       </c>
       <c r="S88">
-        <v>0.883209545532129</v>
+        <v>0.2524508159490577</v>
       </c>
       <c r="T88">
         <v>6.850617667974412</v>
@@ -11018,7 +11018,7 @@
         <v>0.1989763962404142</v>
       </c>
       <c r="N89">
-        <v>1.183862055124403</v>
+        <v>0.2698366253869255</v>
       </c>
       <c r="O89">
         <v>0.2399075647238643</v>
@@ -11033,7 +11033,7 @@
         <v>0.5197762958327309</v>
       </c>
       <c r="S89">
-        <v>0.8973471721269715</v>
+        <v>0.204499064411282</v>
       </c>
       <c r="T89">
         <v>10.36709392724847</v>
@@ -11122,7 +11122,7 @@
         <v>0.1818031790895976</v>
       </c>
       <c r="N90">
-        <v>2.032706834755087</v>
+        <v>0.3227910009896303</v>
       </c>
       <c r="O90">
         <v>0.1804781004008843</v>
@@ -11137,7 +11137,7 @@
         <v>0.6866968578064518</v>
       </c>
       <c r="S90">
-        <v>0.9702845740678214</v>
+        <v>0.2503191227884566</v>
       </c>
       <c r="T90">
         <v>9.796450920775621</v>
@@ -11226,7 +11226,7 @@
         <v>0.03102499628830953</v>
       </c>
       <c r="N91">
-        <v>0.3577013943225277</v>
+        <v>0.1468999545588396</v>
       </c>
       <c r="O91">
         <v>0.05460770490405207</v>
@@ -11241,7 +11241,7 @@
         <v>0.6438492758008987</v>
       </c>
       <c r="S91">
-        <v>0.8496294671009738</v>
+        <v>0.2562095885216554</v>
       </c>
       <c r="T91">
         <v>9.943179390037573</v>
@@ -11327,7 +11327,7 @@
         <v>0.008530975416131795</v>
       </c>
       <c r="N92">
-        <v>0.282101462634085</v>
+        <v>0.04631214720889405</v>
       </c>
       <c r="O92">
         <v>0.07674200366676234</v>
@@ -11342,7 +11342,7 @@
         <v>0.5293930491452723</v>
       </c>
       <c r="S92">
-        <v>0.7692338691604003</v>
+        <v>0.246589276230805</v>
       </c>
       <c r="T92">
         <v>6.998932662056005</v>
@@ -11425,7 +11425,7 @@
         <v>0.1369614600933683</v>
       </c>
       <c r="N93">
-        <v>0.905578881188971</v>
+        <v>0.2815023606168706</v>
       </c>
       <c r="O93">
         <v>0.2252638806249434</v>
@@ -11440,7 +11440,7 @@
         <v>0.5429557697087556</v>
       </c>
       <c r="S93">
-        <v>0.8368682654168362</v>
+        <v>0.2118458280959693</v>
       </c>
       <c r="T93">
         <v>10.84745908113522</v>
@@ -11523,7 +11523,7 @@
         <v>0.01575866456031419</v>
       </c>
       <c r="N94">
-        <v>0.06474035305737465</v>
+        <v>0.07237660807783627</v>
       </c>
       <c r="O94">
         <v>0.09005260326631374</v>
@@ -11538,7 +11538,7 @@
         <v>0.5693992494152335</v>
       </c>
       <c r="S94">
-        <v>0.8139341133916229</v>
+        <v>0.2035269492110026</v>
       </c>
       <c r="T94">
         <v>9.587562237692797</v>
@@ -11624,7 +11624,7 @@
         <v>0.105804941153207</v>
       </c>
       <c r="N95">
-        <v>1.417037962501364</v>
+        <v>0.1392476807284506</v>
       </c>
       <c r="O95">
         <v>0.1005271186735868</v>
@@ -11639,7 +11639,7 @@
         <v>0.6319848166945052</v>
       </c>
       <c r="S95">
-        <v>0.8616156720856981</v>
+        <v>0.278596984900276</v>
       </c>
       <c r="T95">
         <v>9.402239751944752</v>
@@ -11725,7 +11725,7 @@
         <v>0.1157273244790611</v>
       </c>
       <c r="N96">
-        <v>1.041646040087296</v>
+        <v>0.289235164104347</v>
       </c>
       <c r="O96">
         <v>0.198532072166295</v>
@@ -11740,7 +11740,7 @@
         <v>0.5515101759022268</v>
       </c>
       <c r="S96">
-        <v>0.7936394235282381</v>
+        <v>0.2061126988891842</v>
       </c>
       <c r="T96">
         <v>12.27307836048421</v>
@@ -11826,7 +11826,7 @@
         <v>0.05812506985404284</v>
       </c>
       <c r="N97">
-        <v>1.587982191702999</v>
+        <v>0.1701099865685486</v>
       </c>
       <c r="O97">
         <v>0.06147357026662591</v>
@@ -11841,7 +11841,7 @@
         <v>0.6643956239003231</v>
       </c>
       <c r="S97">
-        <v>0.9541012440304143</v>
+        <v>0.2535598068135672</v>
       </c>
       <c r="T97">
         <v>6.643926699742655</v>
@@ -11927,7 +11927,7 @@
         <v>0.09908187721843836</v>
       </c>
       <c r="N98">
-        <v>0.5627427831222479</v>
+        <v>0.1996600427608516</v>
       </c>
       <c r="O98">
         <v>0.05479309903910286</v>
@@ -11942,7 +11942,7 @@
         <v>0.4922604893135738</v>
       </c>
       <c r="S98">
-        <v>0.7582831399104618</v>
+        <v>0.2217565262179331</v>
       </c>
       <c r="T98">
         <v>7.782672644055498</v>
@@ -12025,7 +12025,7 @@
         <v>0.09683804292281027</v>
       </c>
       <c r="N99">
-        <v>0.3438123780110674</v>
+        <v>0.08152075663880493</v>
       </c>
       <c r="O99">
         <v>0.08394360598975756</v>
@@ -12040,7 +12040,7 @@
         <v>0.6171679434921394</v>
       </c>
       <c r="S99">
-        <v>0.804907486187228</v>
+        <v>0.2386502367700358</v>
       </c>
       <c r="T99">
         <v>8.671882510116269</v>
@@ -12126,7 +12126,7 @@
         <v>0.088966536178373</v>
       </c>
       <c r="N100">
-        <v>0.3041962182511833</v>
+        <v>0.1913362282158916</v>
       </c>
       <c r="O100">
         <v>0.09617214489856582</v>
@@ -12141,7 +12141,7 @@
         <v>0.5673525020963514</v>
       </c>
       <c r="S100">
-        <v>0.7712307334295261</v>
+        <v>0.2570308607181941</v>
       </c>
       <c r="T100">
         <v>8.191356773015386</v>
@@ -12224,7 +12224,7 @@
         <v>0.08784213461258106</v>
       </c>
       <c r="N101">
-        <v>1.205337885738278</v>
+        <v>0.1008071339438404</v>
       </c>
       <c r="O101">
         <v>0.1434903828000666</v>
@@ -12239,7 +12239,7 @@
         <v>0.6132003115765498</v>
       </c>
       <c r="S101">
-        <v>0.7784645307551532</v>
+        <v>0.2246984126381494</v>
       </c>
       <c r="T101">
         <v>9.223064164308223</v>
@@ -12328,7 +12328,7 @@
         <v>0.7031830848343973</v>
       </c>
       <c r="N102">
-        <v>0.5007236208693047</v>
+        <v>0.4102020780774426</v>
       </c>
       <c r="O102">
         <v>0.06898427068384111</v>
@@ -12343,7 +12343,7 @@
         <v>0.6060551612650572</v>
       </c>
       <c r="S102">
-        <v>0.8130827495723848</v>
+        <v>0.2856123732943854</v>
       </c>
       <c r="T102">
         <v>8.260049554283089</v>
@@ -12429,7 +12429,7 @@
         <v>0.06772929431146543</v>
       </c>
       <c r="N103">
-        <v>0.7752265861642106</v>
+        <v>0.05014692507013917</v>
       </c>
       <c r="O103">
         <v>0.09420812181225315</v>
@@ -12444,7 +12444,7 @@
         <v>0.6201875632152152</v>
       </c>
       <c r="S103">
-        <v>0.8372437399879725</v>
+        <v>0.2627297660067143</v>
       </c>
       <c r="T103">
         <v>9.482924664979249</v>
@@ -12530,7 +12530,7 @@
         <v>0.06141986011742072</v>
       </c>
       <c r="N104">
-        <v>1.17896768554125</v>
+        <v>0.1642956823306694</v>
       </c>
       <c r="O104">
         <v>0.0726402496072138</v>
@@ -12545,7 +12545,7 @@
         <v>0.6179996937133934</v>
       </c>
       <c r="S104">
-        <v>0.7803293650071521</v>
+        <v>0.2424919425411785</v>
       </c>
       <c r="T104">
         <v>8.411703101584918</v>
@@ -12628,7 +12628,7 @@
         <v>0.06932167259757152</v>
       </c>
       <c r="N105">
-        <v>0.8272670521821222</v>
+        <v>0.1501334359452999</v>
       </c>
       <c r="O105">
         <v>0.08685687183397714</v>
@@ -12643,7 +12643,7 @@
         <v>0.5441240426455822</v>
       </c>
       <c r="S105">
-        <v>0.9214781270721477</v>
+        <v>0.2667127848148778</v>
       </c>
       <c r="T105">
         <v>8.847321728294389</v>
@@ -12729,7 +12729,7 @@
         <v>0.1533759994412759</v>
       </c>
       <c r="N106">
-        <v>0.6947312537300068</v>
+        <v>0.1939384865468445</v>
       </c>
       <c r="O106">
         <v>0.02405359517221065</v>
@@ -12744,7 +12744,7 @@
         <v>0.6859657136575369</v>
       </c>
       <c r="S106">
-        <v>0.9548998065879433</v>
+        <v>0.3238139136974427</v>
       </c>
       <c r="T106">
         <v>8.799945780934928</v>
@@ -12833,7 +12833,7 @@
         <v>0.1168084192306705</v>
       </c>
       <c r="N107">
-        <v>1.976756188709866</v>
+        <v>0.2711732382812961</v>
       </c>
       <c r="O107">
         <v>0.05272536473417385</v>
@@ -12848,7 +12848,7 @@
         <v>0.5705768418341146</v>
       </c>
       <c r="S107">
-        <v>0.8430494844077699</v>
+        <v>0.2219699070474199</v>
       </c>
       <c r="T107">
         <v>10.26142412795662</v>
@@ -12931,7 +12931,7 @@
         <v>0.1476910852445953</v>
       </c>
       <c r="N108">
-        <v>0.4363519017682623</v>
+        <v>0.1024286543825914</v>
       </c>
       <c r="O108">
         <v>0.09765153252680116</v>
@@ -12946,7 +12946,7 @@
         <v>0.6389270446999626</v>
       </c>
       <c r="S108">
-        <v>0.9323069754912156</v>
+        <v>0.2835229355784422</v>
       </c>
       <c r="T108">
         <v>9.842044516991546</v>
@@ -13032,7 +13032,7 @@
         <v>0.2019008883335286</v>
       </c>
       <c r="N109">
-        <v>0.4390498675501424</v>
+        <v>0.08078993336900102</v>
       </c>
       <c r="O109">
         <v>0.1802864543353647</v>
@@ -13047,7 +13047,7 @@
         <v>0.5421624877019069</v>
       </c>
       <c r="S109">
-        <v>0.7954969843201757</v>
+        <v>0.2207612469621415</v>
       </c>
       <c r="T109">
         <v>8.41366763230234</v>
@@ -13133,7 +13133,7 @@
         <v>0.2349359981017171</v>
       </c>
       <c r="N110">
-        <v>0.3098256074769752</v>
+        <v>0.1525366082181803</v>
       </c>
       <c r="O110">
         <v>0.03895437239057533</v>
@@ -13148,7 +13148,7 @@
         <v>0.3928947970842837</v>
       </c>
       <c r="S110">
-        <v>0.6996817577845784</v>
+        <v>0.179858868851153</v>
       </c>
       <c r="T110">
         <v>8.224432609254375</v>
@@ -13234,7 +13234,7 @@
         <v>0.19682458955025</v>
       </c>
       <c r="N111">
-        <v>1.105914437462067</v>
+        <v>0.3999376682897779</v>
       </c>
       <c r="O111">
         <v>0.2796592332262928</v>
@@ -13249,7 +13249,7 @@
         <v>0.5818085031548667</v>
       </c>
       <c r="S111">
-        <v>0.8583091005993707</v>
+        <v>0.2832276458984874</v>
       </c>
       <c r="T111">
         <v>9.955091418785198</v>
@@ -13338,7 +13338,7 @@
         <v>0.1520454289030418</v>
       </c>
       <c r="N112">
-        <v>0.4206677909979319</v>
+        <v>0.2062210316277456</v>
       </c>
       <c r="O112">
         <v>0.07826691595514791</v>
@@ -13353,7 +13353,7 @@
         <v>0.5721352283951345</v>
       </c>
       <c r="S112">
-        <v>0.8852862689038615</v>
+        <v>0.2509269060362104</v>
       </c>
       <c r="T112">
         <v>9.351645753765425</v>
@@ -13439,7 +13439,7 @@
         <v>0.04640599049804171</v>
       </c>
       <c r="N113">
-        <v>0.3133938382656704</v>
+        <v>0.1936508799390888</v>
       </c>
       <c r="O113">
         <v>0.07801764001898702</v>
@@ -13454,7 +13454,7 @@
         <v>0.5875472009623751</v>
       </c>
       <c r="S113">
-        <v>0.9062084650015</v>
+        <v>0.2835637953570116</v>
       </c>
       <c r="T113">
         <v>8.560284836372519</v>
@@ -13540,7 +13540,7 @@
         <v>0.1020453588576029</v>
       </c>
       <c r="N114">
-        <v>1.68695372705383</v>
+        <v>0.2345113766616942</v>
       </c>
       <c r="O114">
         <v>0.0806516400515683</v>
@@ -13555,7 +13555,7 @@
         <v>0.6140104657133821</v>
       </c>
       <c r="S114">
-        <v>0.8847775420653234</v>
+        <v>0.2181190913921525</v>
       </c>
       <c r="T114">
         <v>9.803784762310022</v>
@@ -13641,7 +13641,7 @@
         <v>0.09059277303157573</v>
       </c>
       <c r="N115">
-        <v>0.2375234000290529</v>
+        <v>0.06983486398883818</v>
       </c>
       <c r="O115">
         <v>0.06693800190974768</v>
@@ -13656,7 +13656,7 @@
         <v>0.6620408434679993</v>
       </c>
       <c r="S115">
-        <v>0.9267075506070769</v>
+        <v>0.2375181843952394</v>
       </c>
       <c r="T115">
         <v>6.483203041643403</v>
@@ -13745,7 +13745,7 @@
         <v>0.08870291196712585</v>
       </c>
       <c r="N116">
-        <v>2.453943286720004</v>
+        <v>0.09908445101789809</v>
       </c>
       <c r="O116">
         <v>0.1086394320475754</v>
@@ -13760,7 +13760,7 @@
         <v>0.5665343861214277</v>
       </c>
       <c r="S116">
-        <v>0.9098185985649512</v>
+        <v>0.1505680775640039</v>
       </c>
       <c r="T116">
         <v>8.64330122577134</v>
@@ -13843,7 +13843,7 @@
         <v>0.4465918568648532</v>
       </c>
       <c r="N117">
-        <v>0.9479085009701756</v>
+        <v>0.3402775473601971</v>
       </c>
       <c r="O117">
         <v>-0.0001162511449117207</v>
@@ -13858,7 +13858,7 @@
         <v>0.7548203261266138</v>
       </c>
       <c r="S117">
-        <v>1.128901854424726</v>
+        <v>0.3335389527867448</v>
       </c>
       <c r="T117">
         <v>7.381953115431211</v>
@@ -13941,7 +13941,7 @@
         <v>0.0983884828095925</v>
       </c>
       <c r="N118">
-        <v>0.7762680022901365</v>
+        <v>0.002071021965191884</v>
       </c>
       <c r="O118">
         <v>-0.02083592417260968</v>
@@ -13956,7 +13956,7 @@
         <v>0.5120043274703437</v>
       </c>
       <c r="S118">
-        <v>0.7497740506983114</v>
+        <v>0.1840951212089904</v>
       </c>
       <c r="T118">
         <v>11.0157726124405</v>
@@ -14039,7 +14039,7 @@
         <v>0.1045951551445635</v>
       </c>
       <c r="N119">
-        <v>1.729364308768853</v>
+        <v>0.2871174918130535</v>
       </c>
       <c r="O119">
         <v>-0.05725656423327401</v>
@@ -14054,7 +14054,7 @@
         <v>0.6830055523945227</v>
       </c>
       <c r="S119">
-        <v>0.8836042267438083</v>
+        <v>0.2745177905291767</v>
       </c>
       <c r="T119">
         <v>8.342395784858804</v>
@@ -14137,7 +14137,7 @@
         <v>0.242826296326935</v>
       </c>
       <c r="N120">
-        <v>0.9163735119672022</v>
+        <v>0.5152142768488942</v>
       </c>
       <c r="O120">
         <v>0.1137371169015661</v>
@@ -14152,7 +14152,7 @@
         <v>0.6067298749922255</v>
       </c>
       <c r="S120">
-        <v>0.8487598666254935</v>
+        <v>0.2099328133382267</v>
       </c>
       <c r="T120">
         <v>8.262419889557485</v>
@@ -14238,7 +14238,7 @@
         <v>0.2363582294469218</v>
       </c>
       <c r="N121">
-        <v>0.8606996008594929</v>
+        <v>0.4449942024373496</v>
       </c>
       <c r="O121">
         <v>0.1362780411419874</v>
@@ -14253,7 +14253,7 @@
         <v>0.629381821453689</v>
       </c>
       <c r="S121">
-        <v>0.8565565597480467</v>
+        <v>0.2265691857480664</v>
       </c>
       <c r="T121">
         <v>8.08313475766238</v>
@@ -14324,7 +14324,7 @@
         <v>0.1831879366835157</v>
       </c>
       <c r="N122">
-        <v>1.113364066235677</v>
+        <v>0.2813574552344431</v>
       </c>
       <c r="O122">
         <v>0.1618913783429653</v>
@@ -14339,7 +14339,7 @@
         <v>0.5857807124284538</v>
       </c>
       <c r="S122">
-        <v>0.7924668564058203</v>
+        <v>0.2187655091467541</v>
       </c>
       <c r="T122">
         <v>9.660494068047571</v>
@@ -14425,7 +14425,7 @@
         <v>0.0629881128938292</v>
       </c>
       <c r="N123">
-        <v>0.361801779112735</v>
+        <v>0.03447822154120421</v>
       </c>
       <c r="O123">
         <v>0.2051377273773426</v>
@@ -14440,7 +14440,7 @@
         <v>0.6307363286421671</v>
       </c>
       <c r="S123">
-        <v>0.7926235669744045</v>
+        <v>0.2477391157707068</v>
       </c>
       <c r="T123">
         <v>5.891988275843571</v>
@@ -14526,7 +14526,7 @@
         <v>0.2121494329973423</v>
       </c>
       <c r="N124">
-        <v>1.396236689911355</v>
+        <v>0.3884950290196533</v>
       </c>
       <c r="O124">
         <v>0.1009898207893606</v>
@@ -14541,7 +14541,7 @@
         <v>0.6594468090924931</v>
       </c>
       <c r="S124">
-        <v>0.8076697042825007</v>
+        <v>0.3037484570645899</v>
       </c>
       <c r="T124">
         <v>10.51321423105449</v>
@@ -14627,7 +14627,7 @@
         <v>0.2171715079513801</v>
       </c>
       <c r="N125">
-        <v>1.078975074272076</v>
+        <v>0.5176542867381059</v>
       </c>
       <c r="O125">
         <v>0.01521610778757362</v>
@@ -14642,7 +14642,7 @@
         <v>0.7144086988604811</v>
       </c>
       <c r="S125">
-        <v>1.00842251232612</v>
+        <v>0.2824348025374324</v>
       </c>
       <c r="T125">
         <v>6.514739603870258</v>
@@ -14728,7 +14728,7 @@
         <v>0.05091028522882485</v>
       </c>
       <c r="N126">
-        <v>0.3356470949690158</v>
+        <v>0.0430665142747866</v>
       </c>
       <c r="O126">
         <v>0.09092337390352104</v>
@@ -14743,7 +14743,7 @@
         <v>0.7165186862824917</v>
       </c>
       <c r="S126">
-        <v>0.8878472977625904</v>
+        <v>0.2735717316484123</v>
       </c>
       <c r="T126">
         <v>9.590257386657724</v>
@@ -14829,7 +14829,7 @@
         <v>0.08087147580175565</v>
       </c>
       <c r="N127">
-        <v>2.555361796925011</v>
+        <v>0.1923200547016252</v>
       </c>
       <c r="O127">
         <v>0.08324281298038062</v>
@@ -14844,7 +14844,7 @@
         <v>0.6260703166845568</v>
       </c>
       <c r="S127">
-        <v>0.818284770598053</v>
+        <v>0.2636375076002157</v>
       </c>
       <c r="T127">
         <v>9.022094239150219</v>
@@ -14930,7 +14930,7 @@
         <v>0.128337697759647</v>
       </c>
       <c r="N128">
-        <v>0.5792408267096906</v>
+        <v>0.008535386901621223</v>
       </c>
       <c r="O128">
         <v>-0.04279496423609244</v>
@@ -14945,7 +14945,7 @@
         <v>0.676745143447406</v>
       </c>
       <c r="S128">
-        <v>0.8314783567269239</v>
+        <v>0.2498464172985152</v>
       </c>
       <c r="T128">
         <v>6.5440393548196</v>
@@ -15031,7 +15031,7 @@
         <v>0.3111064784129625</v>
       </c>
       <c r="N129">
-        <v>0.8403986919717163</v>
+        <v>0.03523050425218919</v>
       </c>
       <c r="O129">
         <v>-0.04764903164215626</v>
@@ -15046,7 +15046,7 @@
         <v>0.6346912161501842</v>
       </c>
       <c r="S129">
-        <v>0.8307656469359502</v>
+        <v>0.2071993509391156</v>
       </c>
       <c r="T129">
         <v>7.358692262112089</v>
@@ -15132,7 +15132,7 @@
         <v>0.1381903197932232</v>
       </c>
       <c r="N130">
-        <v>1.068479270852701</v>
+        <v>0.2476330313434814</v>
       </c>
       <c r="O130">
         <v>0.1706889565198614</v>
@@ -15147,7 +15147,7 @@
         <v>0.5563969396371199</v>
       </c>
       <c r="S130">
-        <v>0.8366626224647438</v>
+        <v>0.2643268259896608</v>
       </c>
       <c r="T130">
         <v>8.671544659472785</v>
@@ -15233,7 +15233,7 @@
         <v>0.1259893573230683</v>
       </c>
       <c r="N131">
-        <v>0.6996033561825465</v>
+        <v>0.115213847873906</v>
       </c>
       <c r="O131">
         <v>0.2091074946299402</v>
@@ -15248,7 +15248,7 @@
         <v>0.6085516535793244</v>
       </c>
       <c r="S131">
-        <v>0.8429788771504447</v>
+        <v>0.2344528325079888</v>
       </c>
       <c r="T131">
         <v>9.024727611010075</v>
@@ -15334,7 +15334,7 @@
         <v>0.1422906938729211</v>
       </c>
       <c r="N132">
-        <v>1.747437668226882</v>
+        <v>0.1382401979548963</v>
       </c>
       <c r="O132">
         <v>-0.02069084460252054</v>
@@ -15349,7 +15349,7 @@
         <v>0.7135585389164434</v>
       </c>
       <c r="S132">
-        <v>0.9858671818566814</v>
+        <v>0.2937692728968294</v>
       </c>
       <c r="T132">
         <v>7.667646280389614</v>
@@ -15435,7 +15435,7 @@
         <v>0.08443561646633345</v>
       </c>
       <c r="N133">
-        <v>2.950993623158232</v>
+        <v>0.09384419397471852</v>
       </c>
       <c r="O133">
         <v>0.00037675902134901</v>
@@ -15450,7 +15450,7 @@
         <v>0.5270197258541373</v>
       </c>
       <c r="S133">
-        <v>0.8778936453939195</v>
+        <v>0.2271073887553084</v>
       </c>
       <c r="T133">
         <v>9.115987192992497</v>
@@ -15539,7 +15539,7 @@
         <v>0.06443097886431527</v>
       </c>
       <c r="N134">
-        <v>0.5222244945356544</v>
+        <v>0.02342650032559684</v>
       </c>
       <c r="O134">
         <v>0.1030069162677163</v>
@@ -15554,7 +15554,7 @@
         <v>0.6005026283853363</v>
       </c>
       <c r="S134">
-        <v>0.8752630220994257</v>
+        <v>0.2475717879904972</v>
       </c>
       <c r="T134">
         <v>6.962452642979755</v>
@@ -15643,7 +15643,7 @@
         <v>0.06585055452326094</v>
       </c>
       <c r="N135">
-        <v>0.3286721243074504</v>
+        <v>0.02205210739421802</v>
       </c>
       <c r="O135">
         <v>0.2335486215224516</v>
@@ -15658,7 +15658,7 @@
         <v>0.6644163921265425</v>
       </c>
       <c r="S135">
-        <v>0.8229600463593785</v>
+        <v>0.2506256107699501</v>
       </c>
       <c r="T135">
         <v>7.951852773754205</v>
@@ -15741,7 +15741,7 @@
         <v>0.2471180893261767</v>
       </c>
       <c r="N136">
-        <v>1.074736445034425</v>
+        <v>0.3365120818589404</v>
       </c>
       <c r="O136">
         <v>0.03110353549824964</v>
@@ -15756,7 +15756,7 @@
         <v>0.6042701534845958</v>
       </c>
       <c r="S136">
-        <v>0.8849090491873561</v>
+        <v>0.2628581264876694</v>
       </c>
       <c r="T136">
         <v>9.896739457361054</v>
@@ -15845,7 +15845,7 @@
         <v>0.1340785778340261</v>
       </c>
       <c r="N137">
-        <v>1.859586552156959</v>
+        <v>0.3122826485307862</v>
       </c>
       <c r="O137">
         <v>0.06212096678476497</v>
@@ -15860,7 +15860,7 @@
         <v>0.6927401423304174</v>
       </c>
       <c r="S137">
-        <v>0.9035119968025732</v>
+        <v>0.2804954581620843</v>
       </c>
       <c r="T137">
         <v>6.085832956338878</v>
@@ -15943,7 +15943,7 @@
         <v>0.0354407364246953</v>
       </c>
       <c r="N138">
-        <v>0.2632501127232971</v>
+        <v>0.030911264139799</v>
       </c>
       <c r="O138">
         <v>0.4051528008117349</v>
@@ -15958,7 +15958,7 @@
         <v>0.4639450866325706</v>
       </c>
       <c r="S138">
-        <v>0.8153434561493241</v>
+        <v>0.2464943445302125</v>
       </c>
       <c r="T138">
         <v>6.349950160118162</v>
@@ -16044,7 +16044,7 @@
         <v>0.06055018927029776</v>
       </c>
       <c r="N139">
-        <v>1.244237331892375</v>
+        <v>0.09620311092455053</v>
       </c>
       <c r="O139">
         <v>0.2400974992976912</v>
@@ -16059,7 +16059,7 @@
         <v>0.4204976383789696</v>
       </c>
       <c r="S139">
-        <v>0.7280721838415873</v>
+        <v>0.1639018379327501</v>
       </c>
       <c r="T139">
         <v>8.746349757301246</v>
@@ -16142,7 +16142,7 @@
         <v>0.1071432471622646</v>
       </c>
       <c r="N140">
-        <v>0.8969338064231948</v>
+        <v>0.1006445605094382</v>
       </c>
       <c r="O140">
         <v>0.002617474799595742</v>
@@ -16157,7 +16157,7 @@
         <v>0.5814545487881518</v>
       </c>
       <c r="S140">
-        <v>0.7254692892819153</v>
+        <v>0.2804379852579032</v>
       </c>
       <c r="T140">
         <v>4.585533982035566</v>
@@ -16240,7 +16240,7 @@
         <v>0.1497417786055092</v>
       </c>
       <c r="N141">
-        <v>0.9880252696659905</v>
+        <v>0.186991395205287</v>
       </c>
       <c r="O141">
         <v>0.4193190977899726</v>
@@ -16255,7 +16255,7 @@
         <v>0.4665442580488755</v>
       </c>
       <c r="S141">
-        <v>0.7318399325303133</v>
+        <v>0.2045521676443217</v>
       </c>
       <c r="T141">
         <v>7.677967736686889</v>
@@ -16338,7 +16338,7 @@
         <v>0.08767773737099589</v>
       </c>
       <c r="N142">
-        <v>0.5433672764980412</v>
+        <v>0.004788630111940143</v>
       </c>
       <c r="O142">
         <v>0.1366353134653245</v>
@@ -16353,7 +16353,7 @@
         <v>0.4536749130330804</v>
       </c>
       <c r="S142">
-        <v>0.6856193262542576</v>
+        <v>0.2250041120233142</v>
       </c>
       <c r="T142">
         <v>9.738333832302436</v>
@@ -16436,7 +16436,7 @@
         <v>0.2114357495258174</v>
       </c>
       <c r="N143">
-        <v>0.3351261069544079</v>
+        <v>0.4018361836604069</v>
       </c>
       <c r="O143">
         <v>0.293719531588354</v>
@@ -16451,7 +16451,7 @@
         <v>0.6153618678251933</v>
       </c>
       <c r="S143">
-        <v>0.8189387407422437</v>
+        <v>0.2117018754064984</v>
       </c>
       <c r="T143">
         <v>7.047213452953543</v>
@@ -16537,7 +16537,7 @@
         <v>0.2693130847854011</v>
       </c>
       <c r="N144">
-        <v>0.3460695406273537</v>
+        <v>0.06893837079257387</v>
       </c>
       <c r="O144">
         <v>0.01597773525826204</v>
@@ -16552,7 +16552,7 @@
         <v>0.3327346920914176</v>
       </c>
       <c r="S144">
-        <v>0.5324998846968937</v>
+        <v>0.1585352149237489</v>
       </c>
       <c r="T144">
         <v>8.285190763097953</v>
@@ -16635,7 +16635,7 @@
         <v>0.09221276389220558</v>
       </c>
       <c r="N145">
-        <v>1.689301715582424</v>
+        <v>0.4012696898336012</v>
       </c>
       <c r="O145">
         <v>0.05314766078819154</v>
@@ -16650,7 +16650,7 @@
         <v>0.6545136306164437</v>
       </c>
       <c r="S145">
-        <v>0.8301278794898274</v>
+        <v>0.2249840253358004</v>
       </c>
       <c r="T145">
         <v>9.931250155034871</v>
@@ -16733,7 +16733,7 @@
         <v>0.04703701291169324</v>
       </c>
       <c r="N146">
-        <v>0.211601581868481</v>
+        <v>0.07877691862852423</v>
       </c>
       <c r="O146">
         <v>-0.02753198785190488</v>
@@ -16748,7 +16748,7 @@
         <v>0.7461891196694675</v>
       </c>
       <c r="S146">
-        <v>0.8873998422100212</v>
+        <v>0.2755796210418816</v>
       </c>
       <c r="T146">
         <v>8.134706623099527</v>
@@ -16834,7 +16834,7 @@
         <v>0.02840559574729618</v>
       </c>
       <c r="N147">
-        <v>0.0842541930868235</v>
+        <v>-0.001261139697374086</v>
       </c>
       <c r="O147">
         <v>0.118549798227511</v>
@@ -16849,7 +16849,7 @@
         <v>0.5711870392102866</v>
       </c>
       <c r="S147">
-        <v>0.8296819272810251</v>
+        <v>0.2112539770190676</v>
       </c>
       <c r="T147">
         <v>9.383865792125238</v>
@@ -16938,7 +16938,7 @@
         <v>0.1687284542117613</v>
       </c>
       <c r="N148">
-        <v>1.14936208372787</v>
+        <v>0.1824043652912607</v>
       </c>
       <c r="O148">
         <v>0.02484996407989208</v>
@@ -16953,7 +16953,7 @@
         <v>0.6047912760648974</v>
       </c>
       <c r="S148">
-        <v>0.8692969032930657</v>
+        <v>0.2297139445516169</v>
       </c>
       <c r="T148">
         <v>7.573578120356174</v>
@@ -17042,7 +17042,7 @@
         <v>0.1958869466231981</v>
       </c>
       <c r="N149">
-        <v>1.1263873853428</v>
+        <v>0.3058501481645907</v>
       </c>
       <c r="O149">
         <v>-0.04481687727929105</v>
@@ -17057,7 +17057,7 @@
         <v>0.6513402274012794</v>
       </c>
       <c r="S149">
-        <v>0.7708549637965821</v>
+        <v>0.2143911074818227</v>
       </c>
       <c r="T149">
         <v>6.799546881939196</v>
@@ -17140,7 +17140,7 @@
         <v>0.06968614007269053</v>
       </c>
       <c r="N150">
-        <v>0.278640411277854</v>
+        <v>0.06472819816998407</v>
       </c>
       <c r="O150">
         <v>0.1718589440414204</v>
@@ -17155,7 +17155,7 @@
         <v>0.6485765065547868</v>
       </c>
       <c r="S150">
-        <v>0.859459820170614</v>
+        <v>0.2748963135190129</v>
       </c>
       <c r="T150">
         <v>7.06209612170964</v>
@@ -17241,7 +17241,7 @@
         <v>0.2240484958123278</v>
       </c>
       <c r="N151">
-        <v>0.9852690752148787</v>
+        <v>0.5401762445600814</v>
       </c>
       <c r="O151">
         <v>0.02086013189487221</v>
@@ -17256,7 +17256,7 @@
         <v>0.7088918112263721</v>
       </c>
       <c r="S151">
-        <v>0.9232337822948381</v>
+        <v>0.2251468479815907</v>
       </c>
       <c r="T151">
         <v>4.111021052937005</v>
@@ -17339,7 +17339,7 @@
         <v>0.1794690390293315</v>
       </c>
       <c r="N152">
-        <v>0.9157932232292012</v>
+        <v>0.2343744423925642</v>
       </c>
       <c r="O152">
         <v>-0.03275632217528691</v>
@@ -17354,7 +17354,7 @@
         <v>0.6643955240509325</v>
       </c>
       <c r="S152">
-        <v>0.7781670679809597</v>
+        <v>0.2171240828214217</v>
       </c>
       <c r="T152">
         <v>10.08516013999668</v>
@@ -17440,7 +17440,7 @@
         <v>0.1064979537325317</v>
       </c>
       <c r="N153">
-        <v>1.418616714979124</v>
+        <v>0.1308839126407186</v>
       </c>
       <c r="O153">
         <v>0.139404355676623</v>
@@ -17455,7 +17455,7 @@
         <v>0.5671038416994404</v>
       </c>
       <c r="S153">
-        <v>0.784868934680425</v>
+        <v>0.2409402962356145</v>
       </c>
       <c r="T153">
         <v>5.698714055713006</v>
@@ -17541,7 +17541,7 @@
         <v>0.1074603874153909</v>
       </c>
       <c r="N154">
-        <v>2.768028898649764</v>
+        <v>0.36835579170405</v>
       </c>
       <c r="O154">
         <v>0.007990659923766403</v>
@@ -17556,7 +17556,7 @@
         <v>0.5805201273230639</v>
       </c>
       <c r="S154">
-        <v>0.7918774943556599</v>
+        <v>0.2042622047214371</v>
       </c>
       <c r="T154">
         <v>7.776108065967756</v>
@@ -17642,7 +17642,7 @@
         <v>0.03649488637749687</v>
       </c>
       <c r="N155">
-        <v>0.2066778021388704</v>
+        <v>0.132914235525994</v>
       </c>
       <c r="O155">
         <v>0.03522016083183623</v>
@@ -17657,7 +17657,7 @@
         <v>0.6444680343734587</v>
       </c>
       <c r="S155">
-        <v>0.8653806823547885</v>
+        <v>0.2510944538374287</v>
       </c>
       <c r="T155">
         <v>7.70157445283831</v>
@@ -17743,7 +17743,7 @@
         <v>0.1549392988740821</v>
       </c>
       <c r="N156">
-        <v>0.3942048155121569</v>
+        <v>0.1027033285685677</v>
       </c>
       <c r="O156">
         <v>0.1036074189255442</v>
@@ -17758,7 +17758,7 @@
         <v>0.5002744329971646</v>
       </c>
       <c r="S156">
-        <v>0.8841813066266085</v>
+        <v>0.1866300862811454</v>
       </c>
       <c r="T156">
         <v>13.50284223063933</v>
@@ -17847,7 +17847,7 @@
         <v>0.05528578742738406</v>
       </c>
       <c r="N157">
-        <v>0.1906357566049302</v>
+        <v>0.04921381581054122</v>
       </c>
       <c r="O157">
         <v>0.05052947151014071</v>
@@ -17862,7 +17862,7 @@
         <v>0.8209786808991464</v>
       </c>
       <c r="S157">
-        <v>1.115343621769229</v>
+        <v>0.2361778097278657</v>
       </c>
       <c r="T157">
         <v>10.71876292450691</v>
@@ -17948,7 +17948,7 @@
         <v>0.06943702302552564</v>
       </c>
       <c r="N158">
-        <v>0.2601733804834003</v>
+        <v>0.05644539411578908</v>
       </c>
       <c r="O158">
         <v>0.04434905181318651</v>
@@ -17963,7 +17963,7 @@
         <v>0.6164416370319491</v>
       </c>
       <c r="S158">
-        <v>0.808200538220964</v>
+        <v>0.2182689047781851</v>
       </c>
       <c r="T158">
         <v>9.14188608149453</v>
@@ -18052,7 +18052,7 @@
         <v>0.06862893543883945</v>
       </c>
       <c r="N159">
-        <v>3.822374265701363</v>
+        <v>0.2524216068796575</v>
       </c>
       <c r="O159">
         <v>0.4844495358111794</v>
@@ -18067,7 +18067,7 @@
         <v>0.6127255661055202</v>
       </c>
       <c r="S159">
-        <v>1.040714344360786</v>
+        <v>0.2475201971941248</v>
       </c>
       <c r="T159">
         <v>8.175924407775387</v>
@@ -18150,7 +18150,7 @@
         <v>0.449284813299871</v>
       </c>
       <c r="N160">
-        <v>0.5158037558359652</v>
+        <v>0.1950266738639798</v>
       </c>
       <c r="O160">
         <v>0.09094820360397785</v>
@@ -18165,7 +18165,7 @@
         <v>0.6161459900449797</v>
       </c>
       <c r="S160">
-        <v>0.8881454841869713</v>
+        <v>0.2354038085112883</v>
       </c>
       <c r="T160">
         <v>9.236892066202843</v>
@@ -18248,7 +18248,7 @@
         <v>0.06723951274647653</v>
       </c>
       <c r="N161">
-        <v>0.8990750459165766</v>
+        <v>0.2579149820896696</v>
       </c>
       <c r="O161">
         <v>0.09074332802091083</v>
@@ -18263,7 +18263,7 @@
         <v>0.617520537113775</v>
       </c>
       <c r="S161">
-        <v>0.8206280238086954</v>
+        <v>0.2668552232630337</v>
       </c>
       <c r="T161">
         <v>9.545674397005234</v>
@@ -18346,7 +18346,7 @@
         <v>0.09317320149068338</v>
       </c>
       <c r="N162">
-        <v>2.274525395276245</v>
+        <v>0.3553502717479532</v>
       </c>
       <c r="O162">
         <v>0.03166596190578646</v>
@@ -18361,7 +18361,7 @@
         <v>0.5641483398738482</v>
       </c>
       <c r="S162">
-        <v>0.7940774745872311</v>
+        <v>0.2369120552633966</v>
       </c>
       <c r="T162">
         <v>10.51713827740215</v>
@@ -18447,7 +18447,7 @@
         <v>0.2142675675720281</v>
       </c>
       <c r="N163">
-        <v>1.853810094197248</v>
+        <v>0.3473695831309752</v>
       </c>
       <c r="O163">
         <v>0.08567479326753071</v>
@@ -18462,7 +18462,7 @@
         <v>0.5168571512289082</v>
       </c>
       <c r="S163">
-        <v>0.7902069257594846</v>
+        <v>0.161465491468163</v>
       </c>
       <c r="T163">
         <v>10.28645028561852</v>
@@ -18545,7 +18545,7 @@
         <v>0.6903141307623342</v>
       </c>
       <c r="N164">
-        <v>0.6739454797858617</v>
+        <v>0.1247190606930698</v>
       </c>
       <c r="O164">
         <v>0.09688998565555115</v>
@@ -18560,7 +18560,7 @@
         <v>0.4957116566962808</v>
       </c>
       <c r="S164">
-        <v>0.8447535964952183</v>
+        <v>0.2202879082076133</v>
       </c>
       <c r="T164">
         <v>7.735654963496774</v>
@@ -18643,7 +18643,7 @@
         <v>0.07041437053480094</v>
       </c>
       <c r="N165">
-        <v>0.2927655095889387</v>
+        <v>0.1297226009054739</v>
       </c>
       <c r="O165">
         <v>0.06436670315130537</v>
@@ -18658,7 +18658,7 @@
         <v>0.6428494079913134</v>
       </c>
       <c r="S165">
-        <v>0.8632701144637194</v>
+        <v>0.1998077181038716</v>
       </c>
       <c r="T165">
         <v>8.804434047658017</v>
@@ -18744,7 +18744,7 @@
         <v>0.2139629461879648</v>
       </c>
       <c r="N166">
-        <v>0.514066384320026</v>
+        <v>0.2491209453801274</v>
       </c>
       <c r="O166">
         <v>0.04690826092522045</v>
@@ -18759,7 +18759,7 @@
         <v>0.6473036448566182</v>
       </c>
       <c r="S166">
-        <v>0.8708055343151258</v>
+        <v>0.2619378542603193</v>
       </c>
       <c r="T166">
         <v>12.64246182053748</v>
@@ -18842,7 +18842,7 @@
         <v>0.09555638187794756</v>
       </c>
       <c r="N167">
-        <v>0.3587633146019262</v>
+        <v>0.1534701434857533</v>
       </c>
       <c r="O167">
         <v>0.0535618046317663</v>
@@ -18857,7 +18857,7 @@
         <v>0.644442908948456</v>
       </c>
       <c r="S167">
-        <v>0.8565585229885379</v>
+        <v>0.1924052304096998</v>
       </c>
       <c r="T167">
         <v>9.538794736981696</v>
@@ -18940,7 +18940,7 @@
         <v>0.4779436347438566</v>
       </c>
       <c r="N168">
-        <v>0.4241156919833144</v>
+        <v>0.1601775066295348</v>
       </c>
       <c r="O168">
         <v>0.07541287432982161</v>
@@ -18955,7 +18955,7 @@
         <v>0.5253708133896717</v>
       </c>
       <c r="S168">
-        <v>0.7238012883825734</v>
+        <v>0.2190870387593678</v>
       </c>
       <c r="T168">
         <v>8.283003100579108</v>
@@ -19038,7 +19038,7 @@
         <v>0.08590497543531855</v>
       </c>
       <c r="N169">
-        <v>0.5137483148438353</v>
+        <v>0.05964901156185141</v>
       </c>
       <c r="O169">
         <v>0.04664643743636088</v>
@@ -19053,7 +19053,7 @@
         <v>0.5538766011433084</v>
       </c>
       <c r="S169">
-        <v>0.7780519023919674</v>
+        <v>0.2360136693629024</v>
       </c>
       <c r="T169">
         <v>11.53392514673153</v>
@@ -19136,7 +19136,7 @@
         <v>0.08100203804833701</v>
       </c>
       <c r="N170">
-        <v>0.3944929352213417</v>
+        <v>0.2178711735234405</v>
       </c>
       <c r="O170">
         <v>0.09473008514413717</v>
@@ -19151,7 +19151,7 @@
         <v>0.5873980183501879</v>
       </c>
       <c r="S170">
-        <v>0.8163441476486953</v>
+        <v>0.3188575823641845</v>
       </c>
       <c r="T170">
         <v>9.026987286108978</v>
@@ -19237,7 +19237,7 @@
         <v>0.0806895402930121</v>
       </c>
       <c r="N171">
-        <v>0.2765718154045459</v>
+        <v>0.1016121051815782</v>
       </c>
       <c r="O171">
         <v>0.1267560387778159</v>
@@ -19252,7 +19252,7 @@
         <v>0.5967514491606483</v>
       </c>
       <c r="S171">
-        <v>0.7586887529946194</v>
+        <v>0.2260089201387553</v>
       </c>
       <c r="T171">
         <v>11.15438415691251</v>
@@ -19338,7 +19338,7 @@
         <v>0.09624557262892096</v>
       </c>
       <c r="N172">
-        <v>0.3511821425624148</v>
+        <v>0.04515673709643069</v>
       </c>
       <c r="O172">
         <v>0.1212122966797476</v>
@@ -19353,7 +19353,7 @@
         <v>0.6299908697000672</v>
       </c>
       <c r="S172">
-        <v>0.9129770804537438</v>
+        <v>0.2372182715472054</v>
       </c>
       <c r="T172">
         <v>6.919421929538984</v>
@@ -19439,7 +19439,7 @@
         <v>0.2701573926644853</v>
       </c>
       <c r="N173">
-        <v>0.3031017051759252</v>
+        <v>0.2142647440566615</v>
       </c>
       <c r="O173">
         <v>0.1432167469869357</v>
@@ -19454,7 +19454,7 @@
         <v>0.5645103832619902</v>
       </c>
       <c r="S173">
-        <v>0.7968972261001287</v>
+        <v>0.2429133321604136</v>
       </c>
       <c r="T173">
         <v>10.85786780117719</v>
@@ -19540,7 +19540,7 @@
         <v>0.08399520353301423</v>
       </c>
       <c r="N174">
-        <v>0.186318642953305</v>
+        <v>0.1636000085721025</v>
       </c>
       <c r="O174">
         <v>0.02708142210433882</v>
@@ -19555,7 +19555,7 @@
         <v>0.6939812215863805</v>
       </c>
       <c r="S174">
-        <v>0.8408270704044188</v>
+        <v>0.2690924597153826</v>
       </c>
       <c r="T174">
         <v>10.96303501379668</v>
@@ -19641,7 +19641,7 @@
         <v>0.04349124192542945</v>
       </c>
       <c r="N175">
-        <v>0.1995249099984904</v>
+        <v>0.07348938830374241</v>
       </c>
       <c r="O175">
         <v>0.12355780668082</v>
@@ -19656,7 +19656,7 @@
         <v>0.5720235731072278</v>
       </c>
       <c r="S175">
-        <v>0.7731120491291571</v>
+        <v>0.2900073581333648</v>
       </c>
       <c r="T175">
         <v>9.006528155896088</v>
@@ -19739,7 +19739,7 @@
         <v>0.08456598426219045</v>
       </c>
       <c r="N176">
-        <v>0.692168216846864</v>
+        <v>0.2170920714090559</v>
       </c>
       <c r="O176">
         <v>0.1649946345457578</v>
@@ -19754,7 +19754,7 @@
         <v>0.3165170186175226</v>
       </c>
       <c r="S176">
-        <v>0.890140984213291</v>
+        <v>0.2406317046535413</v>
       </c>
       <c r="T176">
         <v>10.30206710256982</v>
@@ -19813,7 +19813,7 @@
         <v>0.4393070833555205</v>
       </c>
       <c r="S177">
-        <v>0.9569728848924566</v>
+        <v>0.2421302664011448</v>
       </c>
       <c r="T177">
         <v>8.846369774919653</v>
@@ -19896,7 +19896,7 @@
         <v>0.04836945606336907</v>
       </c>
       <c r="N178">
-        <v>0.6620568457113958</v>
+        <v>0.06443294604404486</v>
       </c>
       <c r="O178">
         <v>0.07735489949260581</v>
@@ -19911,7 +19911,7 @@
         <v>0.4981756345040317</v>
       </c>
       <c r="S178">
-        <v>0.7981053084171332</v>
+        <v>0.2240833359749023</v>
       </c>
       <c r="T178">
         <v>10.2519014197884</v>
@@ -19994,7 +19994,7 @@
         <v>0.8861398286429082</v>
       </c>
       <c r="N179">
-        <v>0.735517698436438</v>
+        <v>0.1134916113607064</v>
       </c>
       <c r="O179">
         <v>0.04136042858839721</v>
@@ -20009,7 +20009,7 @@
         <v>0.5513349681393895</v>
       </c>
       <c r="S179">
-        <v>0.7567903730580525</v>
+        <v>0.2014335269934899</v>
       </c>
       <c r="T179">
         <v>7.158096225315945</v>
@@ -20092,7 +20092,7 @@
         <v>0.09518005100336435</v>
       </c>
       <c r="N180">
-        <v>1.73026715660142</v>
+        <v>0.3003291508757238</v>
       </c>
       <c r="O180">
         <v>0.04842584149410685</v>
@@ -20107,7 +20107,7 @@
         <v>0.5471188464227014</v>
       </c>
       <c r="S180">
-        <v>0.784197573439958</v>
+        <v>0.2600652761787394</v>
       </c>
       <c r="T180">
         <v>9.237008316113386</v>
@@ -20196,7 +20196,7 @@
         <v>0.09728049966270787</v>
       </c>
       <c r="N181">
-        <v>0.6764513540800375</v>
+        <v>0.08092359951173485</v>
       </c>
       <c r="O181">
         <v>0.09712602702748216</v>
@@ -20211,7 +20211,7 @@
         <v>0.483993819196224</v>
       </c>
       <c r="S181">
-        <v>0.8190657980396159</v>
+        <v>0.1835325191925745</v>
       </c>
       <c r="T181">
         <v>9.842233437985715</v>
@@ -20294,7 +20294,7 @@
         <v>0.0692163327313892</v>
       </c>
       <c r="N182">
-        <v>1.309268578214044</v>
+        <v>0.2454046522763366</v>
       </c>
       <c r="O182">
         <v>0.0692807038560771</v>
@@ -20309,7 +20309,7 @@
         <v>0.414762994672577</v>
       </c>
       <c r="S182">
-        <v>0.8064828396274346</v>
+        <v>0.2744849477378327</v>
       </c>
       <c r="T182">
         <v>10.8964188247543</v>
@@ -20395,7 +20395,7 @@
         <v>0.08755016700726943</v>
       </c>
       <c r="N183">
-        <v>0.6281503524537196</v>
+        <v>0.1178755315215852</v>
       </c>
       <c r="O183">
         <v>0.08947822622165076</v>
@@ -20410,7 +20410,7 @@
         <v>0.5832945763699015</v>
       </c>
       <c r="S183">
-        <v>0.7521837877587123</v>
+        <v>0.2327220862460677</v>
       </c>
       <c r="T183">
         <v>8.021439029767388</v>
@@ -20496,7 +20496,7 @@
         <v>0.1471386482266487</v>
       </c>
       <c r="N184">
-        <v>1.625265799082039</v>
+        <v>0.2166879175771672</v>
       </c>
       <c r="O184">
         <v>0.07701285708948202</v>
@@ -20511,7 +20511,7 @@
         <v>0.6591214641162686</v>
       </c>
       <c r="S184">
-        <v>0.7919064819701213</v>
+        <v>0.1773915531916256</v>
       </c>
       <c r="T184">
         <v>9.768832345116786</v>
@@ -20582,7 +20582,7 @@
         <v>0.1211123791194435</v>
       </c>
       <c r="N185">
-        <v>0.6326337481467121</v>
+        <v>0.1492713556916699</v>
       </c>
       <c r="U185">
         <v>6.169789011865444</v>
@@ -20641,7 +20641,7 @@
         <v>0.07984157278322682</v>
       </c>
       <c r="N186">
-        <v>0.3650664163258751</v>
+        <v>0.07710523384480132</v>
       </c>
       <c r="O186">
         <v>0.1381220389554625</v>
@@ -20656,7 +20656,7 @@
         <v>0.5947715303677593</v>
       </c>
       <c r="S186">
-        <v>0.7878258508961686</v>
+        <v>0.223229469344618</v>
       </c>
       <c r="T186">
         <v>12.01658263350791</v>
@@ -20742,7 +20742,7 @@
         <v>0.5821839859856264</v>
       </c>
       <c r="N187">
-        <v>0.6225198843014974</v>
+        <v>0.1083797908287161</v>
       </c>
       <c r="O187">
         <v>0.08187398557773426</v>
@@ -20757,7 +20757,7 @@
         <v>0.5295321940185845</v>
       </c>
       <c r="S187">
-        <v>0.7692151955902194</v>
+        <v>0.1833589320246622</v>
       </c>
       <c r="T187">
         <v>8.406468514787919</v>
@@ -20840,7 +20840,7 @@
         <v>0.07063782369554902</v>
       </c>
       <c r="N188">
-        <v>0.2310617172286399</v>
+        <v>0.1029858584357671</v>
       </c>
       <c r="O188">
         <v>0.05650089027830928</v>
@@ -20855,7 +20855,7 @@
         <v>0.5331676872985616</v>
       </c>
       <c r="S188">
-        <v>0.7795026946136382</v>
+        <v>0.2060099296593119</v>
       </c>
       <c r="T188">
         <v>8.159183738671187</v>
@@ -20941,7 +20941,7 @@
         <v>0.6764218302980127</v>
       </c>
       <c r="N189">
-        <v>0.6173983930649503</v>
+        <v>0.2097214958080348</v>
       </c>
       <c r="O189">
         <v>0.05331963944850779</v>
@@ -20956,7 +20956,7 @@
         <v>0.6867059305181991</v>
       </c>
       <c r="S189">
-        <v>0.9206888487548467</v>
+        <v>0.2034767577021624</v>
       </c>
       <c r="T189">
         <v>8.768368802597211</v>
@@ -21039,7 +21039,7 @@
         <v>0.07474863249710775</v>
       </c>
       <c r="N190">
-        <v>0.8955971725027236</v>
+        <v>0.2368317164192725</v>
       </c>
       <c r="O190">
         <v>0.05495947393933377</v>
@@ -21054,7 +21054,7 @@
         <v>0.661832499626708</v>
       </c>
       <c r="S190">
-        <v>0.8290858623439752</v>
+        <v>0.2534205177101049</v>
       </c>
       <c r="T190">
         <v>8.948333595136676</v>
@@ -21143,7 +21143,7 @@
         <v>0.1888589704493131</v>
       </c>
       <c r="N191">
-        <v>1.331152025962942</v>
+        <v>0.3584601005146286</v>
       </c>
       <c r="O191">
         <v>0.08420953561913681</v>
@@ -21158,7 +21158,7 @@
         <v>0.5409823685459748</v>
       </c>
       <c r="S191">
-        <v>0.7493278062418909</v>
+        <v>0.2240821804388514</v>
       </c>
       <c r="T191">
         <v>10.61534637729024</v>
@@ -21244,7 +21244,7 @@
         <v>0.0476120271789239</v>
       </c>
       <c r="N192">
-        <v>0.1681808401583706</v>
+        <v>0.099788193453567</v>
       </c>
       <c r="O192">
         <v>0.1167869699937582</v>
@@ -21259,7 +21259,7 @@
         <v>0.5672385587182077</v>
       </c>
       <c r="S192">
-        <v>0.8441323145360033</v>
+        <v>0.1766153173424385</v>
       </c>
       <c r="T192">
         <v>8.560971530005265</v>
@@ -21342,7 +21342,7 @@
         <v>0.04659573067333773</v>
       </c>
       <c r="N193">
-        <v>1.184796986423728</v>
+        <v>0.1715824483547558</v>
       </c>
       <c r="O193">
         <v>0.1122295761474624</v>
@@ -21357,7 +21357,7 @@
         <v>0.5340867864078807</v>
       </c>
       <c r="S193">
-        <v>0.7765325355484677</v>
+        <v>0.1942623321996277</v>
       </c>
       <c r="T193">
         <v>8.442043408652301</v>
@@ -21443,7 +21443,7 @@
         <v>0.1134051435874752</v>
       </c>
       <c r="N194">
-        <v>1.6744697275176</v>
+        <v>0.5964112641044955</v>
       </c>
       <c r="O194">
         <v>0.09773555262949642</v>
@@ -21458,7 +21458,7 @@
         <v>0.5137366299513703</v>
       </c>
       <c r="S194">
-        <v>0.7788733976603853</v>
+        <v>0.230299834001755</v>
       </c>
       <c r="T194">
         <v>8.553362512512548</v>
@@ -21544,7 +21544,7 @@
         <v>0.03820609906840503</v>
       </c>
       <c r="N195">
-        <v>0.3883829368326466</v>
+        <v>0.05185490703605625</v>
       </c>
       <c r="O195">
         <v>0.1331400064680696</v>
@@ -21559,7 +21559,7 @@
         <v>0.4822130452815903</v>
       </c>
       <c r="S195">
-        <v>0.8068370554044995</v>
+        <v>0.1898002590607356</v>
       </c>
       <c r="T195">
         <v>9.303184598863057</v>
@@ -21648,7 +21648,7 @@
         <v>0.151397073735128</v>
       </c>
       <c r="N196">
-        <v>0.3914285157189644</v>
+        <v>0.08884125659612395</v>
       </c>
       <c r="O196">
         <v>0.102470106034608</v>
@@ -21663,7 +21663,7 @@
         <v>0.598528521731685</v>
       </c>
       <c r="S196">
-        <v>0.8556349800572762</v>
+        <v>0.240279430122816</v>
       </c>
       <c r="T196">
         <v>12.41731700446197</v>
@@ -21749,7 +21749,7 @@
         <v>0.1698375794608603</v>
       </c>
       <c r="N197">
-        <v>1.129836980354567</v>
+        <v>0.408493518132751</v>
       </c>
       <c r="O197">
         <v>0.0558521120363196</v>
@@ -21764,7 +21764,7 @@
         <v>0.5562392709042667</v>
       </c>
       <c r="S197">
-        <v>0.8418739531948176</v>
+        <v>0.2447612223702673</v>
       </c>
       <c r="T197">
         <v>13.31348937312317</v>
@@ -21853,7 +21853,7 @@
         <v>0.1082494982625264</v>
       </c>
       <c r="N198">
-        <v>0.3231555793735827</v>
+        <v>0.1437701335687107</v>
       </c>
       <c r="O198">
         <v>0.1659001697437455</v>
@@ -21868,7 +21868,7 @@
         <v>0.5927522663852791</v>
       </c>
       <c r="S198">
-        <v>0.8360667016260546</v>
+        <v>0.2063904129502132</v>
       </c>
       <c r="T198">
         <v>12.80920869817521</v>
@@ -21957,7 +21957,7 @@
         <v>0.08221644284124531</v>
       </c>
       <c r="N199">
-        <v>0.4065946289847608</v>
+        <v>0.1445053345960023</v>
       </c>
       <c r="O199">
         <v>0.05664634140398336</v>
@@ -21972,7 +21972,7 @@
         <v>0.6873001575628043</v>
       </c>
       <c r="S199">
-        <v>0.9388040008607479</v>
+        <v>0.323857667467352</v>
       </c>
       <c r="T199">
         <v>6.782963506053632</v>
@@ -22058,7 +22058,7 @@
         <v>0.009592031465009006</v>
       </c>
       <c r="N200">
-        <v>0.1970576154697381</v>
+        <v>0.03782041061239568</v>
       </c>
       <c r="O200">
         <v>0.1295137516726993</v>
@@ -22073,7 +22073,7 @@
         <v>0.5967149733861871</v>
       </c>
       <c r="S200">
-        <v>0.8805220706044873</v>
+        <v>0.2031913889969441</v>
       </c>
       <c r="T200">
         <v>8.735798561656301</v>
@@ -22156,7 +22156,7 @@
         <v>0.1602968874851297</v>
       </c>
       <c r="N201">
-        <v>0.2931444032368417</v>
+        <v>0.1568298664817918</v>
       </c>
       <c r="O201">
         <v>0.116063806480229</v>
@@ -22171,7 +22171,7 @@
         <v>0.5783742004062272</v>
       </c>
       <c r="S201">
-        <v>0.7519401609226988</v>
+        <v>0.2721727635149943</v>
       </c>
       <c r="T201">
         <v>9.253510941000233</v>
@@ -22257,7 +22257,7 @@
         <v>0.0639509110776052</v>
       </c>
       <c r="N202">
-        <v>0.3905670995588024</v>
+        <v>0.09156539260785515</v>
       </c>
       <c r="O202">
         <v>0.06848218778706396</v>
@@ -22272,7 +22272,7 @@
         <v>0.7207133997386393</v>
       </c>
       <c r="S202">
-        <v>0.9542947361120554</v>
+        <v>0.2500115815454017</v>
       </c>
       <c r="T202">
         <v>8.746355145806463</v>
@@ -22355,7 +22355,7 @@
         <v>0.1751108670774248</v>
       </c>
       <c r="N203">
-        <v>0.3365529432307874</v>
+        <v>0.1707554750171574</v>
       </c>
       <c r="O203">
         <v>0.05562178132500509</v>
@@ -22370,7 +22370,7 @@
         <v>0.7187651822092228</v>
       </c>
       <c r="S203">
-        <v>0.8754419381681597</v>
+        <v>0.2510243614802861</v>
       </c>
       <c r="T203">
         <v>10.55521641820391</v>
@@ -22453,7 +22453,7 @@
         <v>0.3241189265925456</v>
       </c>
       <c r="N204">
-        <v>0.5535425767654079</v>
+        <v>0.2384109211169817</v>
       </c>
       <c r="O204">
         <v>0.1025742195149573</v>
@@ -22468,7 +22468,7 @@
         <v>0.6001197865305073</v>
       </c>
       <c r="S204">
-        <v>0.9059466069814545</v>
+        <v>0.1964158801199804</v>
       </c>
       <c r="T204">
         <v>10.39203607348264</v>
@@ -22557,7 +22557,7 @@
         <v>0.200886023473571</v>
       </c>
       <c r="N205">
-        <v>0.5914886296915191</v>
+        <v>0.1461832400228933</v>
       </c>
       <c r="O205">
         <v>0.04599939038731942</v>
@@ -22572,7 +22572,7 @@
         <v>0.5324974720518809</v>
       </c>
       <c r="S205">
-        <v>0.7975232964821732</v>
+        <v>0.2243312823595392</v>
       </c>
       <c r="T205">
         <v>10.99090381416177</v>
@@ -22661,7 +22661,7 @@
         <v>0.169476226042599</v>
       </c>
       <c r="N206">
-        <v>0.3868397224785665</v>
+        <v>0.2270023510542561</v>
       </c>
       <c r="O206">
         <v>0.08081530697895603</v>
@@ -22676,7 +22676,7 @@
         <v>0.5515200622607711</v>
       </c>
       <c r="S206">
-        <v>0.7865559988388359</v>
+        <v>0.2268771109040255</v>
       </c>
       <c r="T206">
         <v>10.28863866253069</v>
@@ -22765,7 +22765,7 @@
         <v>0.1134258610934427</v>
       </c>
       <c r="N207">
-        <v>0.6969695961327508</v>
+        <v>0.1203993187590576</v>
       </c>
       <c r="O207">
         <v>0.3274858184349625</v>
@@ -22780,7 +22780,7 @@
         <v>0.47669880213518</v>
       </c>
       <c r="S207">
-        <v>0.886920804342449</v>
+        <v>0.2050397348847753</v>
       </c>
       <c r="T207">
         <v>12.55954446442628</v>
@@ -22869,7 +22869,7 @@
         <v>0.07129194519198981</v>
       </c>
       <c r="N208">
-        <v>0.5289070448821296</v>
+        <v>0.05062834761661014</v>
       </c>
       <c r="O208">
         <v>0.08363613491479531</v>
@@ -22884,7 +22884,7 @@
         <v>0.5143571866877839</v>
       </c>
       <c r="S208">
-        <v>0.7981812340065162</v>
+        <v>0.181138467669282</v>
       </c>
       <c r="T208">
         <v>9.885919619933407</v>
@@ -22973,7 +22973,7 @@
         <v>0.02274961889030775</v>
       </c>
       <c r="N209">
-        <v>0.06547460952863608</v>
+        <v>0.09135864387742855</v>
       </c>
       <c r="O209">
         <v>0.06512712261979535</v>
@@ -22988,7 +22988,7 @@
         <v>0.5158410195656983</v>
       </c>
       <c r="S209">
-        <v>0.7977144392468596</v>
+        <v>0.1630333455104893</v>
       </c>
       <c r="T209">
         <v>7.50307967699151</v>
@@ -23074,7 +23074,7 @@
         <v>0.2016612873853402</v>
       </c>
       <c r="N210">
-        <v>1.045767459528883</v>
+        <v>0.4131139779491994</v>
       </c>
       <c r="O210">
         <v>0.1210504242776037</v>
@@ -23089,7 +23089,7 @@
         <v>0.6067629140272698</v>
       </c>
       <c r="S210">
-        <v>0.8644859531571514</v>
+        <v>0.2395872233087996</v>
       </c>
       <c r="T210">
         <v>10.26648709440106</v>
@@ -23175,7 +23175,7 @@
         <v>0.07970407644839213</v>
       </c>
       <c r="N211">
-        <v>0.5634478679124203</v>
+        <v>0.1755483042320226</v>
       </c>
       <c r="O211">
         <v>0.04486762949572025</v>
@@ -23190,7 +23190,7 @@
         <v>0.5903866013723224</v>
       </c>
       <c r="S211">
-        <v>0.7671978459626015</v>
+        <v>0.2712258729062288</v>
       </c>
       <c r="T211">
         <v>8.075089792064588</v>
@@ -23279,7 +23279,7 @@
         <v>0.1650490494336172</v>
       </c>
       <c r="N212">
-        <v>0.971943192632223</v>
+        <v>0.3398357692263408</v>
       </c>
       <c r="O212">
         <v>0.04376713093524449</v>
@@ -23294,7 +23294,7 @@
         <v>0.5249038728744311</v>
       </c>
       <c r="S212">
-        <v>0.7268316192664328</v>
+        <v>0.2302154469688473</v>
       </c>
       <c r="T212">
         <v>7.850579847987561</v>
@@ -23380,7 +23380,7 @@
         <v>0.01974336519991516</v>
       </c>
       <c r="N213">
-        <v>2.168623148451821</v>
+        <v>0.1855024994157787</v>
       </c>
       <c r="O213">
         <v>0.08470046868263828</v>
@@ -23395,7 +23395,7 @@
         <v>0.7649621632473964</v>
       </c>
       <c r="S213">
-        <v>0.9755334678267547</v>
+        <v>0.1986695528573786</v>
       </c>
       <c r="T213">
         <v>9.375883468047128</v>
@@ -23481,7 +23481,7 @@
         <v>0.05812723999031116</v>
       </c>
       <c r="N214">
-        <v>0.845898465392273</v>
+        <v>0.05943931501112294</v>
       </c>
       <c r="O214">
         <v>0.08173110277234265</v>
@@ -23496,7 +23496,7 @@
         <v>0.434787748423115</v>
       </c>
       <c r="S214">
-        <v>0.8660830251134913</v>
+        <v>0.2568978487670348</v>
       </c>
       <c r="T214">
         <v>5.43500310237621</v>
@@ -23585,7 +23585,7 @@
         <v>0.00979050456646928</v>
       </c>
       <c r="N215">
-        <v>0.2056557515903235</v>
+        <v>0.03640243074177933</v>
       </c>
       <c r="O215">
         <v>0.07233087040459971</v>
@@ -23600,7 +23600,7 @@
         <v>0.5071203099797161</v>
       </c>
       <c r="S215">
-        <v>0.8020381293692507</v>
+        <v>0.1596568669851185</v>
       </c>
       <c r="T215">
         <v>9.037786100110631</v>
@@ -23689,7 +23689,7 @@
         <v>0.200808022731555</v>
       </c>
       <c r="N216">
-        <v>0.5678203276274879</v>
+        <v>0.1097783223930462</v>
       </c>
       <c r="O216">
         <v>0.149136812176894</v>
@@ -23704,7 +23704,7 @@
         <v>0.5728038187331485</v>
       </c>
       <c r="S216">
-        <v>0.907312097090473</v>
+        <v>0.2332454851909177</v>
       </c>
       <c r="T216">
         <v>10.13596173092097</v>
@@ -23793,7 +23793,7 @@
         <v>0.0852739029657943</v>
       </c>
       <c r="N217">
-        <v>1.452142172686048</v>
+        <v>0.2362802234404056</v>
       </c>
       <c r="O217">
         <v>0.04382304192373609</v>
@@ -23808,7 +23808,7 @@
         <v>0.6501085269226282</v>
       </c>
       <c r="S217">
-        <v>0.8959693193388079</v>
+        <v>0.2567684204320653</v>
       </c>
       <c r="T217">
         <v>8.894526285600707</v>
@@ -23897,7 +23897,7 @@
         <v>0.1264534060842441</v>
       </c>
       <c r="N218">
-        <v>0.5680624834007056</v>
+        <v>0.1099643595494327</v>
       </c>
       <c r="O218">
         <v>0.1934152396304983</v>
@@ -23912,7 +23912,7 @@
         <v>0.6846723333671664</v>
       </c>
       <c r="S218">
-        <v>0.9021046030848924</v>
+        <v>0.3132088664595052</v>
       </c>
       <c r="T218">
         <v>10.9321245721554</v>
@@ -24001,7 +24001,7 @@
         <v>0.1898027293943544</v>
       </c>
       <c r="N219">
-        <v>0.5128030706117708</v>
+        <v>0.0698315134341418</v>
       </c>
       <c r="O219">
         <v>0.4390874483849641</v>
@@ -24016,7 +24016,7 @@
         <v>0.643721869803496</v>
       </c>
       <c r="S219">
-        <v>0.9051203144470805</v>
+        <v>0.2999631561385705</v>
       </c>
       <c r="T219">
         <v>10.15890997280838</v>
@@ -24105,7 +24105,7 @@
         <v>0.06754945946113211</v>
       </c>
       <c r="N220">
-        <v>0.7215025631511971</v>
+        <v>0.1166275246144158</v>
       </c>
       <c r="O220">
         <v>0.2421184203402402</v>
@@ -24120,7 +24120,7 @@
         <v>0.6563958783031704</v>
       </c>
       <c r="S220">
-        <v>0.952034531317243</v>
+        <v>0.3032395494908368</v>
       </c>
       <c r="T220">
         <v>11.10677686945419</v>
@@ -24209,7 +24209,7 @@
         <v>0.1432059261669115</v>
       </c>
       <c r="N221">
-        <v>0.4705277523138157</v>
+        <v>0.08016529801880419</v>
       </c>
       <c r="O221">
         <v>0.05484248505254684</v>
@@ -24224,7 +24224,7 @@
         <v>0.5721833351474312</v>
       </c>
       <c r="S221">
-        <v>0.8460127573467905</v>
+        <v>0.2621123132317497</v>
       </c>
       <c r="T221">
         <v>9.317252648338544</v>
@@ -24313,7 +24313,7 @@
         <v>0.06364357528957738</v>
       </c>
       <c r="N222">
-        <v>1.418096508592366</v>
+        <v>0.0944816658029549</v>
       </c>
       <c r="O222">
         <v>0.6910946603382628</v>
@@ -24328,7 +24328,7 @@
         <v>0.5958895642788737</v>
       </c>
       <c r="S222">
-        <v>0.9270437301221011</v>
+        <v>0.2733009420984731</v>
       </c>
       <c r="T222">
         <v>10.95352539834393</v>
@@ -24417,7 +24417,7 @@
         <v>0.08318915453940416</v>
       </c>
       <c r="N223">
-        <v>3.358212185219537</v>
+        <v>0.3041266157386732</v>
       </c>
       <c r="O223">
         <v>0.2835127659655697</v>
@@ -24432,7 +24432,7 @@
         <v>0.6430738586137238</v>
       </c>
       <c r="S223">
-        <v>0.9105590283921694</v>
+        <v>0.3484641654650387</v>
       </c>
       <c r="T223">
         <v>9.263522366554493</v>
@@ -24521,7 +24521,7 @@
         <v>0.1156805525814073</v>
       </c>
       <c r="N224">
-        <v>1.428885942877572</v>
+        <v>0.1904798296051987</v>
       </c>
       <c r="O224">
         <v>0.1570300607339621</v>
@@ -24536,7 +24536,7 @@
         <v>0.7191321079664553</v>
       </c>
       <c r="S224">
-        <v>0.9159881149509006</v>
+        <v>0.276943950182153</v>
       </c>
       <c r="T224">
         <v>11.46595658512861</v>
@@ -24625,7 +24625,7 @@
         <v>0.04657239660878866</v>
       </c>
       <c r="N225">
-        <v>0.9555291229009851</v>
+        <v>0.17988089343542</v>
       </c>
       <c r="O225">
         <v>0.2493696975376465</v>
@@ -24640,7 +24640,7 @@
         <v>0.5772865316090124</v>
       </c>
       <c r="S225">
-        <v>0.8761545843208255</v>
+        <v>0.2990272518699665</v>
       </c>
       <c r="T225">
         <v>12.24247554727499</v>
@@ -24729,7 +24729,7 @@
         <v>0.1666641504610407</v>
       </c>
       <c r="N226">
-        <v>1.113543382490032</v>
+        <v>0.4644126561231642</v>
       </c>
       <c r="O226">
         <v>0.101831171764518</v>
@@ -24744,7 +24744,7 @@
         <v>0.6798819037540214</v>
       </c>
       <c r="S226">
-        <v>0.7777392245587317</v>
+        <v>0.3071781658614272</v>
       </c>
       <c r="T226">
         <v>11.10316423503089</v>
@@ -24833,7 +24833,7 @@
         <v>0.2618431349127804</v>
       </c>
       <c r="N227">
-        <v>0.5942702227276685</v>
+        <v>0.2650044547101195</v>
       </c>
       <c r="O227">
         <v>0.2727461053525077</v>
@@ -24848,7 +24848,7 @@
         <v>0.6232769578958393</v>
       </c>
       <c r="S227">
-        <v>0.8828312157191175</v>
+        <v>0.2533885625266784</v>
       </c>
       <c r="T227">
         <v>10.88817418542501</v>
@@ -24937,7 +24937,7 @@
         <v>0.2923087268427121</v>
       </c>
       <c r="N228">
-        <v>0.9762060428933741</v>
+        <v>0.4540696667614544</v>
       </c>
       <c r="O228">
         <v>0.1203601746016288</v>
@@ -24952,7 +24952,7 @@
         <v>0.6117061799911293</v>
       </c>
       <c r="S228">
-        <v>0.9121163015802404</v>
+        <v>0.2777264940426408</v>
       </c>
       <c r="T228">
         <v>12.38210217484536</v>
@@ -25041,7 +25041,7 @@
         <v>0.07696407295524171</v>
       </c>
       <c r="N229">
-        <v>0.6833342124847205</v>
+        <v>0.2077749877269715</v>
       </c>
       <c r="O229">
         <v>0.4775803918251049</v>
@@ -25056,7 +25056,7 @@
         <v>0.5665308097121301</v>
       </c>
       <c r="S229">
-        <v>0.9047453999875407</v>
+        <v>0.3094740476152394</v>
       </c>
       <c r="T229">
         <v>11.50481045929372</v>
@@ -25145,7 +25145,7 @@
         <v>0.1323819409313746</v>
       </c>
       <c r="N230">
-        <v>0.6228044021361008</v>
+        <v>0.09181420953406115</v>
       </c>
       <c r="O230">
         <v>0.2472316602196495</v>
@@ -25160,7 +25160,7 @@
         <v>0.4757155035744753</v>
       </c>
       <c r="S230">
-        <v>0.8619880020907845</v>
+        <v>0.2710761515380778</v>
       </c>
       <c r="T230">
         <v>11.27823541373745</v>
@@ -25249,7 +25249,7 @@
         <v>0.1672652466169823</v>
       </c>
       <c r="N231">
-        <v>0.4646548023564848</v>
+        <v>0.08146681737174061</v>
       </c>
       <c r="O231">
         <v>0.1806274431483516</v>
@@ -25264,7 +25264,7 @@
         <v>0.4774632016137551</v>
       </c>
       <c r="S231">
-        <v>0.8356186843812209</v>
+        <v>0.2261795815150591</v>
       </c>
       <c r="T231">
         <v>11.79357610135254</v>
@@ -25353,7 +25353,7 @@
         <v>0.07886598415125508</v>
       </c>
       <c r="N232">
-        <v>0.4059151982104082</v>
+        <v>0.2049589909595798</v>
       </c>
       <c r="O232">
         <v>0.1180942141867779</v>
@@ -25368,7 +25368,7 @@
         <v>0.4841648854504088</v>
       </c>
       <c r="S232">
-        <v>0.9818843755596404</v>
+        <v>0.235986853095963</v>
       </c>
       <c r="T232">
         <v>12.47842768453427</v>
@@ -25457,7 +25457,7 @@
         <v>0.1142993673038068</v>
       </c>
       <c r="N233">
-        <v>0.4606868917539322</v>
+        <v>0.05466537302613217</v>
       </c>
       <c r="O233">
         <v>0.06324579650293438</v>
@@ -25472,7 +25472,7 @@
         <v>0.7267088100293643</v>
       </c>
       <c r="S233">
-        <v>0.9311073346100808</v>
+        <v>0.2956003887098612</v>
       </c>
       <c r="T233">
         <v>10.35513146852462</v>
@@ -25561,7 +25561,7 @@
         <v>0.2229388225802653</v>
       </c>
       <c r="N234">
-        <v>0.6219886075348053</v>
+        <v>0.1799181566734448</v>
       </c>
       <c r="O234">
         <v>0.3535695858476524</v>
@@ -25576,7 +25576,7 @@
         <v>0.6700716604143711</v>
       </c>
       <c r="S234">
-        <v>0.8355125057633783</v>
+        <v>0.3538499679192998</v>
       </c>
       <c r="T234">
         <v>11.67842316560367</v>
@@ -25665,7 +25665,7 @@
         <v>0.09047775072526519</v>
       </c>
       <c r="N235">
-        <v>0.5552599129559224</v>
+        <v>0.09470487764966347</v>
       </c>
       <c r="O235">
         <v>0.5218975064571357</v>
@@ -25680,7 +25680,7 @@
         <v>0.6595817348027897</v>
       </c>
       <c r="S235">
-        <v>0.921993724911739</v>
+        <v>0.2842229973357188</v>
       </c>
       <c r="T235">
         <v>8.641902839909147</v>
@@ -25769,7 +25769,7 @@
         <v>0.1569781323731461</v>
       </c>
       <c r="N236">
-        <v>1.363253836030044</v>
+        <v>0.182681987745537</v>
       </c>
       <c r="O236">
         <v>0.1965091862403451</v>
@@ -25784,7 +25784,7 @@
         <v>0.6605820575854767</v>
       </c>
       <c r="S236">
-        <v>1.01682065805781</v>
+        <v>0.2710457147996564</v>
       </c>
       <c r="T236">
         <v>9.824185440608812</v>
@@ -25873,7 +25873,7 @@
         <v>0.03470735070638272</v>
       </c>
       <c r="N237">
-        <v>0.3364599589104585</v>
+        <v>0.01461266179835633</v>
       </c>
       <c r="O237">
         <v>0.5286355788851848</v>
@@ -25888,7 +25888,7 @@
         <v>0.609201122995404</v>
       </c>
       <c r="S237">
-        <v>0.9189095098020185</v>
+        <v>0.2778064689394289</v>
       </c>
       <c r="T237">
         <v>12.02946700748432</v>
@@ -25974,7 +25974,7 @@
         <v>0.1221260556860689</v>
       </c>
       <c r="N238">
-        <v>1.316213359162539</v>
+        <v>0.3501294103877284</v>
       </c>
       <c r="O238">
         <v>0.2869417706164256</v>
@@ -25989,7 +25989,7 @@
         <v>0.5605389759045103</v>
       </c>
       <c r="S238">
-        <v>0.8211191252577108</v>
+        <v>0.3305817810224811</v>
       </c>
       <c r="T238">
         <v>11.31343669441887</v>
@@ -26078,7 +26078,7 @@
         <v>0.08309297188390688</v>
       </c>
       <c r="N239">
-        <v>1.106832484307302</v>
+        <v>0.1566248273448498</v>
       </c>
       <c r="O239">
         <v>0.2963298056227781</v>
@@ -26093,7 +26093,7 @@
         <v>0.6788165747519753</v>
       </c>
       <c r="S239">
-        <v>0.8562584132800295</v>
+        <v>0.2889970868170222</v>
       </c>
       <c r="T239">
         <v>11.47491614621841</v>
@@ -26182,7 +26182,7 @@
         <v>0.1661908039428114</v>
       </c>
       <c r="N240">
-        <v>0.5416930267098965</v>
+        <v>0.1758706449244855</v>
       </c>
       <c r="O240">
         <v>0.2009360233689957</v>
@@ -26197,7 +26197,7 @@
         <v>0.5952777283089872</v>
       </c>
       <c r="S240">
-        <v>0.9003116092603564</v>
+        <v>0.2787552543717625</v>
       </c>
       <c r="T240">
         <v>12.11156458285475</v>
@@ -26286,7 +26286,7 @@
         <v>0.05845758426506777</v>
       </c>
       <c r="N241">
-        <v>1.168927016626091</v>
+        <v>0.07124397579200839</v>
       </c>
       <c r="O241">
         <v>0.003415496509397396</v>
@@ -26301,7 +26301,7 @@
         <v>0.5134222266744104</v>
       </c>
       <c r="S241">
-        <v>0.8326267710231169</v>
+        <v>0.2954032073408688</v>
       </c>
       <c r="T241">
         <v>9.58540469658006</v>
@@ -26387,7 +26387,7 @@
         <v>0.1065479421034724</v>
       </c>
       <c r="N242">
-        <v>1.954927868871453</v>
+        <v>0.5026141623880277</v>
       </c>
       <c r="O242">
         <v>0.1577039787603873</v>
@@ -26402,7 +26402,7 @@
         <v>0.563004807901485</v>
       </c>
       <c r="S242">
-        <v>0.8006366398277124</v>
+        <v>0.3027758465638221</v>
       </c>
       <c r="T242">
         <v>9.990604173440666</v>
@@ -26491,7 +26491,7 @@
         <v>0.2945325309148399</v>
       </c>
       <c r="N243">
-        <v>1.505312335724563</v>
+        <v>0.3407768353381188</v>
       </c>
       <c r="U243">
         <v>5.081349363948806</v>
@@ -26550,7 +26550,7 @@
         <v>0.04873967009252535</v>
       </c>
       <c r="N244">
-        <v>0.2447417240300764</v>
+        <v>0.05148134981402679</v>
       </c>
       <c r="O244">
         <v>0.1429361786169834</v>
@@ -26565,7 +26565,7 @@
         <v>0.656918065558168</v>
       </c>
       <c r="S244">
-        <v>0.96445917537367</v>
+        <v>0.2510363199745495</v>
       </c>
       <c r="T244">
         <v>10.10479850194638</v>
@@ -26654,7 +26654,7 @@
         <v>0.36772581170154</v>
       </c>
       <c r="N245">
-        <v>0.7640351738737572</v>
+        <v>0.1795729798870596</v>
       </c>
       <c r="O245">
         <v>-0.004139966943219105</v>
@@ -26669,7 +26669,7 @@
         <v>0.7895363872403004</v>
       </c>
       <c r="S245">
-        <v>0.9163733144694897</v>
+        <v>0.2743687711032353</v>
       </c>
       <c r="T245">
         <v>3.012475009082579</v>
@@ -26740,7 +26740,7 @@
         <v>0.3228588993899686</v>
       </c>
       <c r="N246">
-        <v>0.9299300819880786</v>
+        <v>0.2524966480654481</v>
       </c>
       <c r="O246">
         <v>0.07772289821082805</v>
@@ -26755,7 +26755,7 @@
         <v>0.5574239667364467</v>
       </c>
       <c r="S246">
-        <v>0.7493297196962213</v>
+        <v>0.2011962788606056</v>
       </c>
       <c r="T246">
         <v>10.500043636742</v>
@@ -26844,7 +26844,7 @@
         <v>0.4385876329052283</v>
       </c>
       <c r="N247">
-        <v>1.428659685854421</v>
+        <v>0.2942048482190494</v>
       </c>
       <c r="O247">
         <v>0.05926629732576905</v>
@@ -26859,7 +26859,7 @@
         <v>0.7247072725060218</v>
       </c>
       <c r="S247">
-        <v>0.9112475284677251</v>
+        <v>0.3055845768591537</v>
       </c>
       <c r="T247">
         <v>6.201113925076584</v>
@@ -26948,7 +26948,7 @@
         <v>0.3894183838597931</v>
       </c>
       <c r="N248">
-        <v>1.211288361444954</v>
+        <v>0.2269213849091221</v>
       </c>
       <c r="O248">
         <v>0.08236585102604713</v>
@@ -26963,7 +26963,7 @@
         <v>0.7083230154737444</v>
       </c>
       <c r="S248">
-        <v>0.8525890795665741</v>
+        <v>0.2490551067417822</v>
       </c>
       <c r="T248">
         <v>9.798019203470309</v>
@@ -27052,7 +27052,7 @@
         <v>0.3781919090989841</v>
       </c>
       <c r="N249">
-        <v>1.180197002905469</v>
+        <v>0.2105825486585927</v>
       </c>
       <c r="O249">
         <v>0.05975808144978029</v>
@@ -27067,7 +27067,7 @@
         <v>0.76335791062225</v>
       </c>
       <c r="S249">
-        <v>0.9811375658982301</v>
+        <v>0.2560467304092838</v>
       </c>
       <c r="T249">
         <v>13.06656931954809</v>
@@ -27156,7 +27156,7 @@
         <v>0.33362622518093</v>
       </c>
       <c r="N250">
-        <v>0.9875446822197076</v>
+        <v>0.241012564958607</v>
       </c>
       <c r="O250">
         <v>0.05561379465508428</v>
@@ -27171,7 +27171,7 @@
         <v>0.6886404916361094</v>
       </c>
       <c r="S250">
-        <v>0.8829520868265323</v>
+        <v>0.2540372222606657</v>
       </c>
       <c r="T250">
         <v>3.544292172201412</v>
@@ -27260,7 +27260,7 @@
         <v>0.714347966179273</v>
       </c>
       <c r="N251">
-        <v>0.9474775815829006</v>
+        <v>0.4288039126229189</v>
       </c>
       <c r="O251">
         <v>0.04738128396754922</v>
@@ -27275,7 +27275,7 @@
         <v>0.865604986574452</v>
       </c>
       <c r="S251">
-        <v>1.01081093735254</v>
+        <v>0.2329119399116785</v>
       </c>
       <c r="T251">
         <v>8.471125618822338</v>
@@ -27361,7 +27361,7 @@
         <v>0.5235920485966209</v>
       </c>
       <c r="N252">
-        <v>0.6802451042700378</v>
+        <v>0.3838674125942899</v>
       </c>
       <c r="O252">
         <v>0.06819628510140918</v>
@@ -27376,7 +27376,7 @@
         <v>0.7629855124581565</v>
       </c>
       <c r="S252">
-        <v>0.9946098269109108</v>
+        <v>0.4140877910872832</v>
       </c>
       <c r="T252">
         <v>8.00517722155462</v>
@@ -27465,7 +27465,7 @@
         <v>0.2995371156629415</v>
       </c>
       <c r="N253">
-        <v>0.5959321512058027</v>
+        <v>0.1789070489658978</v>
       </c>
       <c r="O253">
         <v>0.03900451150115679</v>
@@ -27480,7 +27480,7 @@
         <v>0.5743846106315138</v>
       </c>
       <c r="S253">
-        <v>0.8768211515269028</v>
+        <v>0.2694254716434136</v>
       </c>
       <c r="T253">
         <v>5.245019580775804</v>
@@ -27569,7 +27569,7 @@
         <v>0.1378365718603537</v>
       </c>
       <c r="N254">
-        <v>1.364528729919214</v>
+        <v>0.2781584859371281</v>
       </c>
       <c r="O254">
         <v>0.04612570222211703</v>
@@ -27584,7 +27584,7 @@
         <v>0.6524631207086741</v>
       </c>
       <c r="S254">
-        <v>0.8537314050087995</v>
+        <v>0.2680439174589941</v>
       </c>
       <c r="T254">
         <v>10.01726564516262</v>
@@ -27673,7 +27673,7 @@
         <v>0.127976750707794</v>
       </c>
       <c r="N255">
-        <v>1.226522633184693</v>
+        <v>0.3779653212633773</v>
       </c>
       <c r="O255">
         <v>0.05005304183899841</v>
@@ -27688,7 +27688,7 @@
         <v>0.6165876907867854</v>
       </c>
       <c r="S255">
-        <v>0.862412180047296</v>
+        <v>0.2872687221908066</v>
       </c>
       <c r="T255">
         <v>9.508519146729503</v>
@@ -27777,7 +27777,7 @@
         <v>0.1416323693506744</v>
       </c>
       <c r="N256">
-        <v>1.725963449621354</v>
+        <v>0.3733295385148744</v>
       </c>
       <c r="O256">
         <v>0.02768047399982535</v>
@@ -27792,7 +27792,7 @@
         <v>0.7144768030546084</v>
       </c>
       <c r="S256">
-        <v>1.128192954259914</v>
+        <v>0.2566200276037118</v>
       </c>
       <c r="T256">
         <v>8.958201552992323</v>
@@ -27881,7 +27881,7 @@
         <v>0.3760601873109006</v>
       </c>
       <c r="N257">
-        <v>1.490452614535079</v>
+        <v>0.3877492739010066</v>
       </c>
       <c r="O257">
         <v>0.01917562447654892</v>
@@ -27896,7 +27896,7 @@
         <v>0.7272828900265187</v>
       </c>
       <c r="S257">
-        <v>0.9465571437784531</v>
+        <v>0.2999668423332373</v>
       </c>
       <c r="T257">
         <v>10.99036868501271</v>
@@ -27985,7 +27985,7 @@
         <v>0.1105636514520893</v>
       </c>
       <c r="N258">
-        <v>0.9524569106507912</v>
+        <v>0.08270669832320979</v>
       </c>
       <c r="O258">
         <v>0.0209648708681804</v>
@@ -28000,7 +28000,7 @@
         <v>0.7159163666762325</v>
       </c>
       <c r="S258">
-        <v>0.9387949428399355</v>
+        <v>0.2584337507516704</v>
       </c>
       <c r="T258">
         <v>11.9093004445832</v>
@@ -28089,7 +28089,7 @@
         <v>0.1171072005585469</v>
       </c>
       <c r="N259">
-        <v>0.9266844322220809</v>
+        <v>0.2574444109342734</v>
       </c>
       <c r="O259">
         <v>-0.03738583700717094</v>
@@ -28104,7 +28104,7 @@
         <v>0.7606989863102828</v>
       </c>
       <c r="S259">
-        <v>1.036832068998025</v>
+        <v>0.2843567123946652</v>
       </c>
       <c r="T259">
         <v>8.340114791644393</v>
@@ -28193,7 +28193,7 @@
         <v>0.4882896353638421</v>
       </c>
       <c r="N260">
-        <v>0.7977558953212269</v>
+        <v>0.3723260117100753</v>
       </c>
       <c r="O260">
         <v>-0.03612937721171821</v>
@@ -28208,7 +28208,7 @@
         <v>0.8336649714660639</v>
       </c>
       <c r="S260">
-        <v>1.232125928861088</v>
+        <v>0.2966128694909905</v>
       </c>
       <c r="T260">
         <v>7.068107241563527</v>
@@ -28297,7 +28297,7 @@
         <v>0.4668061860155734</v>
       </c>
       <c r="N261">
-        <v>0.7884156732906465</v>
+        <v>0.2805121184375334</v>
       </c>
       <c r="O261">
         <v>0.004010636113968638</v>
@@ -28312,7 +28312,7 @@
         <v>0.704814810262149</v>
       </c>
       <c r="S261">
-        <v>0.9438254393339164</v>
+        <v>0.2743541442667411</v>
       </c>
       <c r="T261">
         <v>6.924403322472049</v>
@@ -28401,7 +28401,7 @@
         <v>0.3301378503743831</v>
       </c>
       <c r="N262">
-        <v>0.5182798502575066</v>
+        <v>0.1894697718920087</v>
       </c>
       <c r="O262">
         <v>0.05090107261190446</v>
@@ -28416,7 +28416,7 @@
         <v>0.8062444521817802</v>
       </c>
       <c r="S262">
-        <v>1.038245450005083</v>
+        <v>0.2997610347072968</v>
       </c>
       <c r="T262">
         <v>8.796050185175062</v>
@@ -28502,7 +28502,7 @@
         <v>0.228058925429223</v>
       </c>
       <c r="N263">
-        <v>1.192823221095409</v>
+        <v>0.4171007260955866</v>
       </c>
       <c r="O263">
         <v>0.03231132582252849</v>
@@ -28517,7 +28517,7 @@
         <v>0.7467832544063516</v>
       </c>
       <c r="S263">
-        <v>0.8323438607580912</v>
+        <v>0.343043941935617</v>
       </c>
       <c r="T263">
         <v>6.805132860204631</v>
@@ -28606,7 +28606,7 @@
         <v>0.3286899021397943</v>
       </c>
       <c r="N264">
-        <v>0.7188570348164078</v>
+        <v>0.3289356708898817</v>
       </c>
       <c r="O264">
         <v>0.0558204118714044</v>
@@ -28621,7 +28621,7 @@
         <v>0.6626578454933258</v>
       </c>
       <c r="S264">
-        <v>0.9033773349341725</v>
+        <v>0.2785581142059776</v>
       </c>
       <c r="T264">
         <v>5.359006580395662</v>
@@ -28707,7 +28707,7 @@
         <v>0.1706032170212324</v>
       </c>
       <c r="N265">
-        <v>0.512746769112399</v>
+        <v>0.09108959909910312</v>
       </c>
       <c r="O265">
         <v>0.06842131999161424</v>
@@ -28722,7 +28722,7 @@
         <v>0.5702114752128461</v>
       </c>
       <c r="S265">
-        <v>0.8182220570869463</v>
+        <v>0.2900198484963991</v>
       </c>
       <c r="T265">
         <v>6.270535192379929</v>
@@ -28811,7 +28811,7 @@
         <v>0.4232845281623974</v>
       </c>
       <c r="N266">
-        <v>1.029208983023483</v>
+        <v>0.2001797060579314</v>
       </c>
       <c r="O266">
         <v>0.07456285499878018</v>
@@ -28826,7 +28826,7 @@
         <v>0.6977710056761699</v>
       </c>
       <c r="S266">
-        <v>0.875329046746159</v>
+        <v>0.2305987810801673</v>
       </c>
       <c r="T266">
         <v>10.62939698591113</v>
@@ -28912,7 +28912,7 @@
         <v>0.3708012924852909</v>
       </c>
       <c r="N267">
-        <v>0.8613745273015071</v>
+        <v>0.2615134294862724</v>
       </c>
       <c r="O267">
         <v>0.03727961329962266</v>
@@ -28927,7 +28927,7 @@
         <v>0.595052956089964</v>
       </c>
       <c r="S267">
-        <v>0.9099982532357118</v>
+        <v>0.2430504285507395</v>
       </c>
       <c r="T267">
         <v>11.23482243453977</v>
@@ -29013,7 +29013,7 @@
         <v>0.1570541987807767</v>
       </c>
       <c r="N268">
-        <v>0.8760212275240736</v>
+        <v>0.3887207356286015</v>
       </c>
       <c r="O268">
         <v>0.06807327120362378</v>
@@ -29028,7 +29028,7 @@
         <v>0.7188459144552918</v>
       </c>
       <c r="S268">
-        <v>0.9002271917976751</v>
+        <v>0.2532631508330408</v>
       </c>
       <c r="T268">
         <v>12.86188064944099</v>
@@ -29117,7 +29117,7 @@
         <v>0.06159234882713651</v>
       </c>
       <c r="N269">
-        <v>0.6179698943190439</v>
+        <v>0.1687710194514299</v>
       </c>
       <c r="O269">
         <v>0.0953285874571177</v>
@@ -29132,7 +29132,7 @@
         <v>0.715456759362043</v>
       </c>
       <c r="S269">
-        <v>0.9044534190592939</v>
+        <v>0.3739086665968776</v>
       </c>
       <c r="T269">
         <v>11.80921570606451</v>
@@ -29221,7 +29221,7 @@
         <v>0.09167700421261914</v>
       </c>
       <c r="N270">
-        <v>1.359449518331419</v>
+        <v>0.2390359289850843</v>
       </c>
       <c r="O270">
         <v>0.07131819698918278</v>
@@ -29236,7 +29236,7 @@
         <v>0.5402555657142979</v>
       </c>
       <c r="S270">
-        <v>0.8755702823278788</v>
+        <v>0.2718335032492761</v>
       </c>
       <c r="T270">
         <v>11.85066736969184</v>
@@ -29319,7 +29319,7 @@
         <v>0.06894882862388206</v>
       </c>
       <c r="N271">
-        <v>0.2327452960738803</v>
+        <v>0.06404433776629306</v>
       </c>
       <c r="O271">
         <v>0.09036716412274061</v>
@@ -29334,7 +29334,7 @@
         <v>0.7612238571985298</v>
       </c>
       <c r="S271">
-        <v>0.9217386756491656</v>
+        <v>0.3121300053564205</v>
       </c>
       <c r="T271">
         <v>10.68471366828975</v>
@@ -29423,7 +29423,7 @@
         <v>0.1293574537660992</v>
       </c>
       <c r="N272">
-        <v>0.3824543076073973</v>
+        <v>0.2537317720828201</v>
       </c>
       <c r="O272">
         <v>0.04804803520099834</v>
@@ -29438,7 +29438,7 @@
         <v>0.7868748898811239</v>
       </c>
       <c r="S272">
-        <v>1.05472219577568</v>
+        <v>0.3060805814507503</v>
       </c>
       <c r="T272">
         <v>12.43844669184321</v>
@@ -29527,7 +29527,7 @@
         <v>0.2795380557015537</v>
       </c>
       <c r="N273">
-        <v>1.214131706413629</v>
+        <v>0.1987063309408413</v>
       </c>
       <c r="O273">
         <v>0.007873874921158984</v>
@@ -29542,7 +29542,7 @@
         <v>0.7029571045682144</v>
       </c>
       <c r="S273">
-        <v>1.029403726937337</v>
+        <v>0.3050301769244576</v>
       </c>
       <c r="T273">
         <v>11.23968253358839</v>
@@ -29631,7 +29631,7 @@
         <v>0.05117651557849125</v>
       </c>
       <c r="N274">
-        <v>0.1831352717648005</v>
+        <v>0.07203767672447134</v>
       </c>
       <c r="O274">
         <v>-0.008618053497781174</v>
@@ -29646,7 +29646,7 @@
         <v>0.822025956980233</v>
       </c>
       <c r="S274">
-        <v>1.079792531185144</v>
+        <v>0.2725673020204106</v>
       </c>
       <c r="T274">
         <v>12.84946721221059</v>
@@ -29735,7 +29735,7 @@
         <v>0.07708777447602286</v>
       </c>
       <c r="N275">
-        <v>0.2475032597522349</v>
+        <v>0.1088748512027889</v>
       </c>
       <c r="O275">
         <v>0.08663333433151957</v>
@@ -29750,7 +29750,7 @@
         <v>0.7788192127297447</v>
       </c>
       <c r="S275">
-        <v>1.049518384189611</v>
+        <v>0.2457548579128497</v>
       </c>
       <c r="T275">
         <v>10.49631031745594</v>
@@ -29839,7 +29839,7 @@
         <v>0.2096293330926995</v>
       </c>
       <c r="N276">
-        <v>0.8094962208049117</v>
+        <v>0.2067235620460861</v>
       </c>
       <c r="O276">
         <v>0.02564869662681012</v>
@@ -29854,7 +29854,7 @@
         <v>0.6681322011171045</v>
       </c>
       <c r="S276">
-        <v>0.8558516006973358</v>
+        <v>0.2636796028160685</v>
       </c>
       <c r="T276">
         <v>11.08571914980494</v>
@@ -29940,7 +29940,7 @@
         <v>0.06801234489854591</v>
       </c>
       <c r="N277">
-        <v>0.9297995057455356</v>
+        <v>0.1430565545682639</v>
       </c>
       <c r="O277">
         <v>-0.02226489488891289</v>
@@ -29955,7 +29955,7 @@
         <v>0.6421376645365532</v>
       </c>
       <c r="S277">
-        <v>0.8802409883503599</v>
+        <v>0.2507725738002219</v>
       </c>
       <c r="T277">
         <v>11.76478635004827</v>
@@ -30044,7 +30044,7 @@
         <v>0.3129619978875053</v>
       </c>
       <c r="N278">
-        <v>0.5913688491385405</v>
+        <v>0.3160481268804483</v>
       </c>
       <c r="O278">
         <v>0.00541586178868523</v>
@@ -30059,7 +30059,7 @@
         <v>0.7446461265863177</v>
       </c>
       <c r="S278">
-        <v>1.034136532140937</v>
+        <v>0.3333870396383243</v>
       </c>
       <c r="T278">
         <v>12.82272562391607</v>
@@ -30148,7 +30148,7 @@
         <v>0.09625207464944258</v>
       </c>
       <c r="N279">
-        <v>0.5858445623581565</v>
+        <v>0.1442521847105882</v>
       </c>
       <c r="O279">
         <v>0.07471256271120894</v>
@@ -30163,7 +30163,7 @@
         <v>0.7768811699992755</v>
       </c>
       <c r="S279">
-        <v>1.108227338940745</v>
+        <v>0.33124858915369</v>
       </c>
       <c r="T279">
         <v>8.142314538742792</v>
@@ -30252,7 +30252,7 @@
         <v>0.4563073961224011</v>
       </c>
       <c r="N280">
-        <v>1.008646950069522</v>
+        <v>0.3374115579261945</v>
       </c>
       <c r="O280">
         <v>-0.006790690282797203</v>
@@ -30267,7 +30267,7 @@
         <v>0.7341972746393829</v>
       </c>
       <c r="S280">
-        <v>0.8833058693185034</v>
+        <v>0.2643646289183453</v>
       </c>
       <c r="T280">
         <v>13.040647604193</v>
@@ -30356,7 +30356,7 @@
         <v>0.05754219781423035</v>
       </c>
       <c r="N281">
-        <v>1.187202873525633</v>
+        <v>0.1763812630624195</v>
       </c>
       <c r="O281">
         <v>0.06512277302315114</v>
@@ -30371,7 +30371,7 @@
         <v>0.6343707340494898</v>
       </c>
       <c r="S281">
-        <v>0.8736391067116703</v>
+        <v>0.2334948333498975</v>
       </c>
       <c r="T281">
         <v>10.71554717624482</v>
@@ -30460,7 +30460,7 @@
         <v>0.3477606020448674</v>
       </c>
       <c r="N282">
-        <v>0.9552918188724204</v>
+        <v>0.2061360228004528</v>
       </c>
       <c r="O282">
         <v>0.03404564066425472</v>
@@ -30475,7 +30475,7 @@
         <v>0.8273549891636469</v>
       </c>
       <c r="S282">
-        <v>0.9277493786344597</v>
+        <v>0.2958861663033416</v>
       </c>
       <c r="T282">
         <v>12.31089241520668</v>
@@ -30564,7 +30564,7 @@
         <v>0.3065898199549406</v>
       </c>
       <c r="N283">
-        <v>0.8021964359739154</v>
+        <v>0.3078481697982208</v>
       </c>
       <c r="O283">
         <v>-0.04374345169201253</v>
@@ -30579,7 +30579,7 @@
         <v>0.7307481420028554</v>
       </c>
       <c r="S283">
-        <v>0.912882708783171</v>
+        <v>0.267827059890882</v>
       </c>
       <c r="T283">
         <v>12.25889466208668</v>
@@ -30668,7 +30668,7 @@
         <v>0.3687619604266997</v>
       </c>
       <c r="N284">
-        <v>1.279355699074363</v>
+        <v>0.377096983178199</v>
       </c>
       <c r="O284">
         <v>0.07636150742712428</v>
@@ -30683,7 +30683,7 @@
         <v>0.7200513383473784</v>
       </c>
       <c r="S284">
-        <v>0.9841935000727</v>
+        <v>0.2495917616107586</v>
       </c>
       <c r="T284">
         <v>10.65313719109493</v>
@@ -30772,7 +30772,7 @@
         <v>0.2146560384092429</v>
       </c>
       <c r="N285">
-        <v>1.135016023972607</v>
+        <v>0.1292801230425814</v>
       </c>
       <c r="O285">
         <v>-0.010145235127328</v>
@@ -30787,7 +30787,7 @@
         <v>0.64426828634639</v>
       </c>
       <c r="S285">
-        <v>0.8460781923502363</v>
+        <v>0.2412587449725876</v>
       </c>
       <c r="T285">
         <v>13.38588891466438</v>
@@ -30873,7 +30873,7 @@
         <v>0.3190985742327943</v>
       </c>
       <c r="N286">
-        <v>1.112357773793949</v>
+        <v>0.1244797520922334</v>
       </c>
       <c r="O286">
         <v>0.09952674239082836</v>
@@ -30888,7 +30888,7 @@
         <v>0.6928910596634057</v>
       </c>
       <c r="S286">
-        <v>1.031639693993013</v>
+        <v>0.3663070961937237</v>
       </c>
       <c r="T286">
         <v>10.46451881757118</v>
@@ -30977,7 +30977,7 @@
         <v>0.4987174271951493</v>
       </c>
       <c r="N287">
-        <v>1.216667185302204</v>
+        <v>0.3443939021332377</v>
       </c>
       <c r="O287">
         <v>0.08501858065838158</v>
@@ -30992,7 +30992,7 @@
         <v>0.7854308986696198</v>
       </c>
       <c r="S287">
-        <v>1.065288563860119</v>
+        <v>0.2649741068479043</v>
       </c>
       <c r="T287">
         <v>13.35330361762922</v>
@@ -31081,7 +31081,7 @@
         <v>0.3497982780633904</v>
       </c>
       <c r="N288">
-        <v>0.8367024202122392</v>
+        <v>0.2677590509909167</v>
       </c>
       <c r="O288">
         <v>0.0161681125697102</v>
@@ -31096,7 +31096,7 @@
         <v>0.6793091164806644</v>
       </c>
       <c r="S288">
-        <v>0.8346770189857916</v>
+        <v>0.2562369601505441</v>
       </c>
       <c r="T288">
         <v>11.58088898414647</v>
@@ -31185,7 +31185,7 @@
         <v>0.436269731533235</v>
       </c>
       <c r="N289">
-        <v>1.022619068395675</v>
+        <v>0.2267955952089222</v>
       </c>
       <c r="O289">
         <v>-0.01229226631923499</v>
@@ -31200,7 +31200,7 @@
         <v>0.7011633021679505</v>
       </c>
       <c r="S289">
-        <v>0.9488823402865089</v>
+        <v>0.2982210034793911</v>
       </c>
       <c r="T289">
         <v>10.13844236271624</v>
@@ -31289,7 +31289,7 @@
         <v>0.261185665801096</v>
       </c>
       <c r="N290">
-        <v>1.129440550587645</v>
+        <v>0.2771524061399939</v>
       </c>
       <c r="O290">
         <v>0.07165628895236521</v>
@@ -31304,7 +31304,7 @@
         <v>0.8353628236975954</v>
       </c>
       <c r="S290">
-        <v>1.062415712842812</v>
+        <v>0.2405106483651538</v>
       </c>
       <c r="T290">
         <v>11.73661948470656</v>
@@ -31393,7 +31393,7 @@
         <v>0.1808670356814867</v>
       </c>
       <c r="N291">
-        <v>1.200622600275072</v>
+        <v>0.1914456488691146</v>
       </c>
       <c r="O291">
         <v>0.002876923704023115</v>
@@ -31408,7 +31408,7 @@
         <v>0.6660081873574001</v>
       </c>
       <c r="S291">
-        <v>0.889474982257256</v>
+        <v>0.2905202422738278</v>
       </c>
       <c r="T291">
         <v>10.6360107359322</v>
@@ -31497,7 +31497,7 @@
         <v>0.455882945534589</v>
       </c>
       <c r="N292">
-        <v>0.6424782157774013</v>
+        <v>0.3473166744184599</v>
       </c>
       <c r="O292">
         <v>0.0729969827307925</v>
@@ -31512,7 +31512,7 @@
         <v>0.7962908051230635</v>
       </c>
       <c r="S292">
-        <v>1.060593925756059</v>
+        <v>0.29583012812137</v>
       </c>
       <c r="T292">
         <v>9.469836268146173</v>
@@ -31601,7 +31601,7 @@
         <v>0.3133909994774009</v>
       </c>
       <c r="N293">
-        <v>0.6718389656832692</v>
+        <v>0.3122543086546908</v>
       </c>
       <c r="O293">
         <v>0.0861714836131468</v>
@@ -31616,7 +31616,7 @@
         <v>0.6209331060189089</v>
       </c>
       <c r="S293">
-        <v>0.8239117638403679</v>
+        <v>0.2208425640627036</v>
       </c>
       <c r="T293">
         <v>10.97317336413542</v>
@@ -31705,7 +31705,7 @@
         <v>0.1233361553967376</v>
       </c>
       <c r="N294">
-        <v>0.5626819398218753</v>
+        <v>0.1524692421737578</v>
       </c>
       <c r="O294">
         <v>0.04378940788879617</v>
@@ -31720,7 +31720,7 @@
         <v>0.7414349815879243</v>
       </c>
       <c r="S294">
-        <v>0.9225023593765059</v>
+        <v>0.2645088046131485</v>
       </c>
       <c r="T294">
         <v>9.71845556112523</v>
@@ -31809,7 +31809,7 @@
         <v>0.2700800785572741</v>
       </c>
       <c r="N295">
-        <v>1.316667623057633</v>
+        <v>0.2312765538114005</v>
       </c>
       <c r="O295">
         <v>0.1050249067261713</v>
@@ -31824,7 +31824,7 @@
         <v>0.7601431839785202</v>
       </c>
       <c r="S295">
-        <v>1.114502143036715</v>
+        <v>0.2332725906456625</v>
       </c>
       <c r="T295">
         <v>11.09859558536411</v>
@@ -31913,7 +31913,7 @@
         <v>0.2249403563190966</v>
       </c>
       <c r="N296">
-        <v>0.7692164601879269</v>
+        <v>0.363339955754059</v>
       </c>
       <c r="O296">
         <v>-0.04002382734463656</v>
@@ -31928,7 +31928,7 @@
         <v>0.736884787799984</v>
       </c>
       <c r="S296">
-        <v>0.9090797070591685</v>
+        <v>0.2847732874824006</v>
       </c>
       <c r="T296">
         <v>13.15299099998018</v>
@@ -32017,7 +32017,7 @@
         <v>0.3297500522328315</v>
       </c>
       <c r="N297">
-        <v>0.9703007224022171</v>
+        <v>0.2629551249032823</v>
       </c>
       <c r="O297">
         <v>-0.001845003854236084</v>
@@ -32032,7 +32032,7 @@
         <v>0.7743306878168312</v>
       </c>
       <c r="S297">
-        <v>1.007388468281083</v>
+        <v>0.2515295964273879</v>
       </c>
       <c r="T297">
         <v>12.20860905236421</v>
@@ -32121,7 +32121,7 @@
         <v>0.1289207891678907</v>
       </c>
       <c r="N298">
-        <v>0.2086389118567069</v>
+        <v>0.01252546262941833</v>
       </c>
       <c r="O298">
         <v>-0.03235302247548807</v>
@@ -32136,7 +32136,7 @@
         <v>0.8136777693678487</v>
       </c>
       <c r="S298">
-        <v>0.9421761225340077</v>
+        <v>0.3033535997178834</v>
       </c>
       <c r="T298">
         <v>12.8948592216953</v>
@@ -32225,7 +32225,7 @@
         <v>0.3554033102725644</v>
       </c>
       <c r="N299">
-        <v>1.449394549777115</v>
+        <v>0.2595807757201136</v>
       </c>
       <c r="O299">
         <v>0.09085341909991916</v>
@@ -32240,7 +32240,7 @@
         <v>0.706832394870035</v>
       </c>
       <c r="S299">
-        <v>1.029502352093713</v>
+        <v>0.2931217343458871</v>
       </c>
       <c r="T299">
         <v>10.46992519816114</v>
@@ -32329,7 +32329,7 @@
         <v>0.4225338714943764</v>
       </c>
       <c r="N300">
-        <v>0.5962777661715487</v>
+        <v>0.3577235363756133</v>
       </c>
       <c r="O300">
         <v>-0.003009103216675666</v>
@@ -32344,7 +32344,7 @@
         <v>0.7626307811869149</v>
       </c>
       <c r="S300">
-        <v>1.117712880447493</v>
+        <v>0.2772854061984412</v>
       </c>
       <c r="T300">
         <v>11.61200366893548</v>
@@ -32433,7 +32433,7 @@
         <v>0.2347520659190919</v>
       </c>
       <c r="N301">
-        <v>0.8831186033128885</v>
+        <v>0.3363434773131508</v>
       </c>
       <c r="O301">
         <v>-0.02676193247017613</v>
@@ -32448,7 +32448,7 @@
         <v>0.6743581471456376</v>
       </c>
       <c r="S301">
-        <v>0.9349933354639528</v>
+        <v>0.2587157120445173</v>
       </c>
       <c r="T301">
         <v>10.47414030817708</v>
@@ -32537,7 +32537,7 @@
         <v>0.183592283725634</v>
       </c>
       <c r="N302">
-        <v>1.098297728684504</v>
+        <v>0.244618003046703</v>
       </c>
       <c r="O302">
         <v>0.06517974280110249</v>
@@ -32552,7 +32552,7 @@
         <v>0.6626198478065705</v>
       </c>
       <c r="S302">
-        <v>0.9312521983462541</v>
+        <v>0.3445939087349739</v>
       </c>
       <c r="T302">
         <v>10.50671579016957</v>
@@ -32641,7 +32641,7 @@
         <v>0.4160380365334261</v>
       </c>
       <c r="N303">
-        <v>0.6824032178195588</v>
+        <v>0.4057205440319558</v>
       </c>
       <c r="O303">
         <v>-0.0287524895375457</v>
@@ -32656,7 +32656,7 @@
         <v>0.6771879593058057</v>
       </c>
       <c r="S303">
-        <v>0.9752594221445005</v>
+        <v>0.3146531880545291</v>
       </c>
       <c r="T303">
         <v>10.76516943966794</v>
@@ -32745,7 +32745,7 @@
         <v>0.3280588638672024</v>
       </c>
       <c r="N304">
-        <v>1.153148711272795</v>
+        <v>0.3318430576131084</v>
       </c>
       <c r="O304">
         <v>0.08624642284991166</v>
@@ -32760,7 +32760,7 @@
         <v>0.6421448142662279</v>
       </c>
       <c r="S304">
-        <v>0.99972567062763</v>
+        <v>0.2549886655334757</v>
       </c>
       <c r="T304">
         <v>11.26488826302273</v>
@@ -32849,7 +32849,7 @@
         <v>0.08367138097359501</v>
       </c>
       <c r="N305">
-        <v>0.3181577601040086</v>
+        <v>0.1045353121936252</v>
       </c>
       <c r="O305">
         <v>0.02477998996862283</v>
@@ -32864,7 +32864,7 @@
         <v>0.6876086065343976</v>
       </c>
       <c r="S305">
-        <v>0.9680360726010516</v>
+        <v>0.3449381518127995</v>
       </c>
       <c r="T305">
         <v>11.78525445377776</v>
@@ -32953,7 +32953,7 @@
         <v>0.2428168190522614</v>
       </c>
       <c r="N306">
-        <v>0.9183060641882724</v>
+        <v>0.1045876765456631</v>
       </c>
       <c r="O306">
         <v>-0.005920984382209396</v>
@@ -32968,7 +32968,7 @@
         <v>0.7233221192765343</v>
       </c>
       <c r="S306">
-        <v>0.9187359711888632</v>
+        <v>0.2641957811539024</v>
       </c>
       <c r="T306">
         <v>13.46649058949385</v>
@@ -33057,7 +33057,7 @@
         <v>0.1806678197283578</v>
       </c>
       <c r="N307">
-        <v>1.167999196968232</v>
+        <v>0.1610707883763587</v>
       </c>
       <c r="O307">
         <v>0.006993990950148914</v>
@@ -33072,7 +33072,7 @@
         <v>0.6008831061829217</v>
       </c>
       <c r="S307">
-        <v>0.885134881886784</v>
+        <v>0.2237320801249074</v>
       </c>
       <c r="T307">
         <v>8.485529356375688</v>
@@ -33161,7 +33161,7 @@
         <v>0.1229967306985431</v>
       </c>
       <c r="N308">
-        <v>1.918378066569185</v>
+        <v>0.206358921794773</v>
       </c>
       <c r="O308">
         <v>0.07787364195426399</v>
@@ -33176,7 +33176,7 @@
         <v>0.7712578630889575</v>
       </c>
       <c r="S308">
-        <v>1.041015464089126</v>
+        <v>0.2709082332048995</v>
       </c>
       <c r="T308">
         <v>10.97045665922391</v>
@@ -33265,7 +33265,7 @@
         <v>0.2333029492131417</v>
       </c>
       <c r="N309">
-        <v>0.7617375077698519</v>
+        <v>0.3269960045109634</v>
       </c>
       <c r="O309">
         <v>-0.0242745201649861</v>
@@ -33280,7 +33280,7 @@
         <v>0.7306010680926436</v>
       </c>
       <c r="S309">
-        <v>0.9148877615200955</v>
+        <v>0.2743798918027272</v>
       </c>
       <c r="T309">
         <v>11.3460899220084</v>
@@ -33369,7 +33369,7 @@
         <v>0.1292739573450882</v>
       </c>
       <c r="N310">
-        <v>1.793468424922543</v>
+        <v>0.3564075871346859</v>
       </c>
       <c r="O310">
         <v>0.03536214982122904</v>
@@ -33384,7 +33384,7 @@
         <v>0.6938119933902693</v>
       </c>
       <c r="S310">
-        <v>0.9749350980807174</v>
+        <v>0.2617078122461557</v>
       </c>
       <c r="T310">
         <v>9.984307569187612</v>
@@ -33473,7 +33473,7 @@
         <v>0.1104623453765921</v>
       </c>
       <c r="N311">
-        <v>1.496612943705279</v>
+        <v>0.4913024521194884</v>
       </c>
       <c r="O311">
         <v>0.06487420314711936</v>
@@ -33488,7 +33488,7 @@
         <v>0.8089713218470661</v>
       </c>
       <c r="S311">
-        <v>1.052465165166517</v>
+        <v>0.302759903801269</v>
       </c>
       <c r="T311">
         <v>11.90199518163018</v>
@@ -33577,7 +33577,7 @@
         <v>0.5806542646963835</v>
       </c>
       <c r="N312">
-        <v>0.8244177606234082</v>
+        <v>0.1670967047244033</v>
       </c>
       <c r="O312">
         <v>0.03814961940295415</v>
@@ -33592,7 +33592,7 @@
         <v>0.904203737259171</v>
       </c>
       <c r="S312">
-        <v>1.220975053305074</v>
+        <v>0.2484515641602846</v>
       </c>
       <c r="T312">
         <v>10.1039995828636</v>
@@ -33681,7 +33681,7 @@
         <v>0.3818839921239967</v>
       </c>
       <c r="N313">
-        <v>0.8947134114251086</v>
+        <v>0.2847290436649833</v>
       </c>
       <c r="O313">
         <v>0.08008417584127701</v>
@@ -33696,7 +33696,7 @@
         <v>0.719997266072548</v>
       </c>
       <c r="S313">
-        <v>1.014782138095612</v>
+        <v>0.249486469940342</v>
       </c>
       <c r="T313">
         <v>8.57754190787872</v>
@@ -33785,7 +33785,7 @@
         <v>0.3058135309573356</v>
       </c>
       <c r="N314">
-        <v>0.7941502747587496</v>
+        <v>0.4104594032352867</v>
       </c>
       <c r="O314">
         <v>-0.03054528758940258</v>
@@ -33800,7 +33800,7 @@
         <v>0.6683100613528938</v>
       </c>
       <c r="S314">
-        <v>0.8834728822464433</v>
+        <v>0.2845499483289762</v>
       </c>
       <c r="T314">
         <v>9.718262420984544</v>
@@ -33889,7 +33889,7 @@
         <v>0.4151035472658059</v>
       </c>
       <c r="N315">
-        <v>0.8074658265056464</v>
+        <v>0.1791427821324223</v>
       </c>
       <c r="O315">
         <v>0.06050292521781317</v>
@@ -33904,7 +33904,7 @@
         <v>0.7988249421789472</v>
       </c>
       <c r="S315">
-        <v>1.040489158109572</v>
+        <v>0.2548081974469031</v>
       </c>
       <c r="T315">
         <v>10.39167470513527</v>
@@ -33993,7 +33993,7 @@
         <v>0.3001425943162581</v>
       </c>
       <c r="N316">
-        <v>0.9432767584009718</v>
+        <v>0.1028403891946095</v>
       </c>
       <c r="O316">
         <v>-0.03238217639087185</v>
@@ -34008,7 +34008,7 @@
         <v>0.7134323605354231</v>
       </c>
       <c r="S316">
-        <v>0.9789038525779563</v>
+        <v>0.2540730809977873</v>
       </c>
       <c r="T316">
         <v>11.19892262292912</v>
@@ -34097,7 +34097,7 @@
         <v>0.475815675290816</v>
       </c>
       <c r="N317">
-        <v>0.7585020672009704</v>
+        <v>0.1313021707656477</v>
       </c>
       <c r="O317">
         <v>0.03921685539025538</v>
@@ -34112,7 +34112,7 @@
         <v>0.8255746849566973</v>
       </c>
       <c r="S317">
-        <v>0.9807273236002511</v>
+        <v>0.2024148481938411</v>
       </c>
       <c r="T317">
         <v>9.87852115723055</v>
@@ -34201,7 +34201,7 @@
         <v>0.3267326763590902</v>
       </c>
       <c r="N318">
-        <v>0.7805951062310602</v>
+        <v>0.3450703304190021</v>
       </c>
       <c r="O318">
         <v>-0.04606116809964431</v>
@@ -34216,7 +34216,7 @@
         <v>0.7152349461082722</v>
       </c>
       <c r="S318">
-        <v>0.9538860173658755</v>
+        <v>0.2276881730410425</v>
       </c>
       <c r="T318">
         <v>11.25091482634161</v>
@@ -34305,7 +34305,7 @@
         <v>0.3317400954231728</v>
       </c>
       <c r="N319">
-        <v>0.644932067965713</v>
+        <v>0.2918136645290049</v>
       </c>
       <c r="O319">
         <v>-0.0186078296518246</v>
@@ -34320,7 +34320,7 @@
         <v>0.7144644359120254</v>
       </c>
       <c r="S319">
-        <v>0.95046526728974</v>
+        <v>0.2568748215223212</v>
       </c>
       <c r="T319">
         <v>11.60277654742556</v>
@@ -34406,7 +34406,7 @@
         <v>0.4606282965723013</v>
       </c>
       <c r="N320">
-        <v>0.8733821245700478</v>
+        <v>0.1651760935214721</v>
       </c>
       <c r="O320">
         <v>0.04634283824225355</v>
@@ -34421,7 +34421,7 @@
         <v>0.5705582773701653</v>
       </c>
       <c r="S320">
-        <v>0.8438128922630321</v>
+        <v>0.2933275207092186</v>
       </c>
       <c r="T320">
         <v>11.5857251585923</v>
@@ -34492,7 +34492,7 @@
         <v>0.4462748794129269</v>
       </c>
       <c r="N321">
-        <v>0.5424471649439118</v>
+        <v>0.1137139501684951</v>
       </c>
       <c r="O321">
         <v>-0.009409154647013919</v>
@@ -34507,7 +34507,7 @@
         <v>0.7496088788094661</v>
       </c>
       <c r="S321">
-        <v>1.05234623813164</v>
+        <v>0.2529291590251759</v>
       </c>
       <c r="T321">
         <v>12.68667456735444</v>
@@ -34596,7 +34596,7 @@
         <v>0.4221874263871971</v>
       </c>
       <c r="N322">
-        <v>0.9653350101455564</v>
+        <v>0.3500676639569133</v>
       </c>
       <c r="O322">
         <v>0.05715186071749028</v>
@@ -34611,7 +34611,7 @@
         <v>0.751841908411035</v>
       </c>
       <c r="S322">
-        <v>1.027472967890968</v>
+        <v>0.2730398368574901</v>
       </c>
       <c r="T322">
         <v>10.26964544056393</v>
@@ -34700,7 +34700,7 @@
         <v>0.5630249464477949</v>
       </c>
       <c r="N323">
-        <v>0.8272856765610884</v>
+        <v>0.4121838651746061</v>
       </c>
       <c r="O323">
         <v>0.04367037338576138</v>
@@ -34715,7 +34715,7 @@
         <v>0.5718163721684901</v>
       </c>
       <c r="S323">
-        <v>0.8285073271113879</v>
+        <v>0.3310273346187115</v>
       </c>
       <c r="T323">
         <v>10.35236868919419</v>
@@ -34786,7 +34786,7 @@
         <v>0.3696988111952376</v>
       </c>
       <c r="N324">
-        <v>1.023281970940611</v>
+        <v>0.3290483227762845</v>
       </c>
     </row>
     <row r="325" spans="1:34">
@@ -34830,7 +34830,7 @@
         <v>0.392901725845502</v>
       </c>
       <c r="N325">
-        <v>0.8582448447101741</v>
+        <v>0.374015823885241</v>
       </c>
       <c r="O325">
         <v>-0.004477139220414202</v>
@@ -34845,7 +34845,7 @@
         <v>0.7632460529099633</v>
       </c>
       <c r="S325">
-        <v>1.056473488445049</v>
+        <v>0.3884797870500027</v>
       </c>
       <c r="T325">
         <v>10.77543006874603</v>
@@ -34934,7 +34934,7 @@
         <v>0.318016071771815</v>
       </c>
       <c r="N326">
-        <v>0.8950025959332203</v>
+        <v>0.3018225334405891</v>
       </c>
       <c r="O326">
         <v>0.0029230600347531</v>
@@ -34949,7 +34949,7 @@
         <v>0.7329808726209768</v>
       </c>
       <c r="S326">
-        <v>1.074041281808835</v>
+        <v>0.2607119337035834</v>
       </c>
       <c r="T326">
         <v>12.25033826997539</v>
@@ -35038,7 +35038,7 @@
         <v>0.4221707624739972</v>
       </c>
       <c r="N327">
-        <v>0.5339312816941885</v>
+        <v>0.253930768783144</v>
       </c>
       <c r="O327">
         <v>0.03090381618728201</v>
@@ -35053,7 +35053,7 @@
         <v>0.7227022403714112</v>
       </c>
       <c r="S327">
-        <v>0.9202969810428597</v>
+        <v>0.2495675260310376</v>
       </c>
       <c r="T327">
         <v>10.16501529375486</v>
@@ -35142,7 +35142,7 @@
         <v>0.4522971585485598</v>
       </c>
       <c r="N328">
-        <v>0.4626421270088547</v>
+        <v>0.2284914720656182</v>
       </c>
       <c r="O328">
         <v>-0.02675858523609846</v>
@@ -35157,7 +35157,7 @@
         <v>0.6810359850308925</v>
       </c>
       <c r="S328">
-        <v>0.8457799434563353</v>
+        <v>0.2708873144795526</v>
       </c>
       <c r="T328">
         <v>11.69279878549423</v>
@@ -35246,7 +35246,7 @@
         <v>0.4505862574501979</v>
       </c>
       <c r="N329">
-        <v>0.5837821395199244</v>
+        <v>0.2025012297378988</v>
       </c>
       <c r="O329">
         <v>-0.02346594286109853</v>
@@ -35261,7 +35261,7 @@
         <v>0.6335737634605363</v>
       </c>
       <c r="S329">
-        <v>1.002758289714397</v>
+        <v>0.2467326536547779</v>
       </c>
       <c r="T329">
         <v>10.43306512617972</v>
@@ -35350,7 +35350,7 @@
         <v>0.3129261881166529</v>
       </c>
       <c r="N330">
-        <v>0.7351924368247887</v>
+        <v>0.1375373623874565</v>
       </c>
       <c r="O330">
         <v>0.1452856642003146</v>
@@ -35365,7 +35365,7 @@
         <v>0.6881403909125431</v>
       </c>
       <c r="S330">
-        <v>0.8872009496856037</v>
+        <v>0.2747312005285259</v>
       </c>
       <c r="T330">
         <v>10.60987809309183</v>
@@ -35454,7 +35454,7 @@
         <v>0.3333282772835333</v>
       </c>
       <c r="N331">
-        <v>0.7080252960362999</v>
+        <v>0.1597710704871556</v>
       </c>
       <c r="O331">
         <v>-0.01462763262553693</v>
@@ -35469,7 +35469,7 @@
         <v>0.6793985347871521</v>
       </c>
       <c r="S331">
-        <v>0.846408823070389</v>
+        <v>0.2667099501775761</v>
       </c>
       <c r="T331">
         <v>8.203356926834729</v>
@@ -35558,7 +35558,7 @@
         <v>0.3001984692187092</v>
       </c>
       <c r="N332">
-        <v>0.5172489219044709</v>
+        <v>0.1685599869615362</v>
       </c>
       <c r="O332">
         <v>-0.01813268139656614</v>
@@ -35573,7 +35573,7 @@
         <v>0.6872970922422992</v>
       </c>
       <c r="S332">
-        <v>0.8932540506493716</v>
+        <v>0.2590608419268096</v>
       </c>
       <c r="T332">
         <v>9.421661693010321</v>
@@ -35662,7 +35662,7 @@
         <v>0.3361529856858551</v>
       </c>
       <c r="N333">
-        <v>0.7083958328538679</v>
+        <v>0.2006097493411499</v>
       </c>
       <c r="O333">
         <v>0.05350464640598709</v>
@@ -35677,7 +35677,7 @@
         <v>0.7607464308856933</v>
       </c>
       <c r="S333">
-        <v>0.9349656813836243</v>
+        <v>0.1629813300353054</v>
       </c>
       <c r="T333">
         <v>11.09522975657582</v>
@@ -35766,7 +35766,7 @@
         <v>0.4584432942605256</v>
       </c>
       <c r="N334">
-        <v>0.8924478622678427</v>
+        <v>0.3215768078725325</v>
       </c>
       <c r="O334">
         <v>0.1010223288182913</v>
@@ -35781,7 +35781,7 @@
         <v>0.6147197627855998</v>
       </c>
       <c r="S334">
-        <v>0.8875178380432385</v>
+        <v>0.2743638586799896</v>
       </c>
       <c r="T334">
         <v>10.9260706251865</v>
@@ -35870,7 +35870,7 @@
         <v>0.3374024150380642</v>
       </c>
       <c r="N335">
-        <v>0.8781316853489309</v>
+        <v>0.2313477082568078</v>
       </c>
       <c r="O335">
         <v>0.4313133865550516</v>
@@ -35885,7 +35885,7 @@
         <v>0.5296039749540479</v>
       </c>
       <c r="S335">
-        <v>1.027028518330079</v>
+        <v>0.2301906244909076</v>
       </c>
       <c r="T335">
         <v>5.018443106277778</v>
@@ -35974,7 +35974,7 @@
         <v>0.2328223699059286</v>
       </c>
       <c r="N336">
-        <v>0.7480456421142431</v>
+        <v>0.1653187528139644</v>
       </c>
       <c r="O336">
         <v>0.4967358522062962</v>
@@ -35989,7 +35989,7 @@
         <v>0.4472439571094777</v>
       </c>
       <c r="S336">
-        <v>0.8744336217503406</v>
+        <v>0.2498051009010153</v>
       </c>
       <c r="T336">
         <v>4.583394839507077</v>
@@ -36078,7 +36078,7 @@
         <v>0.8000490467135178</v>
       </c>
       <c r="N337">
-        <v>0.7047419591361107</v>
+        <v>0.3732055604238894</v>
       </c>
       <c r="O337">
         <v>0.05685546843672565</v>
@@ -36093,7 +36093,7 @@
         <v>0.7599978481372117</v>
       </c>
       <c r="S337">
-        <v>0.9984982665073547</v>
+        <v>0.3706150440282901</v>
       </c>
       <c r="T337">
         <v>9.649856017025268</v>
@@ -36182,7 +36182,7 @@
         <v>0.2190332933850531</v>
       </c>
       <c r="N338">
-        <v>1.02098011991065</v>
+        <v>0.07723761741750347</v>
       </c>
       <c r="O338">
         <v>0.03169912882268254</v>
@@ -36197,7 +36197,7 @@
         <v>0.7514180908347579</v>
       </c>
       <c r="S338">
-        <v>1.03442455716358</v>
+        <v>0.2582891164355511</v>
       </c>
       <c r="T338">
         <v>11.25923382301162</v>
@@ -36286,7 +36286,7 @@
         <v>0.1292553009543305</v>
       </c>
       <c r="N339">
-        <v>0.8910211708382342</v>
+        <v>0.480276343349244</v>
       </c>
       <c r="O339">
         <v>0.0529183188100209</v>
@@ -36301,7 +36301,7 @@
         <v>0.776911181496587</v>
       </c>
       <c r="S339">
-        <v>0.95668752498916</v>
+        <v>0.2892635915793157</v>
       </c>
       <c r="T339">
         <v>11.8388333355838</v>
@@ -36390,7 +36390,7 @@
         <v>0.3550878574192153</v>
       </c>
       <c r="N340">
-        <v>0.7815893668225856</v>
+        <v>0.3129738616646986</v>
       </c>
       <c r="O340">
         <v>-0.009023691286807434</v>
@@ -36405,7 +36405,7 @@
         <v>0.708476540250865</v>
       </c>
       <c r="S340">
-        <v>1.009838722141944</v>
+        <v>0.2821519911550859</v>
       </c>
       <c r="T340">
         <v>13.12165876546503</v>
@@ -36494,7 +36494,7 @@
         <v>0.2674468143679594</v>
       </c>
       <c r="N341">
-        <v>1.784836507471798</v>
+        <v>0.2470185835822823</v>
       </c>
       <c r="O341">
         <v>0.1637232144340741</v>
@@ -36509,7 +36509,7 @@
         <v>0.6069000190204734</v>
       </c>
       <c r="S341">
-        <v>0.8867056594326879</v>
+        <v>0.2580082992912011</v>
       </c>
       <c r="T341">
         <v>9.089247136595173</v>
@@ -36598,7 +36598,7 @@
         <v>0.2289329654385355</v>
       </c>
       <c r="N342">
-        <v>0.7798437441264984</v>
+        <v>0.2217597579332764</v>
       </c>
       <c r="O342">
         <v>0.08881568571056227</v>
@@ -36613,7 +36613,7 @@
         <v>0.5734560062145994</v>
       </c>
       <c r="S342">
-        <v>0.9050333952905216</v>
+        <v>0.2305260980868778</v>
       </c>
       <c r="T342">
         <v>11.01585809242576</v>
@@ -36702,7 +36702,7 @@
         <v>0.3935005622708398</v>
       </c>
       <c r="N343">
-        <v>0.7208560795895504</v>
+        <v>0.1857736248935476</v>
       </c>
       <c r="O343">
         <v>0.08111713675213801</v>
@@ -36717,7 +36717,7 @@
         <v>0.6375374024590911</v>
       </c>
       <c r="S343">
-        <v>0.8164437389800373</v>
+        <v>0.246741480867368</v>
       </c>
       <c r="T343">
         <v>13.52651005512854</v>
@@ -36803,7 +36803,7 @@
         <v>0.5752702542184009</v>
       </c>
       <c r="N344">
-        <v>0.7945082684979451</v>
+        <v>0.4560489759423445</v>
       </c>
       <c r="O344">
         <v>0.05624639818627378</v>
@@ -36818,7 +36818,7 @@
         <v>0.628141718139771</v>
       </c>
       <c r="S344">
-        <v>0.8943463632723305</v>
+        <v>0.2675721020708288</v>
       </c>
       <c r="T344">
         <v>11.97527292414432</v>
@@ -36907,7 +36907,7 @@
         <v>0.3381714336597655</v>
       </c>
       <c r="N345">
-        <v>0.8836123163711382</v>
+        <v>0.09538743078317712</v>
       </c>
       <c r="O345">
         <v>0.05274165014643287</v>
@@ -36922,7 +36922,7 @@
         <v>0.7008081349234642</v>
       </c>
       <c r="S345">
-        <v>0.9843224381183994</v>
+        <v>0.2663143382894545</v>
       </c>
       <c r="T345">
         <v>10.57742188251857</v>
@@ -37011,7 +37011,7 @@
         <v>0.3277901246816664</v>
       </c>
       <c r="N346">
-        <v>1.313084879906719</v>
+        <v>0.2331737502740942</v>
       </c>
       <c r="O346">
         <v>0.07542509843451217</v>
@@ -37026,7 +37026,7 @@
         <v>0.7949576265948144</v>
       </c>
       <c r="S346">
-        <v>1.052799884305409</v>
+        <v>0.245134697678275</v>
       </c>
       <c r="T346">
         <v>11.9314443142756</v>
@@ -37115,7 +37115,7 @@
         <v>0.5596577670362621</v>
       </c>
       <c r="N347">
-        <v>0.8052124749755935</v>
+        <v>0.5509594545471881</v>
       </c>
       <c r="O347">
         <v>0.07819279979237245</v>
@@ -37130,7 +37130,7 @@
         <v>0.7513403340006141</v>
       </c>
       <c r="S347">
-        <v>1.000221997023862</v>
+        <v>0.3547755967783893</v>
       </c>
       <c r="T347">
         <v>9.601677364765781</v>
@@ -37219,7 +37219,7 @@
         <v>0.2521970665604149</v>
       </c>
       <c r="N348">
-        <v>1.089616990057938</v>
+        <v>0.07362122276061261</v>
       </c>
       <c r="O348">
         <v>-0.008955767853080379</v>
@@ -37234,7 +37234,7 @@
         <v>0.7222580667277883</v>
       </c>
       <c r="S348">
-        <v>1.047731447357862</v>
+        <v>0.2581964529719055</v>
       </c>
       <c r="T348">
         <v>11.61841111044317</v>
@@ -37323,7 +37323,7 @@
         <v>0.3949554897452736</v>
       </c>
       <c r="N349">
-        <v>0.6724486669539701</v>
+        <v>0.3841066674360327</v>
       </c>
       <c r="O349">
         <v>0.05849208150069257</v>
@@ -37338,7 +37338,7 @@
         <v>0.7494694028958394</v>
       </c>
       <c r="S349">
-        <v>1.162319345284154</v>
+        <v>0.3738705062049439</v>
       </c>
       <c r="T349">
         <v>11.01911156160561</v>
@@ -37427,7 +37427,7 @@
         <v>0.5697483080172288</v>
       </c>
       <c r="N350">
-        <v>1.002008973199292</v>
+        <v>0.2732967044035932</v>
       </c>
       <c r="O350">
         <v>0.08550383845514374</v>
@@ -37442,7 +37442,7 @@
         <v>0.7153295513965879</v>
       </c>
       <c r="S350">
-        <v>0.9438239330394224</v>
+        <v>0.2934179352236315</v>
       </c>
       <c r="T350">
         <v>12.53437273788621</v>
@@ -37531,7 +37531,7 @@
         <v>0.2455343813572574</v>
       </c>
       <c r="N351">
-        <v>0.8740180621584385</v>
+        <v>0.1265341632574169</v>
       </c>
       <c r="O351">
         <v>0.02393023720223934</v>
@@ -37546,7 +37546,7 @@
         <v>0.6448312707434176</v>
       </c>
       <c r="S351">
-        <v>0.8640697256803336</v>
+        <v>0.2391890022111496</v>
       </c>
       <c r="T351">
         <v>11.67490234871332</v>
@@ -37635,7 +37635,7 @@
         <v>0.4732079502589321</v>
       </c>
       <c r="N352">
-        <v>0.8218104642747169</v>
+        <v>0.24312068340015</v>
       </c>
       <c r="O352">
         <v>0.05263410298261825</v>
@@ -37650,7 +37650,7 @@
         <v>0.656482570181485</v>
       </c>
       <c r="S352">
-        <v>0.878983579250776</v>
+        <v>0.2659328000732937</v>
       </c>
       <c r="T352">
         <v>9.772133344681597</v>
@@ -37739,7 +37739,7 @@
         <v>0.3771975934652356</v>
       </c>
       <c r="N353">
-        <v>0.7712015014296151</v>
+        <v>0.3189958664852457</v>
       </c>
       <c r="O353">
         <v>0.005573031502202075</v>
@@ -37754,7 +37754,7 @@
         <v>0.6893795085457671</v>
       </c>
       <c r="S353">
-        <v>0.8843086912364755</v>
+        <v>0.2409147645746685</v>
       </c>
       <c r="T353">
         <v>13.31786589309708</v>
@@ -37843,7 +37843,7 @@
         <v>0.2774593375322967</v>
       </c>
       <c r="N354">
-        <v>0.8307775488212356</v>
+        <v>0.2021578328512098</v>
       </c>
       <c r="O354">
         <v>0.1167820264179593</v>
@@ -37858,7 +37858,7 @@
         <v>0.7126617383641626</v>
       </c>
       <c r="S354">
-        <v>0.9181680444600272</v>
+        <v>0.2746836488552011</v>
       </c>
       <c r="T354">
         <v>11.86759288145052</v>
@@ -37947,7 +37947,7 @@
         <v>0.3061266346906441</v>
       </c>
       <c r="N355">
-        <v>0.8296963487221055</v>
+        <v>0.4058571104469636</v>
       </c>
       <c r="O355">
         <v>-0.03307481417562036</v>
@@ -37962,7 +37962,7 @@
         <v>0.6932002218167641</v>
       </c>
       <c r="S355">
-        <v>0.9041521677229144</v>
+        <v>0.2838481568533062</v>
       </c>
       <c r="T355">
         <v>10.30936562452113</v>
@@ -38051,7 +38051,7 @@
         <v>0.2576580155259666</v>
       </c>
       <c r="N356">
-        <v>0.8006557273686309</v>
+        <v>0.546537066577464</v>
       </c>
       <c r="O356">
         <v>-0.01190876678344622</v>
@@ -38066,7 +38066,7 @@
         <v>0.7295878997110284</v>
       </c>
       <c r="S356">
-        <v>1.053857247620058</v>
+        <v>0.2493063435608587</v>
       </c>
       <c r="T356">
         <v>10.22498821860091</v>
@@ -38155,7 +38155,7 @@
         <v>0.3931300916761609</v>
       </c>
       <c r="N357">
-        <v>0.6988655788388083</v>
+        <v>0.1771273681954165</v>
       </c>
       <c r="O357">
         <v>-0.007647920961889833</v>
@@ -38170,7 +38170,7 @@
         <v>0.7143433435412865</v>
       </c>
       <c r="S357">
-        <v>0.8978625314392189</v>
+        <v>0.258807355229333</v>
       </c>
       <c r="T357">
         <v>8.826231945655433</v>
@@ -38259,7 +38259,7 @@
         <v>0.4322920168958941</v>
       </c>
       <c r="N358">
-        <v>0.7866701149348422</v>
+        <v>0.3627198148773083</v>
       </c>
       <c r="O358">
         <v>0.05182448973262781</v>
@@ -38274,7 +38274,7 @@
         <v>0.7595681306299441</v>
       </c>
       <c r="S358">
-        <v>0.9969625555535062</v>
+        <v>0.2086887749773841</v>
       </c>
       <c r="T358">
         <v>9.769840818828721</v>
@@ -38363,7 +38363,7 @@
         <v>0.4164677626341412</v>
       </c>
       <c r="N359">
-        <v>0.5603689144948905</v>
+        <v>0.3307423681332106</v>
       </c>
       <c r="O359">
         <v>-0.01808121331618861</v>
@@ -38378,7 +38378,7 @@
         <v>0.656313731764174</v>
       </c>
       <c r="S359">
-        <v>0.8572467160953435</v>
+        <v>0.2408321816618463</v>
       </c>
       <c r="T359">
         <v>10.25714767501076</v>
@@ -38467,7 +38467,7 @@
         <v>0.08554315769084944</v>
       </c>
       <c r="N360">
-        <v>0.3683370907571673</v>
+        <v>0.1136988386325247</v>
       </c>
       <c r="O360">
         <v>0.06309583721219862</v>
@@ -38482,7 +38482,7 @@
         <v>0.6253501403995767</v>
       </c>
       <c r="S360">
-        <v>0.7870315962386415</v>
+        <v>0.3338098755836341</v>
       </c>
       <c r="T360">
         <v>10.37906891311075</v>
@@ -38565,7 +38565,7 @@
         <v>0.1619333176307283</v>
       </c>
       <c r="N361">
-        <v>0.8424990301722142</v>
+        <v>0.2028633151516609</v>
       </c>
       <c r="O361">
         <v>0.0295453186579844</v>
@@ -38580,7 +38580,7 @@
         <v>0.6347322089124757</v>
       </c>
       <c r="S361">
-        <v>0.8321805998253972</v>
+        <v>0.2032660369092177</v>
       </c>
       <c r="T361">
         <v>4.41607713671019</v>
@@ -38663,7 +38663,7 @@
         <v>0.2882941488713057</v>
       </c>
       <c r="N362">
-        <v>0.787499051576637</v>
+        <v>0.2284269180243799</v>
       </c>
       <c r="O362">
         <v>0.01636675024607273</v>
@@ -38678,7 +38678,7 @@
         <v>0.4150293474812938</v>
       </c>
       <c r="S362">
-        <v>0.7433356919594176</v>
+        <v>0.175849072517693</v>
       </c>
       <c r="T362">
         <v>5.044721257732522</v>
@@ -38761,7 +38761,7 @@
         <v>0.5494599250723573</v>
       </c>
       <c r="N363">
-        <v>0.8794396332210087</v>
+        <v>0.2214005292944314</v>
       </c>
       <c r="O363">
         <v>0.06213404972750666</v>
@@ -38776,7 +38776,7 @@
         <v>0.5976974490761754</v>
       </c>
       <c r="S363">
-        <v>0.8095462768304179</v>
+        <v>0.3240365670166558</v>
       </c>
       <c r="T363">
         <v>6.153743590865652</v>
@@ -38862,7 +38862,7 @@
         <v>0.08134026550322947</v>
       </c>
       <c r="N364">
-        <v>0.5061348174595836</v>
+        <v>0.1332444890894096</v>
       </c>
       <c r="O364">
         <v>0.02352013004098789</v>
@@ -38877,7 +38877,7 @@
         <v>0.6570028980233598</v>
       </c>
       <c r="S364">
-        <v>0.8553206129032425</v>
+        <v>0.2351735296189597</v>
       </c>
       <c r="T364">
         <v>8.87060975652561</v>
@@ -38963,7 +38963,7 @@
         <v>0.2150629837698382</v>
       </c>
       <c r="N365">
-        <v>1.022961604546285</v>
+        <v>0.307812836640442</v>
       </c>
       <c r="O365">
         <v>-0.01503894661064263</v>
@@ -38978,7 +38978,7 @@
         <v>0.6259873991026799</v>
       </c>
       <c r="S365">
-        <v>0.7572071517611306</v>
+        <v>0.1960090393416666</v>
       </c>
       <c r="T365">
         <v>4.869583280442374</v>
@@ -39067,7 +39067,7 @@
         <v>0.1143135128315698</v>
       </c>
       <c r="N366">
-        <v>0.343935984941582</v>
+        <v>0.03049673837297545</v>
       </c>
       <c r="O366">
         <v>0.2395963338015698</v>
@@ -39082,7 +39082,7 @@
         <v>0.7320074411266593</v>
       </c>
       <c r="S366">
-        <v>1.134479456189647</v>
+        <v>0.2514135669315517</v>
       </c>
       <c r="T366">
         <v>7.124695496839891</v>
@@ -39165,7 +39165,7 @@
         <v>0.1583365233125915</v>
       </c>
       <c r="N367">
-        <v>0.9883678199519833</v>
+        <v>0.2184764803073615</v>
       </c>
       <c r="O367">
         <v>0.02252176080948952</v>
@@ -39180,7 +39180,7 @@
         <v>0.621887699615569</v>
       </c>
       <c r="S367">
-        <v>0.9093611547275064</v>
+        <v>0.2435302360495876</v>
       </c>
       <c r="T367">
         <v>9.538067493272905</v>
@@ -39266,7 +39266,7 @@
         <v>0.1027427230602093</v>
       </c>
       <c r="N368">
-        <v>0.3483030669839125</v>
+        <v>0.04971980074876851</v>
       </c>
       <c r="O368">
         <v>0.05537184542931399</v>
@@ -39281,7 +39281,7 @@
         <v>0.7188897101832087</v>
       </c>
       <c r="S368">
-        <v>0.9769334217350227</v>
+        <v>0.2467758578613893</v>
       </c>
       <c r="T368">
         <v>6.358116869839272</v>
@@ -39367,7 +39367,7 @@
         <v>0.06218306812415135</v>
       </c>
       <c r="N369">
-        <v>0.7475143941242863</v>
+        <v>0.1198054596644047</v>
       </c>
       <c r="O369">
         <v>0.2958799595236706</v>
@@ -39382,7 +39382,7 @@
         <v>0.6862861174105914</v>
       </c>
       <c r="S369">
-        <v>1.028611764555502</v>
+        <v>0.2329490140132039</v>
       </c>
       <c r="T369">
         <v>7.941947770849309</v>
@@ -39471,7 +39471,7 @@
         <v>0.0562633892894442</v>
       </c>
       <c r="N370">
-        <v>0.3167170215668227</v>
+        <v>0.1272849435376411</v>
       </c>
       <c r="O370">
         <v>0.07218666429329819</v>
@@ -39486,7 +39486,7 @@
         <v>0.6634064951179814</v>
       </c>
       <c r="S370">
-        <v>0.862302081065626</v>
+        <v>0.2516751959975573</v>
       </c>
       <c r="T370">
         <v>7.030468756079586</v>
@@ -39572,7 +39572,7 @@
         <v>0.2603282735686542</v>
       </c>
       <c r="N371">
-        <v>1.09624102491228</v>
+        <v>0.1679152255010879</v>
       </c>
       <c r="O371">
         <v>-0.02534113154437221</v>
@@ -39587,7 +39587,7 @@
         <v>0.6516920688649432</v>
       </c>
       <c r="S371">
-        <v>0.7954908594441913</v>
+        <v>0.2414680789049025</v>
       </c>
       <c r="T371">
         <v>13.28762461282141</v>
@@ -39670,7 +39670,7 @@
         <v>0.1199714399215744</v>
       </c>
       <c r="N372">
-        <v>2.127451569679424</v>
+        <v>0.2922487230731191</v>
       </c>
       <c r="O372">
         <v>-0.03491051769061245</v>
@@ -39685,7 +39685,7 @@
         <v>0.6535330250604712</v>
       </c>
       <c r="S372">
-        <v>0.8260300255996065</v>
+        <v>0.2335118316283551</v>
       </c>
       <c r="T372">
         <v>8.549280503571522</v>
@@ -39774,7 +39774,7 @@
         <v>0.1172440978813722</v>
       </c>
       <c r="N373">
-        <v>1.295460880815695</v>
+        <v>0.1427535791973087</v>
       </c>
       <c r="O373">
         <v>0.1017821240995477</v>
@@ -39789,7 +39789,7 @@
         <v>0.6072450801465162</v>
       </c>
       <c r="S373">
-        <v>0.7422312726948294</v>
+        <v>0.2059422473966187</v>
       </c>
       <c r="T373">
         <v>5.441967940641082</v>
@@ -39878,7 +39878,7 @@
         <v>0.05869318404971125</v>
       </c>
       <c r="N374">
-        <v>1.427336769972754</v>
+        <v>0.1550738977807882</v>
       </c>
       <c r="O374">
         <v>0.01260401547230302</v>
@@ -39893,7 +39893,7 @@
         <v>0.5936082564351144</v>
       </c>
       <c r="S374">
-        <v>0.7100801006606824</v>
+        <v>0.203573270246157</v>
       </c>
       <c r="T374">
         <v>7.708509513007113</v>
@@ -39982,7 +39982,7 @@
         <v>0.1383243240480952</v>
       </c>
       <c r="N375">
-        <v>1.254452263231896</v>
+        <v>0.1716919578633762</v>
       </c>
       <c r="O375">
         <v>0.002181832704008127</v>
@@ -39997,7 +39997,7 @@
         <v>0.7208418300455107</v>
       </c>
       <c r="S375">
-        <v>0.9898500058813918</v>
+        <v>0.2066038440087715</v>
       </c>
       <c r="T375">
         <v>6.566388902974163</v>
@@ -40086,7 +40086,7 @@
         <v>0.1178805908178551</v>
       </c>
       <c r="N376">
-        <v>0.6921716423698159</v>
+        <v>0.03838693645902811</v>
       </c>
       <c r="O376">
         <v>-0.00363281043917554</v>
@@ -40101,7 +40101,7 @@
         <v>0.7399611386310946</v>
       </c>
       <c r="S376">
-        <v>0.932038166504484</v>
+        <v>0.2703199377353502</v>
       </c>
       <c r="T376">
         <v>11.89130430496817</v>
@@ -40190,7 +40190,7 @@
         <v>0.04184664820235973</v>
       </c>
       <c r="N377">
-        <v>0.1853800438760887</v>
+        <v>0.07565044844129426</v>
       </c>
       <c r="O377">
         <v>0.0800256231938795</v>
@@ -40205,7 +40205,7 @@
         <v>0.5120272014354421</v>
       </c>
       <c r="S377">
-        <v>0.8692732041175445</v>
+        <v>0.1981361797775507</v>
       </c>
       <c r="T377">
         <v>10.76163844606569</v>
@@ -40294,7 +40294,7 @@
         <v>0.1276885592998182</v>
       </c>
       <c r="N378">
-        <v>0.4984239037320666</v>
+        <v>0.1851300211411725</v>
       </c>
       <c r="O378">
         <v>0.03780674490167975</v>
@@ -40309,7 +40309,7 @@
         <v>0.7136220995454732</v>
       </c>
       <c r="S378">
-        <v>0.9620766864983356</v>
+        <v>0.1821958225586271</v>
       </c>
       <c r="T378">
         <v>9.38558514595751</v>
@@ -40398,7 +40398,7 @@
         <v>0.2037722966372381</v>
       </c>
       <c r="N379">
-        <v>0.4792074198139699</v>
+        <v>0.1242735265571284</v>
       </c>
       <c r="O379">
         <v>0.04648094301553091</v>
@@ -40413,7 +40413,7 @@
         <v>0.6383475292032605</v>
       </c>
       <c r="S379">
-        <v>0.7741050881406917</v>
+        <v>0.1975342143755025</v>
       </c>
       <c r="T379">
         <v>5.500071027320313</v>
@@ -40499,7 +40499,7 @@
         <v>0.09506934254061666</v>
       </c>
       <c r="N380">
-        <v>0.4877496522275838</v>
+        <v>0.143534415236324</v>
       </c>
       <c r="O380">
         <v>0.1077049951866827</v>
@@ -40514,7 +40514,7 @@
         <v>0.6351558298685082</v>
       </c>
       <c r="S380">
-        <v>0.8582392674073328</v>
+        <v>0.2595645552303932</v>
       </c>
       <c r="T380">
         <v>8.199478977394886</v>
@@ -40600,7 +40600,7 @@
         <v>0.4912742374886406</v>
       </c>
       <c r="N381">
-        <v>0.5031008139848618</v>
+        <v>0.2202185538287947</v>
       </c>
       <c r="O381">
         <v>0.04658734544116763</v>
@@ -40615,7 +40615,7 @@
         <v>0.7581060117185727</v>
       </c>
       <c r="S381">
-        <v>1.041923082363737</v>
+        <v>0.2534689483536838</v>
       </c>
       <c r="T381">
         <v>7.48736527216691</v>
@@ -40701,7 +40701,7 @@
         <v>0.1072933125203687</v>
       </c>
       <c r="N382">
-        <v>0.6817350234427484</v>
+        <v>0.1927605014586076</v>
       </c>
       <c r="O382">
         <v>0.05901823651637417</v>
@@ -40716,7 +40716,7 @@
         <v>0.7375391271230437</v>
       </c>
       <c r="S382">
-        <v>0.9493219886588581</v>
+        <v>0.2445813463028817</v>
       </c>
       <c r="T382">
         <v>9.894987790741059</v>
@@ -40802,7 +40802,7 @@
         <v>0.1478480219204007</v>
       </c>
       <c r="N383">
-        <v>1.052032401951621</v>
+        <v>0.2902773209370086</v>
       </c>
       <c r="O383">
         <v>-0.01737031824068431</v>
@@ -40817,7 +40817,7 @@
         <v>0.7237499163414781</v>
       </c>
       <c r="S383">
-        <v>0.8624634049627633</v>
+        <v>0.2307482145497439</v>
       </c>
       <c r="T383">
         <v>7.230139789627288</v>
@@ -40900,7 +40900,7 @@
         <v>0.2293052603293284</v>
       </c>
       <c r="N384">
-        <v>0.7722158052766243</v>
+        <v>0.2697692320803838</v>
       </c>
       <c r="O384">
         <v>0.02348203864361462</v>
@@ -40915,7 +40915,7 @@
         <v>0.7262891017986234</v>
       </c>
       <c r="S384">
-        <v>0.8081203982394232</v>
+        <v>0.2501006000576881</v>
       </c>
       <c r="T384">
         <v>7.950164820773596</v>
@@ -40998,7 +40998,7 @@
         <v>0.2673983321311866</v>
       </c>
       <c r="N385">
-        <v>0.7002242813540515</v>
+        <v>0.1835748356317639</v>
       </c>
       <c r="O385">
         <v>-0.01733234937103291</v>
@@ -41013,7 +41013,7 @@
         <v>0.7133032116446729</v>
       </c>
       <c r="S385">
-        <v>1.068357535507463</v>
+        <v>0.2569233738209095</v>
       </c>
       <c r="T385">
         <v>6.464700156263581</v>
@@ -41096,7 +41096,7 @@
         <v>0.030682651767187</v>
       </c>
       <c r="N386">
-        <v>0.2873410770823088</v>
+        <v>0.04778669125868801</v>
       </c>
       <c r="O386">
         <v>0.3652113958380633</v>
@@ -41111,7 +41111,7 @@
         <v>0.5968059798516204</v>
       </c>
       <c r="S386">
-        <v>0.7829289924521451</v>
+        <v>0.2570647132167452</v>
       </c>
       <c r="T386">
         <v>8.853261402229117</v>
@@ -41200,7 +41200,7 @@
         <v>0.07527269901891577</v>
       </c>
       <c r="N387">
-        <v>0.4739809563648338</v>
+        <v>0.1129412497638268</v>
       </c>
       <c r="O387">
         <v>0.07169604941610168</v>
@@ -41215,7 +41215,7 @@
         <v>0.6396646107782377</v>
       </c>
       <c r="S387">
-        <v>0.898134280755233</v>
+        <v>0.3087296614387849</v>
       </c>
       <c r="T387">
         <v>9.01072114492163</v>
@@ -41301,7 +41301,7 @@
         <v>0.1472566166129284</v>
       </c>
       <c r="N388">
-        <v>1.636817323640491</v>
+        <v>0.3420148619657712</v>
       </c>
       <c r="O388">
         <v>0.01610086162549241</v>
@@ -41316,7 +41316,7 @@
         <v>0.5387306839727611</v>
       </c>
       <c r="S388">
-        <v>0.6479043046458374</v>
+        <v>0.1858492702201634</v>
       </c>
       <c r="T388">
         <v>2.740668024760513</v>
@@ -41402,7 +41402,7 @@
         <v>0.1400162095086334</v>
       </c>
       <c r="N389">
-        <v>0.704865927128384</v>
+        <v>0.1752117853332889</v>
       </c>
       <c r="O389">
         <v>0.03522035384247797</v>
@@ -41417,7 +41417,7 @@
         <v>0.3932151644580273</v>
       </c>
       <c r="S389">
-        <v>0.7001826830189094</v>
+        <v>0.1626200642974306</v>
       </c>
       <c r="T389">
         <v>4.778662993774427</v>
@@ -41500,7 +41500,7 @@
         <v>0.09800436418580952</v>
       </c>
       <c r="N390">
-        <v>0.9911545063740208</v>
+        <v>0.1201631941872143</v>
       </c>
       <c r="O390">
         <v>0.07902590050776107</v>
@@ -41515,7 +41515,7 @@
         <v>0.6416936475874704</v>
       </c>
       <c r="S390">
-        <v>0.8018639847499396</v>
+        <v>0.2408496113760485</v>
       </c>
       <c r="T390">
         <v>8.059268551190659</v>
@@ -41601,7 +41601,7 @@
         <v>0.2746206051065465</v>
       </c>
       <c r="N391">
-        <v>0.879570588062182</v>
+        <v>0.2460559842259608</v>
       </c>
       <c r="O391">
         <v>0.03883223770734946</v>
@@ -41616,7 +41616,7 @@
         <v>0.6181994137630104</v>
       </c>
       <c r="S391">
-        <v>0.8090760678650197</v>
+        <v>0.2556203461272498</v>
       </c>
       <c r="T391">
         <v>5.987421038816503</v>
@@ -41699,7 +41699,7 @@
         <v>0.1545918709970487</v>
       </c>
       <c r="N392">
-        <v>2.089528844928057</v>
+        <v>0.3844465346121588</v>
       </c>
       <c r="O392">
         <v>0.09084262425854048</v>
@@ -41714,7 +41714,7 @@
         <v>0.7002669800942576</v>
       </c>
       <c r="S392">
-        <v>0.9821604748813016</v>
+        <v>0.3254867417154108</v>
       </c>
       <c r="T392">
         <v>6.20358788135032</v>
@@ -41797,7 +41797,7 @@
         <v>0.05410893486552654</v>
       </c>
       <c r="N393">
-        <v>0.2187406615577494</v>
+        <v>0.008485762710076714</v>
       </c>
       <c r="O393">
         <v>0.09437011572320658</v>
@@ -41812,7 +41812,7 @@
         <v>0.6559171811160691</v>
       </c>
       <c r="S393">
-        <v>0.852234144466102</v>
+        <v>0.2715473772633905</v>
       </c>
       <c r="T393">
         <v>8.237764422311662</v>
@@ -41895,7 +41895,7 @@
         <v>0.2255249587963034</v>
       </c>
       <c r="N394">
-        <v>1.369579079071879</v>
+        <v>0.3493332291723084</v>
       </c>
       <c r="O394">
         <v>0.1339820036263125</v>
@@ -41910,7 +41910,7 @@
         <v>0.7235329275344078</v>
       </c>
       <c r="S394">
-        <v>0.8484746682980451</v>
+        <v>0.2924244022996143</v>
       </c>
       <c r="T394">
         <v>9.858696601741871</v>
@@ -41996,7 +41996,7 @@
         <v>0.2244520834103837</v>
       </c>
       <c r="N395">
-        <v>0.80185245769564</v>
+        <v>0.1468012835120721</v>
       </c>
       <c r="O395">
         <v>0.04225875443759416</v>
@@ -42011,7 +42011,7 @@
         <v>0.664285537372676</v>
       </c>
       <c r="S395">
-        <v>0.9546811053724215</v>
+        <v>0.2586014072356693</v>
       </c>
       <c r="T395">
         <v>9.848353073901643</v>
@@ -42097,7 +42097,7 @@
         <v>0.1453536595831238</v>
       </c>
       <c r="N396">
-        <v>0.5955547494519601</v>
+        <v>0.08444017099506881</v>
       </c>
       <c r="O396">
         <v>0.05061188034916246</v>
@@ -42112,7 +42112,7 @@
         <v>0.809906730286865</v>
       </c>
       <c r="S396">
-        <v>1.117224061193113</v>
+        <v>0.274621554260114</v>
       </c>
       <c r="T396">
         <v>5.869755941408166</v>
@@ -42195,7 +42195,7 @@
         <v>0.1412605757974478</v>
       </c>
       <c r="N397">
-        <v>1.268777283382555</v>
+        <v>0.1623409175793031</v>
       </c>
       <c r="O397">
         <v>-0.02777286003356798</v>
@@ -42210,7 +42210,7 @@
         <v>0.75538722055515</v>
       </c>
       <c r="S397">
-        <v>1.039411657193917</v>
+        <v>0.2459724410969331</v>
       </c>
       <c r="T397">
         <v>8.244865404509229</v>
@@ -42299,7 +42299,7 @@
         <v>0.2234257748543103</v>
       </c>
       <c r="N398">
-        <v>1.642966586564331</v>
+        <v>0.340216747873352</v>
       </c>
       <c r="O398">
         <v>0.05254011478253057</v>
@@ -42314,7 +42314,7 @@
         <v>0.7592393821467582</v>
       </c>
       <c r="S398">
-        <v>1.123135164573423</v>
+        <v>0.2801921391778529</v>
       </c>
       <c r="T398">
         <v>8.522843913856207</v>
@@ -42403,7 +42403,7 @@
         <v>0.1510635579603101</v>
       </c>
       <c r="N399">
-        <v>0.6793397447165047</v>
+        <v>0.07602671983078503</v>
       </c>
       <c r="O399">
         <v>0.04293762232499907</v>
@@ -42418,7 +42418,7 @@
         <v>0.7470660452698904</v>
       </c>
       <c r="S399">
-        <v>0.9651855119648265</v>
+        <v>0.256012622482253</v>
       </c>
       <c r="T399">
         <v>8.257109567020324</v>
@@ -42507,7 +42507,7 @@
         <v>0.119338803161979</v>
       </c>
       <c r="N400">
-        <v>0.3636468566811124</v>
+        <v>0.1092101126086964</v>
       </c>
       <c r="O400">
         <v>-0.02870338315050502</v>
@@ -42522,7 +42522,7 @@
         <v>0.7929830776184169</v>
       </c>
       <c r="S400">
-        <v>1.079129402995457</v>
+        <v>0.2743218117778926</v>
       </c>
       <c r="T400">
         <v>9.462008479352503</v>
@@ -42611,7 +42611,7 @@
         <v>0.1283793545044251</v>
       </c>
       <c r="N401">
-        <v>1.428043985378515</v>
+        <v>0.157795195189534</v>
       </c>
       <c r="O401">
         <v>0.004748843393049835</v>
@@ -42626,7 +42626,7 @@
         <v>0.7435255586580403</v>
       </c>
       <c r="S401">
-        <v>0.9547713822063879</v>
+        <v>0.2912064599771194</v>
       </c>
       <c r="T401">
         <v>11.04601013215776</v>
@@ -42712,7 +42712,7 @@
         <v>0.12178400051841</v>
       </c>
       <c r="N402">
-        <v>1.144576856807999</v>
+        <v>0.2016871317908225</v>
       </c>
       <c r="O402">
         <v>-0.02120433725192451</v>
@@ -42727,7 +42727,7 @@
         <v>0.5226135141422668</v>
       </c>
       <c r="S402">
-        <v>0.8198654456661325</v>
+        <v>0.201402503954289</v>
       </c>
       <c r="T402">
         <v>9.711438774710521</v>
@@ -42813,7 +42813,7 @@
         <v>0.1417473873758562</v>
       </c>
       <c r="N403">
-        <v>0.7554961111304757</v>
+        <v>0.09104251558811911</v>
       </c>
       <c r="O403">
         <v>0.1020860411016289</v>
@@ -42828,7 +42828,7 @@
         <v>0.6040301149905399</v>
       </c>
       <c r="S403">
-        <v>0.8300239423266054</v>
+        <v>0.2430020242009872</v>
       </c>
       <c r="T403">
         <v>3.319137686700188</v>
@@ -42917,7 +42917,7 @@
         <v>0.06913218196117403</v>
       </c>
       <c r="N404">
-        <v>1.18050397328763</v>
+        <v>0.1169760680146157</v>
       </c>
       <c r="O404">
         <v>1.315156692138158</v>
@@ -42932,7 +42932,7 @@
         <v>0.6285266900933575</v>
       </c>
       <c r="S404">
-        <v>0.9113111397001333</v>
+        <v>0.2469367122123095</v>
       </c>
       <c r="T404">
         <v>7.813712165472444</v>
@@ -43018,7 +43018,7 @@
         <v>0.2244148332956191</v>
       </c>
       <c r="N405">
-        <v>0.5636764666392343</v>
+        <v>0.2735645827481702</v>
       </c>
       <c r="O405">
         <v>0.1404774054810507</v>
@@ -43033,7 +43033,7 @@
         <v>0.633311292603993</v>
       </c>
       <c r="S405">
-        <v>0.7481894850219636</v>
+        <v>0.3136900816328105</v>
       </c>
       <c r="T405">
         <v>8.822046112806937</v>
@@ -43122,7 +43122,7 @@
         <v>0.1764504270242696</v>
       </c>
       <c r="N406">
-        <v>0.6893693740840229</v>
+        <v>0.2146036921447393</v>
       </c>
       <c r="O406">
         <v>0.08573300060479357</v>
@@ -43137,7 +43137,7 @@
         <v>0.7056346131429756</v>
       </c>
       <c r="S406">
-        <v>0.8705155096385987</v>
+        <v>0.2909635237754815</v>
       </c>
       <c r="T406">
         <v>8.599754905149682</v>
@@ -43220,7 +43220,7 @@
         <v>0.1307187405542883</v>
       </c>
       <c r="N407">
-        <v>0.7565106340593758</v>
+        <v>0.1252172234604327</v>
       </c>
       <c r="O407">
         <v>0.06091976545007483</v>
@@ -43235,7 +43235,7 @@
         <v>0.7861002155555475</v>
       </c>
       <c r="S407">
-        <v>1.040289460053135</v>
+        <v>0.284335158884009</v>
       </c>
       <c r="T407">
         <v>8.090780895810667</v>
@@ -43324,7 +43324,7 @@
         <v>0.2577637272684731</v>
       </c>
       <c r="N408">
-        <v>1.259154652785912</v>
+        <v>0.1491247296167991</v>
       </c>
       <c r="O408">
         <v>0.1158689252621429</v>
@@ -43339,7 +43339,7 @@
         <v>0.5544298656482194</v>
       </c>
       <c r="S408">
-        <v>0.9171160714413433</v>
+        <v>0.245699191749495</v>
       </c>
       <c r="T408">
         <v>9.322511498804849</v>
@@ -43428,7 +43428,7 @@
         <v>0.0939184188864889</v>
       </c>
       <c r="N409">
-        <v>0.8574388452942264</v>
+        <v>0.1606837609585461</v>
       </c>
       <c r="O409">
         <v>-0.00118981396954461</v>
@@ -43443,7 +43443,7 @@
         <v>0.6374647422603756</v>
       </c>
       <c r="S409">
-        <v>0.8573823164879419</v>
+        <v>0.2072922102441805</v>
       </c>
       <c r="T409">
         <v>5.560550148863801</v>
@@ -43532,7 +43532,7 @@
         <v>0.1345051071044899</v>
       </c>
       <c r="N410">
-        <v>1.562232884152613</v>
+        <v>0.3273759646080375</v>
       </c>
       <c r="O410">
         <v>0.1537672715893386</v>
@@ -43547,7 +43547,7 @@
         <v>0.6039821465971491</v>
       </c>
       <c r="S410">
-        <v>0.7848733213287721</v>
+        <v>0.2188429498855454</v>
       </c>
       <c r="T410">
         <v>7.278955926517086</v>
@@ -43633,7 +43633,7 @@
         <v>0.07476183946161519</v>
       </c>
       <c r="N411">
-        <v>0.2261956023272863</v>
+        <v>0.1266859046779374</v>
       </c>
       <c r="O411">
         <v>0.03967007465363005</v>
@@ -43648,7 +43648,7 @@
         <v>0.6191723632088219</v>
       </c>
       <c r="S411">
-        <v>0.8802193687756223</v>
+        <v>0.2691724489445258</v>
       </c>
       <c r="T411">
         <v>6.95422380875142</v>
@@ -43737,7 +43737,7 @@
         <v>0.09244078974387553</v>
       </c>
       <c r="N412">
-        <v>0.2359784982572877</v>
+        <v>0.05787285145093463</v>
       </c>
       <c r="O412">
         <v>-0.01240370772529976</v>
@@ -43752,7 +43752,7 @@
         <v>0.7905181377702114</v>
       </c>
       <c r="S412">
-        <v>1.033353199257893</v>
+        <v>0.2650071224291097</v>
       </c>
       <c r="T412">
         <v>9.209075865629627</v>
@@ -43838,7 +43838,7 @@
         <v>0.05107880486662402</v>
       </c>
       <c r="N413">
-        <v>1.066248252620184</v>
+        <v>0.1368098773799067</v>
       </c>
       <c r="O413">
         <v>0.1340593685397837</v>
@@ -43853,7 +43853,7 @@
         <v>0.7738263446636832</v>
       </c>
       <c r="S413">
-        <v>1.137481225538456</v>
+        <v>0.2192355824206135</v>
       </c>
       <c r="T413">
         <v>9.879424726766027</v>
@@ -43936,7 +43936,7 @@
         <v>0.1323036888277987</v>
       </c>
       <c r="N414">
-        <v>1.606955013800264</v>
+        <v>0.1591909667499926</v>
       </c>
       <c r="O414">
         <v>0.05013339851947918</v>
@@ -43951,7 +43951,7 @@
         <v>0.6316175859158357</v>
       </c>
       <c r="S414">
-        <v>0.9135775495289649</v>
+        <v>0.2635151196539528</v>
       </c>
       <c r="T414">
         <v>7.85740163065533</v>
@@ -44040,7 +44040,7 @@
         <v>0.06560045677991022</v>
       </c>
       <c r="N415">
-        <v>0.2782983576052878</v>
+        <v>0.04202984706454092</v>
       </c>
       <c r="O415">
         <v>0.8085426755461688</v>
@@ -44055,7 +44055,7 @@
         <v>0.5772886125864335</v>
       </c>
       <c r="S415">
-        <v>0.839757264611842</v>
+        <v>0.2190900275565108</v>
       </c>
       <c r="T415">
         <v>7.047549585049192</v>
@@ -44141,7 +44141,7 @@
         <v>0.116987296420526</v>
       </c>
       <c r="N416">
-        <v>1.266960958092899</v>
+        <v>0.2243108735709577</v>
       </c>
       <c r="O416">
         <v>0.008558145646654282</v>
@@ -44156,7 +44156,7 @@
         <v>0.6665544305102907</v>
       </c>
       <c r="S416">
-        <v>0.9329044207799968</v>
+        <v>0.2785149421028481</v>
       </c>
       <c r="T416">
         <v>8.151165739489118</v>
@@ -44242,7 +44242,7 @@
         <v>0.04204559688656197</v>
       </c>
       <c r="N417">
-        <v>0.2646481910690716</v>
+        <v>0.04699969418861492</v>
       </c>
       <c r="O417">
         <v>0.03343566126726808</v>
@@ -44257,7 +44257,7 @@
         <v>0.7028805064330717</v>
       </c>
       <c r="S417">
-        <v>0.9558426583687931</v>
+        <v>0.2546883296905523</v>
       </c>
       <c r="T417">
         <v>8.325713337958851</v>
@@ -44346,7 +44346,7 @@
         <v>0.6258337687750233</v>
       </c>
       <c r="N418">
-        <v>0.4742975179032736</v>
+        <v>0.1890390972252306</v>
       </c>
       <c r="O418">
         <v>0.05496393417160711</v>
@@ -44361,7 +44361,7 @@
         <v>0.7780243235564364</v>
       </c>
       <c r="S418">
-        <v>1.049703019734723</v>
+        <v>0.3063950452568565</v>
       </c>
       <c r="T418">
         <v>6.181709680361204</v>
@@ -44447,7 +44447,7 @@
         <v>0.05049367191736825</v>
       </c>
       <c r="N419">
-        <v>0.6545803583830064</v>
+        <v>0.1553775067592033</v>
       </c>
       <c r="O419">
         <v>0.07745467469576744</v>
@@ -44462,7 +44462,7 @@
         <v>0.6105204362192109</v>
       </c>
       <c r="S419">
-        <v>0.9906096332574811</v>
+        <v>0.2301793912385122</v>
       </c>
       <c r="T419">
         <v>8.549846713935041</v>
@@ -44548,7 +44548,7 @@
         <v>0.06752174297914192</v>
       </c>
       <c r="N420">
-        <v>2.448571747693269</v>
+        <v>0.2510101803170717</v>
       </c>
       <c r="O420">
         <v>0.008592921072111038</v>
@@ -44563,7 +44563,7 @@
         <v>0.741121858009558</v>
       </c>
       <c r="S420">
-        <v>1.034903164646022</v>
+        <v>0.2609092414564756</v>
       </c>
       <c r="T420">
         <v>8.201685796806364</v>
@@ -44646,7 +44646,7 @@
         <v>0.04474772375540333</v>
       </c>
       <c r="N421">
-        <v>0.3206899453981559</v>
+        <v>0.02608379709549193</v>
       </c>
       <c r="O421">
         <v>0.0194038285956342</v>
@@ -44661,7 +44661,7 @@
         <v>0.5297225186617111</v>
       </c>
       <c r="S421">
-        <v>0.7748268274957331</v>
+        <v>0.2192596132929901</v>
       </c>
       <c r="T421">
         <v>6.337267644141632</v>
@@ -44744,7 +44744,7 @@
         <v>0.09087996904423461</v>
       </c>
       <c r="N422">
-        <v>0.4533121943040743</v>
+        <v>0.1368407996128733</v>
       </c>
       <c r="O422">
         <v>0.3261670189679763</v>
@@ -44759,7 +44759,7 @@
         <v>0.6490644229211303</v>
       </c>
       <c r="S422">
-        <v>0.9184619039722428</v>
+        <v>0.2247714482668641</v>
       </c>
       <c r="T422">
         <v>8.706950604679209</v>
@@ -44848,7 +44848,7 @@
         <v>0.09280758233444454</v>
       </c>
       <c r="N423">
-        <v>0.7547139270520563</v>
+        <v>0.2045552060272165</v>
       </c>
       <c r="O423">
         <v>0.236567385137386</v>
@@ -44863,7 +44863,7 @@
         <v>0.5132244273976579</v>
       </c>
       <c r="S423">
-        <v>0.670161399244346</v>
+        <v>0.2209698487437514</v>
       </c>
       <c r="T423">
         <v>5.427804648493267</v>
@@ -44949,7 +44949,7 @@
         <v>0.07124180353972506</v>
       </c>
       <c r="N424">
-        <v>1.091929569661511</v>
+        <v>0.1969098454459162</v>
       </c>
       <c r="O424">
         <v>0.1416878805845085</v>
@@ -44964,7 +44964,7 @@
         <v>0.7553378158940729</v>
       </c>
       <c r="S424">
-        <v>0.9233419853579663</v>
+        <v>0.2251383582878348</v>
       </c>
       <c r="T424">
         <v>9.773382860247217</v>
@@ -45047,7 +45047,7 @@
         <v>0.1942402125985439</v>
       </c>
       <c r="N425">
-        <v>0.8350467501786079</v>
+        <v>0.1678084084242482</v>
       </c>
       <c r="O425">
         <v>0.06063982826294136</v>
@@ -45062,7 +45062,7 @@
         <v>0.6621676565026422</v>
       </c>
       <c r="S425">
-        <v>1.021446486609157</v>
+        <v>0.2510980985405689</v>
       </c>
       <c r="T425">
         <v>8.869390511439917</v>
@@ -45148,7 +45148,7 @@
         <v>0.1382555864841883</v>
       </c>
       <c r="N426">
-        <v>0.3595992898171371</v>
+        <v>0.05313781587321267</v>
       </c>
       <c r="O426">
         <v>0.1836837855744116</v>
@@ -45163,7 +45163,7 @@
         <v>0.7069560076676407</v>
       </c>
       <c r="S426">
-        <v>1.162238590923965</v>
+        <v>0.2890997615842752</v>
       </c>
       <c r="T426">
         <v>7.436202683442564</v>
@@ -45249,7 +45249,7 @@
         <v>0.08408501729789604</v>
       </c>
       <c r="N427">
-        <v>0.7469181321404875</v>
+        <v>0.1423106705037144</v>
       </c>
       <c r="O427">
         <v>-0.01140276947663835</v>
@@ -45264,7 +45264,7 @@
         <v>0.5685746776385421</v>
       </c>
       <c r="S427">
-        <v>0.880029853875324</v>
+        <v>0.2049408300055815</v>
       </c>
       <c r="T427">
         <v>7.552478698607954</v>
@@ -45353,7 +45353,7 @@
         <v>0.04523338990747674</v>
       </c>
       <c r="N428">
-        <v>0.2328057538308871</v>
+        <v>0.1176519028899053</v>
       </c>
       <c r="O428">
         <v>0.06934312684634168</v>
@@ -45368,7 +45368,7 @@
         <v>0.5930731807264885</v>
       </c>
       <c r="S428">
-        <v>0.8663234564861089</v>
+        <v>0.2111691486932401</v>
       </c>
       <c r="T428">
         <v>8.796532363330687</v>
@@ -45454,7 +45454,7 @@
         <v>0.09192558917051245</v>
       </c>
       <c r="N429">
-        <v>1.40710175382046</v>
+        <v>0.2645351178016816</v>
       </c>
       <c r="O429">
         <v>0.1301928835865645</v>
@@ -45469,7 +45469,7 @@
         <v>0.6223814377410377</v>
       </c>
       <c r="S429">
-        <v>0.8769371041576074</v>
+        <v>0.2668017533364255</v>
       </c>
       <c r="T429">
         <v>7.055995777507022</v>
@@ -45552,7 +45552,7 @@
         <v>0.113440439230792</v>
       </c>
       <c r="N430">
-        <v>1.014139182263828</v>
+        <v>0.155963800708251</v>
       </c>
       <c r="O430">
         <v>0.1845900681613069</v>
@@ -45567,7 +45567,7 @@
         <v>0.643915080225729</v>
       </c>
       <c r="S430">
-        <v>0.8272889162036963</v>
+        <v>0.2777542391737097</v>
       </c>
       <c r="T430">
         <v>7.835201674304024</v>
@@ -45656,7 +45656,7 @@
         <v>0.0679796742363394</v>
       </c>
       <c r="N431">
-        <v>0.4049365051765869</v>
+        <v>0.1163770712612853</v>
       </c>
       <c r="O431">
         <v>-0.006604360929248297</v>
@@ -45671,7 +45671,7 @@
         <v>0.6411715244860726</v>
       </c>
       <c r="S431">
-        <v>0.9154916942043082</v>
+        <v>0.2338304276527235</v>
       </c>
       <c r="T431">
         <v>8.568067933373312</v>
@@ -45760,7 +45760,7 @@
         <v>0.1340713983084593</v>
       </c>
       <c r="N432">
-        <v>1.628157942828498</v>
+        <v>0.2045005781974726</v>
       </c>
       <c r="O432">
         <v>0.02341480424994286</v>
@@ -45775,7 +45775,7 @@
         <v>0.6347816126374299</v>
       </c>
       <c r="S432">
-        <v>0.8982041792126692</v>
+        <v>0.2385710641009924</v>
       </c>
       <c r="T432">
         <v>6.621125559135582</v>
@@ -45864,7 +45864,7 @@
         <v>0.2428567043865329</v>
       </c>
       <c r="N433">
-        <v>0.8344800098336398</v>
+        <v>0.1330508752607728</v>
       </c>
       <c r="O433">
         <v>0.06025888155601162</v>
@@ -45879,7 +45879,7 @@
         <v>0.6816252629288629</v>
       </c>
       <c r="S433">
-        <v>1.009404088884059</v>
+        <v>0.2629086256089742</v>
       </c>
       <c r="T433">
         <v>9.579935212307607</v>
@@ -45962,7 +45962,7 @@
         <v>0.1457588392631701</v>
       </c>
       <c r="N434">
-        <v>0.5283660566774492</v>
+        <v>0.1190661120477157</v>
       </c>
       <c r="O434">
         <v>0.1173858984057675</v>
@@ -45977,7 +45977,7 @@
         <v>0.6464675007478181</v>
       </c>
       <c r="S434">
-        <v>0.8581142842582092</v>
+        <v>0.1973706153905228</v>
       </c>
       <c r="T434">
         <v>6.573068292018004</v>
@@ -46063,7 +46063,7 @@
         <v>0.04661626243462458</v>
       </c>
       <c r="N435">
-        <v>1.062607027988562</v>
+        <v>0.1522140662551801</v>
       </c>
       <c r="O435">
         <v>0.3961582456720355</v>
@@ -46078,7 +46078,7 @@
         <v>0.5651718314003079</v>
       </c>
       <c r="S435">
-        <v>0.8757242592659269</v>
+        <v>0.2001328770587815</v>
       </c>
       <c r="T435">
         <v>5.838192141021955</v>
@@ -46164,7 +46164,7 @@
         <v>0.1127541923056033</v>
       </c>
       <c r="N436">
-        <v>1.273486246331666</v>
+        <v>0.2805986694865644</v>
       </c>
       <c r="O436">
         <v>0.4232963427008066</v>
@@ -46179,7 +46179,7 @@
         <v>0.6734305351379818</v>
       </c>
       <c r="S436">
-        <v>0.9415400676157142</v>
+        <v>0.2457375731184012</v>
       </c>
       <c r="T436">
         <v>10.46705910930793</v>
@@ -46268,7 +46268,7 @@
         <v>0.09561239958183282</v>
       </c>
       <c r="N437">
-        <v>2.206352648436642</v>
+        <v>0.2170155075641313</v>
       </c>
       <c r="O437">
         <v>0.005747108260371537</v>
@@ -46283,7 +46283,7 @@
         <v>0.6440465279466694</v>
       </c>
       <c r="S437">
-        <v>0.8102372009002721</v>
+        <v>0.231248112274042</v>
       </c>
       <c r="T437">
         <v>7.603165116675418</v>
@@ -46366,7 +46366,7 @@
         <v>0.0637556329074751</v>
       </c>
       <c r="N438">
-        <v>0.8118142825975364</v>
+        <v>0.182444251180681</v>
       </c>
       <c r="O438">
         <v>0.09188817719648597</v>
@@ -46381,7 +46381,7 @@
         <v>0.6096365534615897</v>
       </c>
       <c r="S438">
-        <v>0.7991643054228199</v>
+        <v>0.2617824017241124</v>
       </c>
       <c r="T438">
         <v>10.84358452436749</v>
@@ -46470,7 +46470,7 @@
         <v>0.1036805293113216</v>
       </c>
       <c r="N439">
-        <v>0.4732509646222858</v>
+        <v>0.08376139865674739</v>
       </c>
       <c r="O439">
         <v>0.2100086564302019</v>
@@ -46485,7 +46485,7 @@
         <v>0.6076391277083916</v>
       </c>
       <c r="S439">
-        <v>0.9779616337274852</v>
+        <v>0.220381221559826</v>
       </c>
       <c r="T439">
         <v>8.960572638616842</v>
@@ -46574,7 +46574,7 @@
         <v>0.07134161082051649</v>
       </c>
       <c r="N440">
-        <v>0.4751736115499531</v>
+        <v>0.1168538965426411</v>
       </c>
       <c r="O440">
         <v>0.05962211936497083</v>
@@ -46589,7 +46589,7 @@
         <v>0.6840885841679725</v>
       </c>
       <c r="S440">
-        <v>0.8916517085817824</v>
+        <v>0.2782273835688018</v>
       </c>
       <c r="T440">
         <v>9.480674111182889</v>
@@ -46672,7 +46672,7 @@
         <v>0.1578542607788838</v>
       </c>
       <c r="N441">
-        <v>3.024236177126614</v>
+        <v>0.3565787782509515</v>
       </c>
       <c r="O441">
         <v>0.146184108961923</v>
@@ -46687,7 +46687,7 @@
         <v>0.6878122258891773</v>
       </c>
       <c r="S441">
-        <v>1.014738381150883</v>
+        <v>0.2699291332067277</v>
       </c>
       <c r="T441">
         <v>6.710854727881368</v>
@@ -46773,7 +46773,7 @@
         <v>0.3410493370400598</v>
       </c>
       <c r="N442">
-        <v>1.202259888236811</v>
+        <v>0.1526873121552706</v>
       </c>
       <c r="O442">
         <v>0.03719514237994186</v>
@@ -46788,7 +46788,7 @@
         <v>0.56771414952528</v>
       </c>
       <c r="S442">
-        <v>0.811478506866393</v>
+        <v>0.2325398513400585</v>
       </c>
       <c r="T442">
         <v>6.711571505019417</v>
@@ -46871,7 +46871,7 @@
         <v>0.09049482135156985</v>
       </c>
       <c r="N443">
-        <v>1.052175542135404</v>
+        <v>0.3077222997068937</v>
       </c>
       <c r="O443">
         <v>0.06318471668069048</v>
@@ -46886,7 +46886,7 @@
         <v>0.4968345622525505</v>
       </c>
       <c r="S443">
-        <v>0.8855438760340881</v>
+        <v>0.2888009995146041</v>
       </c>
       <c r="T443">
         <v>7.333320427013659</v>
@@ -46972,7 +46972,7 @@
         <v>0.06537694558108254</v>
       </c>
       <c r="N444">
-        <v>0.5193446963312283</v>
+        <v>0.1634943270241499</v>
       </c>
       <c r="O444">
         <v>0.2721255412930505</v>
@@ -46987,7 +46987,7 @@
         <v>0.63132503932291</v>
       </c>
       <c r="S444">
-        <v>0.8700255667064027</v>
+        <v>0.2411002230988</v>
       </c>
       <c r="T444">
         <v>8.92123129380021</v>
@@ -47076,7 +47076,7 @@
         <v>0.09031158044745334</v>
       </c>
       <c r="N445">
-        <v>1.035191703612708</v>
+        <v>0.14166375432568</v>
       </c>
       <c r="O445">
         <v>0.05704235778919363</v>
@@ -47091,7 +47091,7 @@
         <v>0.4451997511093666</v>
       </c>
       <c r="S445">
-        <v>0.7481734918304784</v>
+        <v>0.1821172572233363</v>
       </c>
       <c r="T445">
         <v>5.967220687264753</v>
@@ -47180,7 +47180,7 @@
         <v>0.03948555447585561</v>
       </c>
       <c r="N446">
-        <v>0.6035760431263287</v>
+        <v>0.1300891536299797</v>
       </c>
       <c r="O446">
         <v>0.04110073260388364</v>
@@ -47195,7 +47195,7 @@
         <v>0.5097030005148806</v>
       </c>
       <c r="S446">
-        <v>0.7997543854155028</v>
+        <v>0.2271166125314394</v>
       </c>
       <c r="T446">
         <v>6.657594934117091</v>
@@ -47281,7 +47281,7 @@
         <v>0.118333282303755</v>
       </c>
       <c r="N447">
-        <v>0.6225883272024265</v>
+        <v>0.2323702680798727</v>
       </c>
       <c r="O447">
         <v>0.0373845458358315</v>
@@ -47296,7 +47296,7 @@
         <v>0.5847225240847596</v>
       </c>
       <c r="S447">
-        <v>0.8808545410902038</v>
+        <v>0.2151713900141053</v>
       </c>
       <c r="T447">
         <v>10.6906157807434</v>
@@ -47379,7 +47379,7 @@
         <v>0.06322565883902252</v>
       </c>
       <c r="N448">
-        <v>0.3388965643115052</v>
+        <v>0.1822828935182716</v>
       </c>
       <c r="O448">
         <v>0.06507064367169672</v>
@@ -47394,7 +47394,7 @@
         <v>0.6604884824609883</v>
       </c>
       <c r="S448">
-        <v>0.8989268181369828</v>
+        <v>0.311105534243278</v>
       </c>
       <c r="T448">
         <v>6.790716996875478</v>
@@ -47480,7 +47480,7 @@
         <v>0.1090309177416629</v>
       </c>
       <c r="N449">
-        <v>0.5153018645757084</v>
+        <v>0.08517058886601893</v>
       </c>
       <c r="O449">
         <v>0.1553189759537162</v>
@@ -47495,7 +47495,7 @@
         <v>0.6081382489993521</v>
       </c>
       <c r="S449">
-        <v>0.9152236712957591</v>
+        <v>0.2514902797278957</v>
       </c>
       <c r="T449">
         <v>9.352248847173398</v>
@@ -47581,7 +47581,7 @@
         <v>0.048668754366262</v>
       </c>
       <c r="N450">
-        <v>2.790121240819627</v>
+        <v>0.2650693158881541</v>
       </c>
       <c r="O450">
         <v>0.0746310495848502</v>
@@ -47596,7 +47596,7 @@
         <v>0.6399094026435197</v>
       </c>
       <c r="S450">
-        <v>0.9675503212371112</v>
+        <v>0.2464815858232152</v>
       </c>
       <c r="T450">
         <v>6.062029455559101</v>
@@ -47679,7 +47679,7 @@
         <v>0.04234672075183443</v>
       </c>
       <c r="N451">
-        <v>0.4273898191436722</v>
+        <v>0.09526853799379394</v>
       </c>
       <c r="O451">
         <v>0.4792194577393148</v>
@@ -47694,7 +47694,7 @@
         <v>0.4688267569365122</v>
       </c>
       <c r="S451">
-        <v>0.8136233495855567</v>
+        <v>0.2046928726080128</v>
       </c>
       <c r="T451">
         <v>6.396123013289124</v>
@@ -47783,7 +47783,7 @@
         <v>0.06519076345865081</v>
       </c>
       <c r="N452">
-        <v>0.4129786559021523</v>
+        <v>0.1264694658768915</v>
       </c>
       <c r="O452">
         <v>0.0639501674078</v>
@@ -47798,7 +47798,7 @@
         <v>0.6760919015786033</v>
       </c>
       <c r="S452">
-        <v>0.8657387442098808</v>
+        <v>0.2741333632428401</v>
       </c>
       <c r="T452">
         <v>8.402363419219023</v>
@@ -47884,7 +47884,7 @@
         <v>0.1512271347365642</v>
       </c>
       <c r="N453">
-        <v>0.7822794747058229</v>
+        <v>0.1794059355883216</v>
       </c>
       <c r="O453">
         <v>0.06109074710087257</v>
@@ -47899,7 +47899,7 @@
         <v>0.5294983428071807</v>
       </c>
       <c r="S453">
-        <v>0.7370845656707425</v>
+        <v>0.2342647917061087</v>
       </c>
       <c r="T453">
         <v>5.551968745414596</v>
@@ -47988,7 +47988,7 @@
         <v>0.04285803464877134</v>
       </c>
       <c r="N454">
-        <v>0.328222293304545</v>
+        <v>0.09334440372247213</v>
       </c>
       <c r="O454">
         <v>0.8324231432693993</v>
@@ -48003,7 +48003,7 @@
         <v>0.5824247978615371</v>
       </c>
       <c r="S454">
-        <v>0.7607529669024002</v>
+        <v>0.3368910918865227</v>
       </c>
       <c r="T454">
         <v>8.117109403117007</v>
@@ -48089,7 +48089,7 @@
         <v>0.0906297635830126</v>
       </c>
       <c r="N455">
-        <v>0.4052460382347174</v>
+        <v>0.1008651095095197</v>
       </c>
       <c r="O455">
         <v>0.1123592909536302</v>
@@ -48104,7 +48104,7 @@
         <v>0.6155646208894743</v>
       </c>
       <c r="S455">
-        <v>0.7775669391478881</v>
+        <v>0.2610096155304025</v>
       </c>
       <c r="T455">
         <v>8.904136078703454</v>
@@ -48190,7 +48190,7 @@
         <v>0.1172158945209512</v>
       </c>
       <c r="N456">
-        <v>2.438710129074893</v>
+        <v>0.2005398797478442</v>
       </c>
       <c r="O456">
         <v>0.1024090537374046</v>
@@ -48205,7 +48205,7 @@
         <v>0.6421241809696981</v>
       </c>
       <c r="S456">
-        <v>0.864144985491799</v>
+        <v>0.2252409275162879</v>
       </c>
       <c r="T456">
         <v>9.989331782725728</v>
@@ -48294,7 +48294,7 @@
         <v>0.2720312348438702</v>
       </c>
       <c r="N457">
-        <v>0.9781689969149269</v>
+        <v>0.1242572649767833</v>
       </c>
       <c r="O457">
         <v>0.06768257681103153</v>
@@ -48309,7 +48309,7 @@
         <v>0.5812503583026942</v>
       </c>
       <c r="S457">
-        <v>0.9123366857660942</v>
+        <v>0.2749680336401212</v>
       </c>
       <c r="T457">
         <v>6.980941878907874</v>
@@ -48392,7 +48392,7 @@
         <v>0.09648382646022323</v>
       </c>
       <c r="N458">
-        <v>0.5770128589942589</v>
+        <v>0.07920878678676152</v>
       </c>
       <c r="O458">
         <v>0.05642750440818845</v>
@@ -48407,7 +48407,7 @@
         <v>0.5751010187829344</v>
       </c>
       <c r="S458">
-        <v>0.949691932036818</v>
+        <v>0.2312702189479851</v>
       </c>
       <c r="T458">
         <v>7.038215958383416</v>
@@ -48496,7 +48496,7 @@
         <v>0.08505684941320898</v>
       </c>
       <c r="N459">
-        <v>0.7920545572803057</v>
+        <v>0.1091652115222443</v>
       </c>
       <c r="O459">
         <v>0.01685300154671255</v>
@@ -48511,7 +48511,7 @@
         <v>0.5966186563850445</v>
       </c>
       <c r="S459">
-        <v>0.8364598623195322</v>
+        <v>0.2167825456155603</v>
       </c>
       <c r="T459">
         <v>6.429496720157027</v>
@@ -48600,7 +48600,7 @@
         <v>0.3129974882645898</v>
       </c>
       <c r="N460">
-        <v>1.617379062116395</v>
+        <v>0.0704880648503267</v>
       </c>
       <c r="O460">
         <v>0.02495330101763738</v>
@@ -48615,7 +48615,7 @@
         <v>0.6252062170640029</v>
       </c>
       <c r="S460">
-        <v>1.051866752354818</v>
+        <v>0.3041532108262814</v>
       </c>
       <c r="T460">
         <v>9.102266533531095</v>
@@ -48701,7 +48701,7 @@
         <v>0.2135003361501343</v>
       </c>
       <c r="N461">
-        <v>1.28517442300877</v>
+        <v>0.1152290981001141</v>
       </c>
       <c r="O461">
         <v>0.09489773261936359</v>
@@ -48716,7 +48716,7 @@
         <v>0.5817708437066187</v>
       </c>
       <c r="S461">
-        <v>0.906393042143066</v>
+        <v>0.2811901489149402</v>
       </c>
       <c r="T461">
         <v>8.889431041532882</v>
@@ -48802,7 +48802,7 @@
         <v>0.2622186382310736</v>
       </c>
       <c r="N462">
-        <v>1.775351833070231</v>
+        <v>0.3225577429631976</v>
       </c>
       <c r="O462">
         <v>0.06655650742395895</v>
@@ -48817,7 +48817,7 @@
         <v>0.6877581218263791</v>
       </c>
       <c r="S462">
-        <v>1.008364475040532</v>
+        <v>0.2895569212377677</v>
       </c>
       <c r="T462">
         <v>9.373427043207776</v>
@@ -48900,7 +48900,7 @@
         <v>0.123851874777262</v>
       </c>
       <c r="N463">
-        <v>1.241134704465232</v>
+        <v>0.1269254968712978</v>
       </c>
       <c r="U463">
         <v>1.876816674250312</v>
@@ -48959,7 +48959,7 @@
         <v>0.2548605953040071</v>
       </c>
       <c r="N464">
-        <v>1.044844517725441</v>
+        <v>0.3024186798511696</v>
       </c>
       <c r="O464">
         <v>0.07456159763385709</v>
@@ -48974,7 +48974,7 @@
         <v>0.7391989614800398</v>
       </c>
       <c r="S464">
-        <v>1.07138427061595</v>
+        <v>0.2753114445864245</v>
       </c>
       <c r="T464">
         <v>9.816509018185949</v>
@@ -49057,7 +49057,7 @@
         <v>0.3096607165391313</v>
       </c>
       <c r="N465">
-        <v>1.394497695769577</v>
+        <v>0.2395565831441911</v>
       </c>
       <c r="O465">
         <v>0.1604055097075345</v>
@@ -49072,7 +49072,7 @@
         <v>0.6437119131029579</v>
       </c>
       <c r="S465">
-        <v>1.082958736004703</v>
+        <v>0.2882251667202092</v>
       </c>
       <c r="T465">
         <v>7.6438131946058</v>
@@ -49158,7 +49158,7 @@
         <v>0.101553941871204</v>
       </c>
       <c r="N466">
-        <v>0.8010467252252415</v>
+        <v>0.2119618397645153</v>
       </c>
       <c r="O466">
         <v>1.226943157944134</v>
@@ -49173,7 +49173,7 @@
         <v>0.5835712128143314</v>
       </c>
       <c r="S466">
-        <v>0.9997332618107139</v>
+        <v>0.3209431404883495</v>
       </c>
       <c r="T466">
         <v>7.858281038912963</v>
@@ -49259,7 +49259,7 @@
         <v>0.3274986852287569</v>
       </c>
       <c r="N467">
-        <v>0.9113752782592557</v>
+        <v>0.1803476690590601</v>
       </c>
       <c r="O467">
         <v>0.09223932123375339</v>
@@ -49274,7 +49274,7 @@
         <v>0.7849388707476839</v>
       </c>
       <c r="S467">
-        <v>1.188157984806494</v>
+        <v>0.2810341809901461</v>
       </c>
       <c r="T467">
         <v>9.106445971923085</v>
@@ -49360,7 +49360,7 @@
         <v>0.1617578363091669</v>
       </c>
       <c r="N468">
-        <v>0.6157047464965847</v>
+        <v>0.04130708099243632</v>
       </c>
       <c r="O468">
         <v>0.08138858473585039</v>
@@ -49375,7 +49375,7 @@
         <v>0.6473908988960729</v>
       </c>
       <c r="S468">
-        <v>0.9668845291801654</v>
+        <v>0.2635496360589181</v>
       </c>
       <c r="T468">
         <v>6.473730038530929</v>
@@ -49458,7 +49458,7 @@
         <v>0.3127021096497268</v>
       </c>
       <c r="N469">
-        <v>1.23275068560075</v>
+        <v>0.3246743869444177</v>
       </c>
       <c r="O469">
         <v>0.1070834633746664</v>
@@ -49473,7 +49473,7 @@
         <v>0.7654019020863829</v>
       </c>
       <c r="S469">
-        <v>1.181420673625729</v>
+        <v>0.2005578577493364</v>
       </c>
       <c r="T469">
         <v>12.1353194097145</v>
@@ -49553,7 +49553,7 @@
         <v>0.241000837675845</v>
       </c>
       <c r="N470">
-        <v>1.058012274181983</v>
+        <v>0.4238033720657438</v>
       </c>
       <c r="O470">
         <v>0.2634717105441232</v>
@@ -49568,7 +49568,7 @@
         <v>0.6137535688420989</v>
       </c>
       <c r="S470">
-        <v>1.017528339265663</v>
+        <v>0.3159375352741921</v>
       </c>
       <c r="T470">
         <v>8.068445670410233</v>
@@ -49651,7 +49651,7 @@
         <v>0.2036709515450349</v>
       </c>
       <c r="N471">
-        <v>1.383004817444053</v>
+        <v>0.4060282850428805</v>
       </c>
       <c r="O471">
         <v>0.1728649255294964</v>
@@ -49666,7 +49666,7 @@
         <v>0.5947615789777776</v>
       </c>
       <c r="S471">
-        <v>0.9675557501474761</v>
+        <v>0.3006862940619113</v>
       </c>
       <c r="T471">
         <v>8.933549839647254</v>
@@ -49746,7 +49746,7 @@
         <v>0.1204479285936621</v>
       </c>
       <c r="N472">
-        <v>1.707615105363723</v>
+        <v>0.1322734752341749</v>
       </c>
       <c r="O472">
         <v>0.5520599251763014</v>
@@ -49761,7 +49761,7 @@
         <v>0.4894495746823479</v>
       </c>
       <c r="S472">
-        <v>0.9691284048436382</v>
+        <v>0.2269006863833493</v>
       </c>
       <c r="T472">
         <v>9.605502929412337</v>
@@ -49841,7 +49841,7 @@
         <v>0.2479733350275592</v>
       </c>
       <c r="N473">
-        <v>1.228066336683092</v>
+        <v>0.3781216283334181</v>
       </c>
       <c r="O473">
         <v>0.1173530163978456</v>
@@ -49856,7 +49856,7 @@
         <v>0.5996503106157698</v>
       </c>
       <c r="S473">
-        <v>0.9633893574670543</v>
+        <v>0.3202787914261918</v>
       </c>
       <c r="T473">
         <v>7.802760964053229</v>
@@ -49942,7 +49942,7 @@
         <v>0.126508044880067</v>
       </c>
       <c r="N474">
-        <v>1.419076795639874</v>
+        <v>0.1790625228520815</v>
       </c>
       <c r="O474">
         <v>0.2037452557831335</v>
@@ -49957,7 +49957,7 @@
         <v>0.6849131848618163</v>
       </c>
       <c r="S474">
-        <v>1.115331085969598</v>
+        <v>0.2328047570309492</v>
       </c>
       <c r="T474">
         <v>9.073643726563164</v>
@@ -50040,7 +50040,7 @@
         <v>0.2019464443568864</v>
       </c>
       <c r="N475">
-        <v>1.108917231483668</v>
+        <v>0.2148300732591347</v>
       </c>
       <c r="O475">
         <v>0.09736746232895617</v>
@@ -50055,7 +50055,7 @@
         <v>0.6772401268866749</v>
       </c>
       <c r="S475">
-        <v>1.304596748785842</v>
+        <v>0.2805323437316215</v>
       </c>
       <c r="T475">
         <v>7.972203690824192</v>
@@ -50138,7 +50138,7 @@
         <v>0.233987731253165</v>
       </c>
       <c r="N476">
-        <v>0.8350915237045354</v>
+        <v>0.3511562006606635</v>
       </c>
       <c r="O476">
         <v>0.1629184380255374</v>
@@ -50153,7 +50153,7 @@
         <v>0.6336970943150183</v>
       </c>
       <c r="S476">
-        <v>0.8801724820068999</v>
+        <v>0.2636969684773948</v>
       </c>
       <c r="T476">
         <v>5.761136308572322</v>
@@ -50236,7 +50236,7 @@
         <v>0.09780854279676324</v>
       </c>
       <c r="N477">
-        <v>1.876018755139583</v>
+        <v>0.1595407953260446</v>
       </c>
       <c r="O477">
         <v>0.1250262738793925</v>
@@ -50251,7 +50251,7 @@
         <v>0.665552710645524</v>
       </c>
       <c r="S477">
-        <v>1.104884781024476</v>
+        <v>0.321829112030076</v>
       </c>
       <c r="T477">
         <v>7.848710881292584</v>
@@ -50334,7 +50334,7 @@
         <v>0.2941411796415487</v>
       </c>
       <c r="N478">
-        <v>1.157069681483593</v>
+        <v>0.1736091050896569</v>
       </c>
       <c r="O478">
         <v>0.1187705326012806</v>
@@ -50349,7 +50349,7 @@
         <v>0.6085111733340541</v>
       </c>
       <c r="S478">
-        <v>1.000963233259449</v>
+        <v>0.2572294019211046</v>
       </c>
       <c r="T478">
         <v>8.951224735537847</v>
@@ -50432,7 +50432,7 @@
         <v>0.222798749266913</v>
       </c>
       <c r="N479">
-        <v>1.111496435958949</v>
+        <v>0.3306875939969942</v>
       </c>
       <c r="O479">
         <v>0.03633962750815497</v>
@@ -50447,7 +50447,7 @@
         <v>0.6488282190242443</v>
       </c>
       <c r="S479">
-        <v>1.073784626766894</v>
+        <v>0.314097190853722</v>
       </c>
       <c r="T479">
         <v>6.090096938721152</v>
@@ -50530,7 +50530,7 @@
         <v>0.1181008791613057</v>
       </c>
       <c r="N480">
-        <v>1.804843298141542</v>
+        <v>0.2081644219426549</v>
       </c>
       <c r="O480">
         <v>0.5525134671929748</v>
@@ -50545,7 +50545,7 @@
         <v>0.6107293228132574</v>
       </c>
       <c r="S480">
-        <v>0.9496408879475268</v>
+        <v>0.3723349510681865</v>
       </c>
       <c r="T480">
         <v>6.45443657521539</v>
@@ -50628,7 +50628,7 @@
         <v>0.1093186642013983</v>
       </c>
       <c r="N481">
-        <v>1.608326651260928</v>
+        <v>0.5377652543283686</v>
       </c>
       <c r="O481">
         <v>0.09904608996496717</v>
@@ -50643,7 +50643,7 @@
         <v>0.6318537574422048</v>
       </c>
       <c r="S481">
-        <v>0.8782737096430006</v>
+        <v>0.3227833582513004</v>
       </c>
       <c r="T481">
         <v>9.672462365404446</v>
@@ -50726,7 +50726,7 @@
         <v>0.06458031631146616</v>
       </c>
       <c r="N482">
-        <v>1.418499974720062</v>
+        <v>0.1448983471332926</v>
       </c>
       <c r="O482">
         <v>0.2948716182140056</v>
@@ -50741,7 +50741,7 @@
         <v>0.6250213318743002</v>
       </c>
       <c r="S482">
-        <v>0.8718362146652162</v>
+        <v>0.2258959217381485</v>
       </c>
       <c r="T482">
         <v>11.03791236534328</v>
@@ -50821,7 +50821,7 @@
         <v>0.2998531251460857</v>
       </c>
       <c r="N483">
-        <v>0.9119960692558958</v>
+        <v>0.0736940366436839</v>
       </c>
       <c r="O483">
         <v>0.04147456868911237</v>
@@ -50836,7 +50836,7 @@
         <v>0.6463385927981855</v>
       </c>
       <c r="S483">
-        <v>0.8774431063262418</v>
+        <v>0.1362928331440155</v>
       </c>
       <c r="T483">
         <v>7.938847006083773</v>
@@ -50919,7 +50919,7 @@
         <v>0.2097014223675531</v>
       </c>
       <c r="N484">
-        <v>0.6885750013975611</v>
+        <v>0.4678398069476444</v>
       </c>
       <c r="O484">
         <v>0.113838253972136</v>
@@ -50934,7 +50934,7 @@
         <v>0.6769331103468537</v>
       </c>
       <c r="S484">
-        <v>0.8884196060903715</v>
+        <v>0.2905067973020272</v>
       </c>
       <c r="T484">
         <v>9.560310199270782</v>
@@ -51020,7 +51020,7 @@
         <v>0.1718552705878173</v>
       </c>
       <c r="N485">
-        <v>1.001447640422089</v>
+        <v>0.5966626316226852</v>
       </c>
       <c r="O485">
         <v>0.05012013640177723</v>
@@ -51035,7 +51035,7 @@
         <v>0.7461898448065432</v>
       </c>
       <c r="S485">
-        <v>0.9426966830441265</v>
+        <v>0.3284230035355467</v>
       </c>
       <c r="T485">
         <v>8.743638197407231</v>
@@ -51118,7 +51118,7 @@
         <v>0.1932789202825668</v>
       </c>
       <c r="N486">
-        <v>0.7546886532914413</v>
+        <v>0.1392651725274002</v>
       </c>
       <c r="O486">
         <v>0.04402395423191926</v>
@@ -51133,7 +51133,7 @@
         <v>0.5813613792339485</v>
       </c>
       <c r="S486">
-        <v>0.8094727965460574</v>
+        <v>0.1857053744853896</v>
       </c>
       <c r="T486">
         <v>6.747434261399182</v>
@@ -51213,7 +51213,7 @@
         <v>0.2152522489066803</v>
       </c>
       <c r="N487">
-        <v>1.259415796982157</v>
+        <v>0.514236118186606</v>
       </c>
       <c r="O487">
         <v>0.06514663440142776</v>
@@ -51228,7 +51228,7 @@
         <v>0.7389791786705657</v>
       </c>
       <c r="S487">
-        <v>0.9764100668698106</v>
+        <v>0.2980103844850868</v>
       </c>
       <c r="T487">
         <v>7.887724663709819</v>
@@ -51311,7 +51311,7 @@
         <v>0.5110210483702577</v>
       </c>
       <c r="N488">
-        <v>0.6166518962949701</v>
+        <v>0.1369201597744497</v>
       </c>
       <c r="O488">
         <v>0.02372004851170953</v>
@@ -51326,7 +51326,7 @@
         <v>0.614121854967839</v>
       </c>
       <c r="S488">
-        <v>0.8835075295965341</v>
+        <v>0.2780894341770861</v>
       </c>
       <c r="T488">
         <v>9.161079921486817</v>
@@ -51409,7 +51409,7 @@
         <v>0.1696888393100811</v>
       </c>
       <c r="N489">
-        <v>1.020199497257872</v>
+        <v>0.2036825129822635</v>
       </c>
       <c r="O489">
         <v>0.04475373588112996</v>
@@ -51424,7 +51424,7 @@
         <v>0.6957316733288412</v>
       </c>
       <c r="S489">
-        <v>0.9793503952829413</v>
+        <v>0.2751863542993183</v>
       </c>
       <c r="T489">
         <v>9.609141442620555</v>
@@ -51504,7 +51504,7 @@
         <v>0.09639269714738817</v>
       </c>
       <c r="N490">
-        <v>0.9017160993895905</v>
+        <v>0.1210059039390783</v>
       </c>
       <c r="O490">
         <v>-0.02042049837037604</v>
@@ -51519,7 +51519,7 @@
         <v>0.6032394987166169</v>
       </c>
       <c r="S490">
-        <v>0.8285108343877396</v>
+        <v>0.2533093087407844</v>
       </c>
       <c r="T490">
         <v>9.935636486629052</v>
@@ -51599,7 +51599,7 @@
         <v>0.1335648616598986</v>
       </c>
       <c r="N491">
-        <v>0.8980255886124402</v>
+        <v>0.387309229737448</v>
       </c>
       <c r="O491">
         <v>0.03270356399968825</v>
@@ -51614,7 +51614,7 @@
         <v>0.6517115080460609</v>
       </c>
       <c r="S491">
-        <v>0.8374828982045333</v>
+        <v>0.3245032425722184</v>
       </c>
       <c r="T491">
         <v>11.66464217543819</v>
@@ -51697,7 +51697,7 @@
         <v>0.1204536990667914</v>
       </c>
       <c r="N492">
-        <v>1.581851576716192</v>
+        <v>0.2737281426729007</v>
       </c>
       <c r="O492">
         <v>0.08047418859526592</v>
@@ -51712,7 +51712,7 @@
         <v>0.5751145999404091</v>
       </c>
       <c r="S492">
-        <v>0.8635418697989959</v>
+        <v>0.1984978997412772</v>
       </c>
       <c r="T492">
         <v>8.553517149506275</v>
@@ -51792,7 +51792,7 @@
         <v>0.04110658443282463</v>
       </c>
       <c r="N493">
-        <v>0.8536325535788553</v>
+        <v>0.1600097866696036</v>
       </c>
       <c r="O493">
         <v>0.03997484558657453</v>
@@ -51807,7 +51807,7 @@
         <v>0.6339739931945967</v>
       </c>
       <c r="S493">
-        <v>0.7030870125185119</v>
+        <v>0.2926405879947166</v>
       </c>
       <c r="T493">
         <v>8.639353065776893</v>
@@ -51893,7 +51893,7 @@
         <v>0.1355230088424435</v>
       </c>
       <c r="N494">
-        <v>0.6043842089647823</v>
+        <v>0.05682039621384927</v>
       </c>
       <c r="O494">
         <v>0.04676438990175626</v>
@@ -51908,7 +51908,7 @@
         <v>0.586650376202056</v>
       </c>
       <c r="S494">
-        <v>0.8447945242805356</v>
+        <v>0.1487779521999043</v>
       </c>
       <c r="T494">
         <v>8.068838258164575</v>
@@ -51988,7 +51988,7 @@
         <v>0.119362140269663</v>
       </c>
       <c r="N495">
-        <v>0.4880487822509935</v>
+        <v>0.1715713001826452</v>
       </c>
       <c r="O495">
         <v>0.03705339854437648</v>
@@ -52003,7 +52003,7 @@
         <v>0.6546492669955234</v>
       </c>
       <c r="S495">
-        <v>0.9101776855356304</v>
+        <v>0.2536707887901039</v>
       </c>
       <c r="T495">
         <v>10.4777198298159</v>
@@ -52083,7 +52083,7 @@
         <v>0.5972656235317764</v>
       </c>
       <c r="N496">
-        <v>0.8645863378021162</v>
+        <v>0.2771743895171321</v>
       </c>
       <c r="O496">
         <v>-0.03198315619382715</v>
@@ -52098,7 +52098,7 @@
         <v>0.7019297073399281</v>
       </c>
       <c r="S496">
-        <v>0.9137972905522309</v>
+        <v>0.2875718817640779</v>
       </c>
       <c r="T496">
         <v>4.689145919622274</v>
@@ -52181,7 +52181,7 @@
         <v>0.09877816121212582</v>
       </c>
       <c r="N497">
-        <v>1.027410395369299</v>
+        <v>0.1566745595166275</v>
       </c>
       <c r="O497">
         <v>-0.06590474559506773</v>
@@ -52196,7 +52196,7 @@
         <v>0.6716515346322002</v>
       </c>
       <c r="S497">
-        <v>0.885538329888042</v>
+        <v>0.2297247015278709</v>
       </c>
       <c r="T497">
         <v>4.671811511479597</v>
@@ -52279,7 +52279,7 @@
         <v>0.195188944245923</v>
       </c>
       <c r="N498">
-        <v>1.057163794157827</v>
+        <v>0.4335885144374798</v>
       </c>
       <c r="O498">
         <v>0.03225129904650843</v>
@@ -52294,7 +52294,7 @@
         <v>0.6481462877513254</v>
       </c>
       <c r="S498">
-        <v>0.9298098753323217</v>
+        <v>0.3245930628643723</v>
       </c>
       <c r="T498">
         <v>8.787114968954988</v>
@@ -52377,7 +52377,7 @@
         <v>0.05367565480233846</v>
       </c>
       <c r="N499">
-        <v>0.3429219841997171</v>
+        <v>0.1437968052291049</v>
       </c>
       <c r="O499">
         <v>0.05193208980264343</v>
@@ -52392,7 +52392,7 @@
         <v>0.6515573173697673</v>
       </c>
       <c r="S499">
-        <v>0.9435472311589993</v>
+        <v>0.296226883334249</v>
       </c>
       <c r="T499">
         <v>8.152967645411126</v>
@@ -52475,7 +52475,7 @@
         <v>0.127896797503305</v>
       </c>
       <c r="N500">
-        <v>0.5722544157109994</v>
+        <v>0.1657409095503848</v>
       </c>
       <c r="O500">
         <v>-0.04389080528846016</v>
@@ -52490,7 +52490,7 @@
         <v>0.7020999018128563</v>
       </c>
       <c r="S500">
-        <v>0.8709124603198773</v>
+        <v>0.2303217071754305</v>
       </c>
       <c r="T500">
         <v>7.469018471595215</v>
@@ -52573,7 +52573,7 @@
         <v>0.06100625580728183</v>
       </c>
       <c r="N501">
-        <v>0.3350249054001409</v>
+        <v>0.07396245152028781</v>
       </c>
       <c r="O501">
         <v>0.0401397533939442</v>
@@ -52588,7 +52588,7 @@
         <v>0.6695230390369282</v>
       </c>
       <c r="S501">
-        <v>0.8854668835818359</v>
+        <v>0.2956106738244125</v>
       </c>
       <c r="T501">
         <v>10.94560138508796</v>
@@ -52668,7 +52668,7 @@
         <v>0.2083952095651068</v>
       </c>
       <c r="N502">
-        <v>1.720553351019391</v>
+        <v>0.3114367950166765</v>
       </c>
       <c r="O502">
         <v>-0.05739772677024393</v>
@@ -52683,7 +52683,7 @@
         <v>0.6282656900830493</v>
       </c>
       <c r="S502">
-        <v>0.9892971705245677</v>
+        <v>0.2805029725209284</v>
       </c>
       <c r="T502">
         <v>5.821162162944472</v>
@@ -52763,7 +52763,7 @@
         <v>0.1134303734843222</v>
       </c>
       <c r="N503">
-        <v>0.3771146467327315</v>
+        <v>0.1173993501460478</v>
       </c>
       <c r="O503">
         <v>0.03013658426635619</v>
@@ -52778,7 +52778,7 @@
         <v>0.6541015049332967</v>
       </c>
       <c r="S503">
-        <v>0.7858909688590622</v>
+        <v>0.2672033146212435</v>
       </c>
       <c r="T503">
         <v>7.029718625867723</v>
@@ -52864,7 +52864,7 @@
         <v>0.2462559389148967</v>
       </c>
       <c r="N504">
-        <v>0.6777988573475445</v>
+        <v>0.1643342196007639</v>
       </c>
       <c r="O504">
         <v>0.04309688233695165</v>
@@ -52879,7 +52879,7 @@
         <v>0.5846633709380233</v>
       </c>
       <c r="S504">
-        <v>0.7786653768713766</v>
+        <v>0.2533645998083715</v>
       </c>
       <c r="T504">
         <v>3.62018078791635</v>
@@ -52962,7 +52962,7 @@
         <v>0.3404836923970095</v>
       </c>
       <c r="N505">
-        <v>0.5646349478651377</v>
+        <v>0.0726683431929433</v>
       </c>
       <c r="O505">
         <v>0.04483306299810638</v>
@@ -52977,7 +52977,7 @@
         <v>0.4465378176407304</v>
       </c>
       <c r="S505">
-        <v>0.7508811502207582</v>
+        <v>0.1665727783728898</v>
       </c>
       <c r="T505">
         <v>3.119998198563465</v>
@@ -53060,7 +53060,7 @@
         <v>0.08367526478506535</v>
       </c>
       <c r="N506">
-        <v>0.3503953158758224</v>
+        <v>0.139552511333069</v>
       </c>
       <c r="O506">
         <v>0.04377408443087876</v>
@@ -53075,7 +53075,7 @@
         <v>0.6330798380313913</v>
       </c>
       <c r="S506">
-        <v>0.8533215713636555</v>
+        <v>0.2692028105120809</v>
       </c>
       <c r="T506">
         <v>7.51186533951112</v>
@@ -53161,7 +53161,7 @@
         <v>0.07733362114055026</v>
       </c>
       <c r="N507">
-        <v>0.6590970508182205</v>
+        <v>0.1543059510002091</v>
       </c>
       <c r="O507">
         <v>0.03551568610341816</v>
@@ -53176,7 +53176,7 @@
         <v>0.6936146557419941</v>
       </c>
       <c r="S507">
-        <v>0.8977201536543064</v>
+        <v>0.2699631239320375</v>
       </c>
       <c r="T507">
         <v>7.968222238332503</v>
@@ -53289,210 +53289,210 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.00209866435803981</v>
+        <v>0.001941375296156231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>0.001941375296156231</v>
+        <v>0.001783021642109457</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0.001783021642109457</v>
+        <v>-0.001493954205035756</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.001493954205035756</v>
+        <v>-0.00143164257099261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.00143164257099261</v>
+        <v>0.00142809731120917</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0.00142809731120917</v>
+        <v>0.001398434209612295</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>0.001398434209612295</v>
+        <v>-0.001278447422869972</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.001278447422869972</v>
+        <v>0.001252754626345129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>0.001252754626345129</v>
+        <v>0.001184037433200763</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.001184037433200763</v>
+        <v>-0.001098924010402667</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>-0.001098924010402667</v>
+        <v>0.0009919853422684897</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>0.0009919853422684897</v>
+        <v>0.0008233590732159383</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.0008737295114842833</v>
+        <v>-0.0007502695320094758</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>0.0008233590732159383</v>
+        <v>0.0007226855473926086</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.0007502695320094758</v>
+        <v>-0.0004937111707417445</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.0004937111707417445</v>
+        <v>-0.0004496166388637729</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>-0.0004496166388637729</v>
+        <v>0.0004097319285233736</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>0.0004097319285233736</v>
+        <v>-0.0002679796611969646</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>-0.0002679796611969646</v>
+        <v>0.0002243799905167032</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0.0002243799905167032</v>
+        <v>0.00022238488000466</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>0.00022238488000466</v>
+        <v>-0.0002188884947370331</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>-0.0002188884947370331</v>
+        <v>-0.000153550987804703</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>-0.000153550987804703</v>
+        <v>0.0001282695708661165</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>0.0001282695708661165</v>
+        <v>-0.0001211929789296704</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>-0.0001211929789296704</v>
+        <v>0.0001030513267451725</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>0.0001030513267451725</v>
+        <v>6.552735404618291E-05</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -53555,106 +53555,106 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06308358581882123</v>
+        <v>0.06342593219155086</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.06270236752600022</v>
+        <v>0.06308358581882123</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.05602883387285215</v>
+        <v>0.06270236752600022</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>-0.04841765512043237</v>
+        <v>-0.05602883387285215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.04418884432420343</v>
+        <v>-0.04841765512043237</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>-0.0411867765664511</v>
+        <v>0.04418884432420343</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0.03857877831910204</v>
+        <v>-0.0411867765664511</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.0371634630570438</v>
+        <v>0.03857877831910204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.02442441658713982</v>
+        <v>-0.0371634630570438</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>0.02346646576136505</v>
+        <v>-0.02442441658713982</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.02336667478523266</v>
+        <v>0.02346646576136505</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.02022574771587683</v>
+        <v>-0.02336667478523266</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0.01877412584750805</v>
+        <v>-0.02022574771587683</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -53731,10 +53731,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>0.007130543612575665</v>
+        <v>0.009030776597384356</v>
       </c>
     </row>
     <row r="29" spans="1:2">
